--- a/Plan de Pruebas Demo QA.xlsx
+++ b/Plan de Pruebas Demo QA.xlsx
@@ -6081,7 +6081,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6098,7 +6098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -6113,6 +6113,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -7303,7 +7309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="238">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7651,7 +7657,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="76" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7729,10 +7735,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7770,10 +7776,10 @@
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -7797,10 +7803,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -7881,7 +7887,7 @@
     <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -7899,13 +7905,13 @@
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="91" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="91" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -7914,7 +7920,7 @@
     <xf xfId="0" numFmtId="0" borderId="92" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="92" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="92" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="92" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -7926,7 +7932,7 @@
     <xf xfId="0" numFmtId="0" borderId="93" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -7954,7 +7960,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7965,29 +7971,35 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="49" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="91" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7998,7 +8010,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -8312,16 +8330,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="142" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="142" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="142" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="235" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="235" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="235" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -8372,14 +8390,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="142" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="217" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="235" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="236" width="31.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="217" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="233" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="142" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="142" width="72.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="233" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="142" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="237" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="235" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="235" width="72.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="237" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="235" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -8421,14 +8439,14 @@
       <c r="D2" s="177">
         <v>1</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G2" s="227"/>
-      <c r="H2" s="228" t="s">
+      <c r="G2" s="228"/>
+      <c r="H2" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8439,13 +8457,13 @@
       <c r="D3" s="177">
         <v>2</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="227" t="s">
         <v>1514</v>
       </c>
-      <c r="G3" s="227"/>
+      <c r="G3" s="228"/>
       <c r="H3" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -8455,13 +8473,13 @@
       <c r="D4" s="177">
         <v>3</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="227" t="s">
         <v>1515</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="227" t="s">
         <v>1516</v>
       </c>
-      <c r="G4" s="227"/>
+      <c r="G4" s="228"/>
       <c r="H4" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -8471,13 +8489,13 @@
       <c r="D5" s="177">
         <v>4</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="227" t="s">
         <v>1517</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="227" t="s">
         <v>1518</v>
       </c>
-      <c r="G5" s="227" t="s">
+      <c r="G5" s="230" t="s">
         <v>1519</v>
       </c>
       <c r="H5" s="125"/>
@@ -8489,13 +8507,13 @@
       <c r="D6" s="177">
         <v>5</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="227" t="s">
         <v>1520</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="227" t="s">
         <v>1521</v>
       </c>
-      <c r="G6" s="227" t="s">
+      <c r="G6" s="230" t="s">
         <v>1519</v>
       </c>
       <c r="H6" s="125"/>
@@ -8507,13 +8525,13 @@
       <c r="D7" s="177">
         <v>6</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="227" t="s">
         <v>1522</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="227" t="s">
         <v>1523</v>
       </c>
-      <c r="G7" s="227"/>
+      <c r="G7" s="228"/>
       <c r="H7" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -8523,13 +8541,13 @@
       <c r="D8" s="177">
         <v>7</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="227" t="s">
         <v>1524</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="227" t="s">
         <v>1521</v>
       </c>
-      <c r="G8" s="227" t="s">
+      <c r="G8" s="230" t="s">
         <v>1525</v>
       </c>
       <c r="H8" s="125"/>
@@ -8541,13 +8559,13 @@
       <c r="D9" s="177">
         <v>8</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="227" t="s">
         <v>1522</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="227" t="s">
         <v>1523</v>
       </c>
-      <c r="G9" s="227"/>
+      <c r="G9" s="228"/>
       <c r="H9" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -8557,13 +8575,13 @@
       <c r="D10" s="177">
         <v>9</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="227" t="s">
         <v>1526</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="227" t="s">
         <v>1527</v>
       </c>
-      <c r="G10" s="229" t="s">
+      <c r="G10" s="231" t="s">
         <v>1528</v>
       </c>
       <c r="H10" s="125"/>
@@ -8575,13 +8593,13 @@
       <c r="D11" s="177">
         <v>10</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="227" t="s">
         <v>1529</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="227" t="s">
         <v>1530</v>
       </c>
-      <c r="G11" s="227" t="s">
+      <c r="G11" s="230" t="s">
         <v>1531</v>
       </c>
       <c r="H11" s="125"/>
@@ -8593,13 +8611,13 @@
       <c r="D12" s="177">
         <v>11</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="227" t="s">
         <v>1532</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="227" t="s">
         <v>1533</v>
       </c>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="230" t="s">
         <v>1534</v>
       </c>
       <c r="H12" s="125"/>
@@ -8611,13 +8629,13 @@
       <c r="D13" s="177">
         <v>12</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="227" t="s">
         <v>1522</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="227" t="s">
         <v>1535</v>
       </c>
-      <c r="G13" s="227"/>
+      <c r="G13" s="228"/>
       <c r="H13" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -8627,13 +8645,13 @@
       <c r="D14" s="177">
         <v>13</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="227" t="s">
         <v>1536</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="227" t="s">
         <v>1537</v>
       </c>
-      <c r="G14" s="227"/>
+      <c r="G14" s="228"/>
       <c r="H14" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -8643,13 +8661,13 @@
       <c r="D15" s="177">
         <v>14</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="227" t="s">
         <v>1538</v>
       </c>
-      <c r="F15" s="116" t="s">
+      <c r="F15" s="227" t="s">
         <v>1539</v>
       </c>
-      <c r="G15" s="227"/>
+      <c r="G15" s="228"/>
       <c r="H15" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -8657,9 +8675,9 @@
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="177"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="228"/>
       <c r="H16" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -8667,9 +8685,9 @@
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="177"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="228"/>
       <c r="H17" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -8677,9 +8695,9 @@
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="177"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="228"/>
       <c r="H18" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -8687,13 +8705,13 @@
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="177"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="228"/>
       <c r="H19" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="228" t="s">
+      <c r="A20" s="229" t="s">
         <v>1540</v>
       </c>
       <c r="B20" s="174" t="s">
@@ -8705,14 +8723,14 @@
       <c r="D20" s="177">
         <v>1</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G20" s="227"/>
-      <c r="H20" s="228" t="s">
+      <c r="G20" s="228"/>
+      <c r="H20" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8723,13 +8741,13 @@
       <c r="D21" s="177">
         <v>2</v>
       </c>
-      <c r="E21" s="116" t="s">
+      <c r="E21" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F21" s="116" t="s">
+      <c r="F21" s="227" t="s">
         <v>1514</v>
       </c>
-      <c r="G21" s="227"/>
+      <c r="G21" s="228"/>
       <c r="H21" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -8739,13 +8757,13 @@
       <c r="D22" s="177">
         <v>3</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="227" t="s">
         <v>1543</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="227" t="s">
         <v>1544</v>
       </c>
-      <c r="G22" s="227"/>
+      <c r="G22" s="228"/>
       <c r="H22" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -8755,13 +8773,13 @@
       <c r="D23" s="177">
         <v>4</v>
       </c>
-      <c r="E23" s="116" t="s">
+      <c r="E23" s="227" t="s">
         <v>1545</v>
       </c>
-      <c r="F23" s="116" t="s">
+      <c r="F23" s="227" t="s">
         <v>1546</v>
       </c>
-      <c r="G23" s="227"/>
+      <c r="G23" s="228"/>
       <c r="H23" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -8771,13 +8789,13 @@
       <c r="D24" s="177">
         <v>5</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="227" t="s">
         <v>1547</v>
       </c>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="227" t="s">
         <v>1548</v>
       </c>
-      <c r="G24" s="227"/>
+      <c r="G24" s="228"/>
       <c r="H24" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -8787,13 +8805,13 @@
       <c r="D25" s="177">
         <v>6</v>
       </c>
-      <c r="E25" s="116" t="s">
+      <c r="E25" s="227" t="s">
         <v>1549</v>
       </c>
-      <c r="F25" s="116" t="s">
+      <c r="F25" s="227" t="s">
         <v>1550</v>
       </c>
-      <c r="G25" s="227"/>
+      <c r="G25" s="228"/>
       <c r="H25" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -8803,13 +8821,13 @@
       <c r="D26" s="177">
         <v>7</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="227" t="s">
         <v>1551</v>
       </c>
-      <c r="F26" s="116" t="s">
+      <c r="F26" s="227" t="s">
         <v>1552</v>
       </c>
-      <c r="G26" s="227"/>
+      <c r="G26" s="228"/>
       <c r="H26" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -8819,13 +8837,13 @@
       <c r="D27" s="177">
         <v>8</v>
       </c>
-      <c r="E27" s="116" t="s">
+      <c r="E27" s="227" t="s">
         <v>1553</v>
       </c>
-      <c r="F27" s="116" t="s">
+      <c r="F27" s="227" t="s">
         <v>1554</v>
       </c>
-      <c r="G27" s="227"/>
+      <c r="G27" s="228"/>
       <c r="H27" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -8835,13 +8853,13 @@
       <c r="D28" s="177">
         <v>9</v>
       </c>
-      <c r="E28" s="116" t="s">
+      <c r="E28" s="227" t="s">
         <v>1555</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="227" t="s">
         <v>1556</v>
       </c>
-      <c r="G28" s="227"/>
+      <c r="G28" s="228"/>
       <c r="H28" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -8851,13 +8869,13 @@
       <c r="D29" s="177">
         <v>10</v>
       </c>
-      <c r="E29" s="116" t="s">
+      <c r="E29" s="227" t="s">
         <v>1557</v>
       </c>
-      <c r="F29" s="116" t="s">
+      <c r="F29" s="227" t="s">
         <v>1558</v>
       </c>
-      <c r="G29" s="227"/>
+      <c r="G29" s="228"/>
       <c r="H29" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -8867,13 +8885,13 @@
       <c r="D30" s="177">
         <v>11</v>
       </c>
-      <c r="E30" s="116" t="s">
+      <c r="E30" s="227" t="s">
         <v>1559</v>
       </c>
-      <c r="F30" s="116" t="s">
+      <c r="F30" s="227" t="s">
         <v>1560</v>
       </c>
-      <c r="G30" s="227"/>
+      <c r="G30" s="228"/>
       <c r="H30" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -8883,13 +8901,13 @@
       <c r="D31" s="177">
         <v>12</v>
       </c>
-      <c r="E31" s="116" t="s">
+      <c r="E31" s="227" t="s">
         <v>1561</v>
       </c>
-      <c r="F31" s="116" t="s">
+      <c r="F31" s="227" t="s">
         <v>1562</v>
       </c>
-      <c r="G31" s="227"/>
+      <c r="G31" s="228"/>
       <c r="H31" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -8899,13 +8917,13 @@
       <c r="D32" s="177">
         <v>13</v>
       </c>
-      <c r="E32" s="116" t="s">
+      <c r="E32" s="227" t="s">
         <v>1563</v>
       </c>
-      <c r="F32" s="116" t="s">
+      <c r="F32" s="227" t="s">
         <v>1564</v>
       </c>
-      <c r="G32" s="227"/>
+      <c r="G32" s="228"/>
       <c r="H32" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -8915,13 +8933,13 @@
       <c r="D33" s="177">
         <v>14</v>
       </c>
-      <c r="E33" s="116" t="s">
+      <c r="E33" s="227" t="s">
         <v>1565</v>
       </c>
-      <c r="F33" s="116" t="s">
+      <c r="F33" s="227" t="s">
         <v>1566</v>
       </c>
-      <c r="G33" s="227"/>
+      <c r="G33" s="228"/>
       <c r="H33" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -8931,13 +8949,13 @@
       <c r="D34" s="177">
         <v>15</v>
       </c>
-      <c r="E34" s="116" t="s">
+      <c r="E34" s="227" t="s">
         <v>1567</v>
       </c>
-      <c r="F34" s="116" t="s">
+      <c r="F34" s="227" t="s">
         <v>1568</v>
       </c>
-      <c r="G34" s="227"/>
+      <c r="G34" s="228"/>
       <c r="H34" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -8947,13 +8965,13 @@
       <c r="D35" s="177">
         <v>16</v>
       </c>
-      <c r="E35" s="116" t="s">
+      <c r="E35" s="227" t="s">
         <v>1569</v>
       </c>
-      <c r="F35" s="116" t="s">
+      <c r="F35" s="227" t="s">
         <v>1570</v>
       </c>
-      <c r="G35" s="227"/>
+      <c r="G35" s="228"/>
       <c r="H35" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -8963,13 +8981,13 @@
       <c r="D36" s="177">
         <v>17</v>
       </c>
-      <c r="E36" s="116" t="s">
+      <c r="E36" s="227" t="s">
         <v>1571</v>
       </c>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="227" t="s">
         <v>1572</v>
       </c>
-      <c r="G36" s="227"/>
+      <c r="G36" s="228"/>
       <c r="H36" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -8979,13 +8997,13 @@
       <c r="D37" s="177">
         <v>18</v>
       </c>
-      <c r="E37" s="116" t="s">
+      <c r="E37" s="227" t="s">
         <v>1573</v>
       </c>
-      <c r="F37" s="116" t="s">
+      <c r="F37" s="227" t="s">
         <v>1574</v>
       </c>
-      <c r="G37" s="227"/>
+      <c r="G37" s="228"/>
       <c r="H37" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -8995,13 +9013,13 @@
       <c r="D38" s="177">
         <v>19</v>
       </c>
-      <c r="E38" s="116" t="s">
+      <c r="E38" s="227" t="s">
         <v>1575</v>
       </c>
-      <c r="F38" s="116" t="s">
+      <c r="F38" s="227" t="s">
         <v>1576</v>
       </c>
-      <c r="G38" s="227"/>
+      <c r="G38" s="228"/>
       <c r="H38" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -9011,13 +9029,13 @@
       <c r="D39" s="177">
         <v>20</v>
       </c>
-      <c r="E39" s="116" t="s">
+      <c r="E39" s="227" t="s">
         <v>1577</v>
       </c>
-      <c r="F39" s="116" t="s">
+      <c r="F39" s="227" t="s">
         <v>1578</v>
       </c>
-      <c r="G39" s="227"/>
+      <c r="G39" s="228"/>
       <c r="H39" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -9027,13 +9045,13 @@
       <c r="D40" s="177">
         <v>21</v>
       </c>
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="227" t="s">
         <v>1579</v>
       </c>
-      <c r="F40" s="116" t="s">
+      <c r="F40" s="227" t="s">
         <v>1580</v>
       </c>
-      <c r="G40" s="227"/>
+      <c r="G40" s="228"/>
       <c r="H40" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -9043,13 +9061,13 @@
       <c r="D41" s="177">
         <v>22</v>
       </c>
-      <c r="E41" s="116" t="s">
+      <c r="E41" s="227" t="s">
         <v>1581</v>
       </c>
-      <c r="F41" s="116" t="s">
+      <c r="F41" s="227" t="s">
         <v>1582</v>
       </c>
-      <c r="G41" s="227"/>
+      <c r="G41" s="228"/>
       <c r="H41" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -9059,13 +9077,13 @@
       <c r="D42" s="177">
         <v>23</v>
       </c>
-      <c r="E42" s="116" t="s">
+      <c r="E42" s="227" t="s">
         <v>1583</v>
       </c>
-      <c r="F42" s="116" t="s">
+      <c r="F42" s="227" t="s">
         <v>1584</v>
       </c>
-      <c r="G42" s="227"/>
+      <c r="G42" s="228"/>
       <c r="H42" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -9075,13 +9093,13 @@
       <c r="D43" s="177">
         <v>24</v>
       </c>
-      <c r="E43" s="116" t="s">
+      <c r="E43" s="227" t="s">
         <v>1585</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="227" t="s">
         <v>1586</v>
       </c>
-      <c r="G43" s="227"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -9091,13 +9109,13 @@
       <c r="D44" s="177">
         <v>25</v>
       </c>
-      <c r="E44" s="116" t="s">
+      <c r="E44" s="227" t="s">
         <v>1587</v>
       </c>
-      <c r="F44" s="116" t="s">
+      <c r="F44" s="227" t="s">
         <v>1588</v>
       </c>
-      <c r="G44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -9107,13 +9125,13 @@
       <c r="D45" s="177">
         <v>26</v>
       </c>
-      <c r="E45" s="116" t="s">
+      <c r="E45" s="227" t="s">
         <v>1589</v>
       </c>
-      <c r="F45" s="116" t="s">
+      <c r="F45" s="227" t="s">
         <v>1590</v>
       </c>
-      <c r="G45" s="227"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -9123,13 +9141,13 @@
       <c r="D46" s="177">
         <v>27</v>
       </c>
-      <c r="E46" s="116" t="s">
+      <c r="E46" s="227" t="s">
         <v>1591</v>
       </c>
-      <c r="F46" s="116" t="s">
+      <c r="F46" s="227" t="s">
         <v>1592</v>
       </c>
-      <c r="G46" s="227"/>
+      <c r="G46" s="228"/>
       <c r="H46" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -9139,13 +9157,13 @@
       <c r="D47" s="177">
         <v>28</v>
       </c>
-      <c r="E47" s="116" t="s">
+      <c r="E47" s="227" t="s">
         <v>1593</v>
       </c>
-      <c r="F47" s="116" t="s">
+      <c r="F47" s="227" t="s">
         <v>1594</v>
       </c>
-      <c r="G47" s="227"/>
+      <c r="G47" s="228"/>
       <c r="H47" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -9155,13 +9173,13 @@
       <c r="D48" s="177">
         <v>29</v>
       </c>
-      <c r="E48" s="116" t="s">
+      <c r="E48" s="227" t="s">
         <v>1595</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="227" t="s">
         <v>1596</v>
       </c>
-      <c r="G48" s="227"/>
+      <c r="G48" s="228"/>
       <c r="H48" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -9171,13 +9189,13 @@
       <c r="D49" s="177">
         <v>30</v>
       </c>
-      <c r="E49" s="116" t="s">
+      <c r="E49" s="227" t="s">
         <v>1597</v>
       </c>
-      <c r="F49" s="116" t="s">
+      <c r="F49" s="227" t="s">
         <v>1598</v>
       </c>
-      <c r="G49" s="227"/>
+      <c r="G49" s="228"/>
       <c r="H49" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -9187,13 +9205,13 @@
       <c r="D50" s="177">
         <v>31</v>
       </c>
-      <c r="E50" s="116" t="s">
+      <c r="E50" s="227" t="s">
         <v>1599</v>
       </c>
       <c r="F50" s="158" t="s">
         <v>1600</v>
       </c>
-      <c r="G50" s="227"/>
+      <c r="G50" s="228"/>
       <c r="H50" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -9203,13 +9221,13 @@
       <c r="D51" s="177">
         <v>32</v>
       </c>
-      <c r="E51" s="116" t="s">
+      <c r="E51" s="227" t="s">
         <v>1601</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="227" t="s">
         <v>1602</v>
       </c>
-      <c r="G51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -9219,13 +9237,13 @@
       <c r="D52" s="177">
         <v>33</v>
       </c>
-      <c r="E52" s="116" t="s">
+      <c r="E52" s="227" t="s">
         <v>1603</v>
       </c>
-      <c r="F52" s="116" t="s">
+      <c r="F52" s="227" t="s">
         <v>1604</v>
       </c>
-      <c r="G52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -9235,13 +9253,13 @@
       <c r="D53" s="177">
         <v>34</v>
       </c>
-      <c r="E53" s="116" t="s">
+      <c r="E53" s="227" t="s">
         <v>1605</v>
       </c>
       <c r="F53" s="158" t="s">
         <v>1606</v>
       </c>
-      <c r="G53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="H53" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -9251,13 +9269,13 @@
       <c r="D54" s="177">
         <v>35</v>
       </c>
-      <c r="E54" s="116" t="s">
+      <c r="E54" s="227" t="s">
         <v>1607</v>
       </c>
-      <c r="F54" s="116" t="s">
+      <c r="F54" s="227" t="s">
         <v>1608</v>
       </c>
-      <c r="G54" s="227"/>
+      <c r="G54" s="228"/>
       <c r="H54" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -9267,13 +9285,13 @@
       <c r="D55" s="177">
         <v>36</v>
       </c>
-      <c r="E55" s="116" t="s">
+      <c r="E55" s="227" t="s">
         <v>1609</v>
       </c>
-      <c r="F55" s="116" t="s">
+      <c r="F55" s="227" t="s">
         <v>1610</v>
       </c>
-      <c r="G55" s="227"/>
+      <c r="G55" s="228"/>
       <c r="H55" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -9283,13 +9301,13 @@
       <c r="D56" s="177">
         <v>37</v>
       </c>
-      <c r="E56" s="116" t="s">
+      <c r="E56" s="227" t="s">
         <v>1611</v>
       </c>
-      <c r="F56" s="116" t="s">
+      <c r="F56" s="227" t="s">
         <v>1612</v>
       </c>
-      <c r="G56" s="227"/>
+      <c r="G56" s="228"/>
       <c r="H56" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -9299,13 +9317,13 @@
       <c r="D57" s="177">
         <v>38</v>
       </c>
-      <c r="E57" s="116" t="s">
+      <c r="E57" s="227" t="s">
         <v>1613</v>
       </c>
       <c r="F57" s="158" t="s">
         <v>1614</v>
       </c>
-      <c r="G57" s="227"/>
+      <c r="G57" s="228"/>
       <c r="H57" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -9315,13 +9333,13 @@
       <c r="D58" s="177">
         <v>39</v>
       </c>
-      <c r="E58" s="116" t="s">
+      <c r="E58" s="227" t="s">
         <v>1615</v>
       </c>
-      <c r="F58" s="116" t="s">
+      <c r="F58" s="227" t="s">
         <v>1616</v>
       </c>
-      <c r="G58" s="227"/>
+      <c r="G58" s="228"/>
       <c r="H58" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -9331,13 +9349,13 @@
       <c r="D59" s="177">
         <v>40</v>
       </c>
-      <c r="E59" s="116" t="s">
+      <c r="E59" s="227" t="s">
         <v>1617</v>
       </c>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="227" t="s">
         <v>1618</v>
       </c>
-      <c r="G59" s="227"/>
+      <c r="G59" s="228"/>
       <c r="H59" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -9347,13 +9365,13 @@
       <c r="D60" s="177">
         <v>41</v>
       </c>
-      <c r="E60" s="116" t="s">
+      <c r="E60" s="227" t="s">
         <v>1619</v>
       </c>
-      <c r="F60" s="116" t="s">
+      <c r="F60" s="227" t="s">
         <v>1620</v>
       </c>
-      <c r="G60" s="227"/>
+      <c r="G60" s="228"/>
       <c r="H60" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -9363,13 +9381,13 @@
       <c r="D61" s="177">
         <v>42</v>
       </c>
-      <c r="E61" s="116" t="s">
+      <c r="E61" s="227" t="s">
         <v>1621</v>
       </c>
       <c r="F61" s="158" t="s">
         <v>1622</v>
       </c>
-      <c r="G61" s="227"/>
+      <c r="G61" s="228"/>
       <c r="H61" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -9379,13 +9397,13 @@
       <c r="D62" s="177">
         <v>43</v>
       </c>
-      <c r="E62" s="116" t="s">
+      <c r="E62" s="227" t="s">
         <v>1623</v>
       </c>
-      <c r="F62" s="116" t="s">
+      <c r="F62" s="227" t="s">
         <v>1624</v>
       </c>
-      <c r="G62" s="227"/>
+      <c r="G62" s="228"/>
       <c r="H62" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -9393,9 +9411,9 @@
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
       <c r="D63" s="177"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="228"/>
       <c r="H63" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
@@ -9411,14 +9429,14 @@
       <c r="D64" s="177">
         <v>1</v>
       </c>
-      <c r="E64" s="116" t="s">
+      <c r="E64" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F64" s="116" t="s">
+      <c r="F64" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G64" s="227"/>
-      <c r="H64" s="228" t="s">
+      <c r="G64" s="228"/>
+      <c r="H64" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9429,13 +9447,13 @@
       <c r="D65" s="177">
         <v>2</v>
       </c>
-      <c r="E65" s="116" t="s">
+      <c r="E65" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F65" s="116" t="s">
+      <c r="F65" s="227" t="s">
         <v>1514</v>
       </c>
-      <c r="G65" s="227"/>
+      <c r="G65" s="228"/>
       <c r="H65" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -9445,13 +9463,13 @@
       <c r="D66" s="177">
         <v>3</v>
       </c>
-      <c r="E66" s="116" t="s">
+      <c r="E66" s="227" t="s">
         <v>1628</v>
       </c>
-      <c r="F66" s="116" t="s">
+      <c r="F66" s="227" t="s">
         <v>1629</v>
       </c>
-      <c r="G66" s="227"/>
+      <c r="G66" s="228"/>
       <c r="H66" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -9461,13 +9479,13 @@
       <c r="D67" s="177">
         <v>4</v>
       </c>
-      <c r="E67" s="116" t="s">
+      <c r="E67" s="227" t="s">
         <v>1630</v>
       </c>
-      <c r="F67" s="116" t="s">
+      <c r="F67" s="227" t="s">
         <v>1631</v>
       </c>
-      <c r="G67" s="227"/>
+      <c r="G67" s="228"/>
       <c r="H67" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -9477,13 +9495,13 @@
       <c r="D68" s="177">
         <v>5</v>
       </c>
-      <c r="E68" s="116" t="s">
+      <c r="E68" s="227" t="s">
         <v>1632</v>
       </c>
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="227" t="s">
         <v>1633</v>
       </c>
-      <c r="G68" s="227"/>
+      <c r="G68" s="228"/>
       <c r="H68" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -9493,13 +9511,13 @@
       <c r="D69" s="177">
         <v>6</v>
       </c>
-      <c r="E69" s="116" t="s">
+      <c r="E69" s="227" t="s">
         <v>1634</v>
       </c>
-      <c r="F69" s="116" t="s">
+      <c r="F69" s="227" t="s">
         <v>1635</v>
       </c>
-      <c r="G69" s="227"/>
+      <c r="G69" s="228"/>
       <c r="H69" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -9509,13 +9527,13 @@
       <c r="D70" s="177">
         <v>7</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="227" t="s">
         <v>1632</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="227" t="s">
         <v>1636</v>
       </c>
-      <c r="G70" s="227"/>
+      <c r="G70" s="228"/>
       <c r="H70" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
@@ -9525,13 +9543,13 @@
       <c r="D71" s="177">
         <v>8</v>
       </c>
-      <c r="E71" s="116" t="s">
+      <c r="E71" s="227" t="s">
         <v>1637</v>
       </c>
-      <c r="F71" s="116" t="s">
+      <c r="F71" s="227" t="s">
         <v>1638</v>
       </c>
-      <c r="G71" s="227"/>
+      <c r="G71" s="228"/>
       <c r="H71" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -9541,13 +9559,13 @@
       <c r="D72" s="177">
         <v>9</v>
       </c>
-      <c r="E72" s="116" t="s">
+      <c r="E72" s="227" t="s">
         <v>1639</v>
       </c>
-      <c r="F72" s="116" t="s">
+      <c r="F72" s="227" t="s">
         <v>1640</v>
       </c>
-      <c r="G72" s="227"/>
+      <c r="G72" s="228"/>
       <c r="H72" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -9557,13 +9575,13 @@
       <c r="D73" s="177">
         <v>10</v>
       </c>
-      <c r="E73" s="116" t="s">
+      <c r="E73" s="227" t="s">
         <v>1641</v>
       </c>
-      <c r="F73" s="116" t="s">
+      <c r="F73" s="227" t="s">
         <v>1642</v>
       </c>
-      <c r="G73" s="227"/>
+      <c r="G73" s="228"/>
       <c r="H73" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -9571,9 +9589,9 @@
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="177"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="228"/>
       <c r="H74" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -9581,9 +9599,9 @@
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="177"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="227"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="227"/>
+      <c r="G75" s="228"/>
       <c r="H75" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -9591,9 +9609,9 @@
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="177"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="116"/>
-      <c r="G76" s="227"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="228"/>
       <c r="H76" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -9601,9 +9619,9 @@
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="177"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="227"/>
+      <c r="E77" s="227"/>
+      <c r="F77" s="227"/>
+      <c r="G77" s="228"/>
       <c r="H77" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -9611,9 +9629,9 @@
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="177"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="227"/>
+      <c r="E78" s="227"/>
+      <c r="F78" s="227"/>
+      <c r="G78" s="228"/>
       <c r="H78" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -9621,20 +9639,20 @@
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="177"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="227"/>
+      <c r="E79" s="227"/>
+      <c r="F79" s="227"/>
+      <c r="G79" s="228"/>
       <c r="H79" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="116"/>
+      <c r="A80" s="227"/>
       <c r="B80" s="221"/>
       <c r="C80" s="221"/>
-      <c r="D80" s="227"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="227"/>
-      <c r="H80" s="116"/>
+      <c r="D80" s="228"/>
+      <c r="E80" s="227"/>
+      <c r="F80" s="227"/>
+      <c r="G80" s="228"/>
+      <c r="H80" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="361.5">
       <c r="A81" s="174" t="s">
@@ -9649,14 +9667,14 @@
       <c r="D81" s="177">
         <v>1</v>
       </c>
-      <c r="E81" s="116" t="s">
+      <c r="E81" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F81" s="116" t="s">
+      <c r="F81" s="227" t="s">
         <v>1512</v>
       </c>
       <c r="G81" s="177"/>
-      <c r="H81" s="228" t="s">
+      <c r="H81" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9667,10 +9685,10 @@
       <c r="D82" s="177">
         <v>2</v>
       </c>
-      <c r="E82" s="116" t="s">
+      <c r="E82" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F82" s="116" t="s">
+      <c r="F82" s="227" t="s">
         <v>1514</v>
       </c>
       <c r="G82" s="177"/>
@@ -9683,10 +9701,10 @@
       <c r="D83" s="177">
         <v>3</v>
       </c>
-      <c r="E83" s="116" t="s">
+      <c r="E83" s="227" t="s">
         <v>1646</v>
       </c>
-      <c r="F83" s="116" t="s">
+      <c r="F83" s="227" t="s">
         <v>1647</v>
       </c>
       <c r="G83" s="177"/>
@@ -9699,10 +9717,10 @@
       <c r="D84" s="177">
         <v>4</v>
       </c>
-      <c r="E84" s="116" t="s">
+      <c r="E84" s="227" t="s">
         <v>1648</v>
       </c>
-      <c r="F84" s="116" t="s">
+      <c r="F84" s="227" t="s">
         <v>1649</v>
       </c>
       <c r="G84" s="177"/>
@@ -9715,10 +9733,10 @@
       <c r="D85" s="177">
         <v>5</v>
       </c>
-      <c r="E85" s="116" t="s">
+      <c r="E85" s="227" t="s">
         <v>1650</v>
       </c>
-      <c r="F85" s="116"/>
+      <c r="F85" s="227"/>
       <c r="G85" s="177"/>
       <c r="H85" s="125"/>
     </row>
@@ -9729,10 +9747,10 @@
       <c r="D86" s="177">
         <v>6</v>
       </c>
-      <c r="E86" s="116" t="s">
+      <c r="E86" s="227" t="s">
         <v>1651</v>
       </c>
-      <c r="F86" s="116" t="s">
+      <c r="F86" s="227" t="s">
         <v>1651</v>
       </c>
       <c r="G86" s="177" t="s">
@@ -9747,10 +9765,10 @@
       <c r="D87" s="177">
         <v>7</v>
       </c>
-      <c r="E87" s="116" t="s">
+      <c r="E87" s="227" t="s">
         <v>1653</v>
       </c>
-      <c r="F87" s="116" t="s">
+      <c r="F87" s="227" t="s">
         <v>1654</v>
       </c>
       <c r="G87" s="177"/>
@@ -9763,10 +9781,10 @@
       <c r="D88" s="177">
         <v>8</v>
       </c>
-      <c r="E88" s="116" t="s">
+      <c r="E88" s="227" t="s">
         <v>1655</v>
       </c>
-      <c r="F88" s="116" t="s">
+      <c r="F88" s="227" t="s">
         <v>1655</v>
       </c>
       <c r="G88" s="177" t="s">
@@ -9781,10 +9799,10 @@
       <c r="D89" s="177">
         <v>9</v>
       </c>
-      <c r="E89" s="116" t="s">
+      <c r="E89" s="227" t="s">
         <v>1657</v>
       </c>
-      <c r="F89" s="116" t="s">
+      <c r="F89" s="227" t="s">
         <v>1658</v>
       </c>
       <c r="G89" s="177" t="s">
@@ -9799,10 +9817,10 @@
       <c r="D90" s="177">
         <v>10</v>
       </c>
-      <c r="E90" s="116" t="s">
+      <c r="E90" s="227" t="s">
         <v>1659</v>
       </c>
-      <c r="F90" s="116" t="s">
+      <c r="F90" s="227" t="s">
         <v>1660</v>
       </c>
       <c r="G90" s="177">
@@ -9817,10 +9835,10 @@
       <c r="D91" s="177">
         <v>11</v>
       </c>
-      <c r="E91" s="116" t="s">
+      <c r="E91" s="227" t="s">
         <v>1661</v>
       </c>
-      <c r="F91" s="116" t="s">
+      <c r="F91" s="227" t="s">
         <v>1662</v>
       </c>
       <c r="G91" s="177">
@@ -9835,10 +9853,10 @@
       <c r="D92" s="177">
         <v>12</v>
       </c>
-      <c r="E92" s="116" t="s">
+      <c r="E92" s="227" t="s">
         <v>1663</v>
       </c>
-      <c r="F92" s="116" t="s">
+      <c r="F92" s="227" t="s">
         <v>1664</v>
       </c>
       <c r="G92" s="177" t="s">
@@ -9853,10 +9871,10 @@
       <c r="D93" s="177">
         <v>13</v>
       </c>
-      <c r="E93" s="116" t="s">
+      <c r="E93" s="227" t="s">
         <v>1653</v>
       </c>
-      <c r="F93" s="116" t="s">
+      <c r="F93" s="227" t="s">
         <v>1666</v>
       </c>
       <c r="G93" s="177"/>
@@ -9869,13 +9887,13 @@
       <c r="D94" s="177">
         <v>14</v>
       </c>
-      <c r="E94" s="116" t="s">
+      <c r="E94" s="227" t="s">
         <v>1667</v>
       </c>
-      <c r="F94" s="116" t="s">
+      <c r="F94" s="227" t="s">
         <v>1668</v>
       </c>
-      <c r="G94" s="230" t="s">
+      <c r="G94" s="232" t="s">
         <v>1528</v>
       </c>
       <c r="H94" s="125"/>
@@ -9887,10 +9905,10 @@
       <c r="D95" s="177">
         <v>15</v>
       </c>
-      <c r="E95" s="116" t="s">
+      <c r="E95" s="227" t="s">
         <v>1669</v>
       </c>
-      <c r="F95" s="116" t="s">
+      <c r="F95" s="227" t="s">
         <v>1670</v>
       </c>
       <c r="G95" s="177" t="s">
@@ -9905,10 +9923,10 @@
       <c r="D96" s="177">
         <v>16</v>
       </c>
-      <c r="E96" s="116" t="s">
+      <c r="E96" s="227" t="s">
         <v>1672</v>
       </c>
-      <c r="F96" s="116" t="s">
+      <c r="F96" s="227" t="s">
         <v>1673</v>
       </c>
       <c r="G96" s="177" t="s">
@@ -9923,13 +9941,13 @@
       <c r="D97" s="177">
         <v>17</v>
       </c>
-      <c r="E97" s="116" t="s">
+      <c r="E97" s="227" t="s">
         <v>1675</v>
       </c>
-      <c r="F97" s="116" t="s">
+      <c r="F97" s="227" t="s">
         <v>1668</v>
       </c>
-      <c r="G97" s="230" t="s">
+      <c r="G97" s="232" t="s">
         <v>1676</v>
       </c>
       <c r="H97" s="125"/>
@@ -9941,10 +9959,10 @@
       <c r="D98" s="177">
         <v>18</v>
       </c>
-      <c r="E98" s="116" t="s">
+      <c r="E98" s="227" t="s">
         <v>1677</v>
       </c>
-      <c r="F98" s="116" t="s">
+      <c r="F98" s="227" t="s">
         <v>1678</v>
       </c>
       <c r="G98" s="177">
@@ -9959,10 +9977,10 @@
       <c r="D99" s="177">
         <v>19</v>
       </c>
-      <c r="E99" s="116" t="s">
+      <c r="E99" s="227" t="s">
         <v>1679</v>
       </c>
-      <c r="F99" s="116" t="s">
+      <c r="F99" s="227" t="s">
         <v>1680</v>
       </c>
       <c r="G99" s="177">
@@ -9977,10 +9995,10 @@
       <c r="D100" s="177">
         <v>20</v>
       </c>
-      <c r="E100" s="116" t="s">
+      <c r="E100" s="227" t="s">
         <v>1663</v>
       </c>
-      <c r="F100" s="116" t="s">
+      <c r="F100" s="227" t="s">
         <v>1681</v>
       </c>
       <c r="G100" s="177" t="s">
@@ -9995,10 +10013,10 @@
       <c r="D101" s="177">
         <v>21</v>
       </c>
-      <c r="E101" s="116" t="s">
+      <c r="E101" s="227" t="s">
         <v>1682</v>
       </c>
-      <c r="F101" s="116" t="s">
+      <c r="F101" s="227" t="s">
         <v>1666</v>
       </c>
       <c r="G101" s="177"/>
@@ -10011,10 +10029,10 @@
       <c r="D102" s="177">
         <v>22</v>
       </c>
-      <c r="E102" s="116" t="s">
+      <c r="E102" s="227" t="s">
         <v>1669</v>
       </c>
-      <c r="F102" s="116" t="s">
+      <c r="F102" s="227" t="s">
         <v>1670</v>
       </c>
       <c r="G102" s="177" t="s">
@@ -10029,10 +10047,10 @@
       <c r="D103" s="177">
         <v>23</v>
       </c>
-      <c r="E103" s="116" t="s">
+      <c r="E103" s="227" t="s">
         <v>1672</v>
       </c>
-      <c r="F103" s="116" t="s">
+      <c r="F103" s="227" t="s">
         <v>1673</v>
       </c>
       <c r="G103" s="177" t="s">
@@ -10047,13 +10065,13 @@
       <c r="D104" s="177">
         <v>24</v>
       </c>
-      <c r="E104" s="116" t="s">
+      <c r="E104" s="227" t="s">
         <v>1675</v>
       </c>
-      <c r="F104" s="116" t="s">
+      <c r="F104" s="227" t="s">
         <v>1668</v>
       </c>
-      <c r="G104" s="230" t="s">
+      <c r="G104" s="232" t="s">
         <v>1685</v>
       </c>
       <c r="H104" s="125"/>
@@ -10065,10 +10083,10 @@
       <c r="D105" s="177">
         <v>25</v>
       </c>
-      <c r="E105" s="116" t="s">
+      <c r="E105" s="227" t="s">
         <v>1677</v>
       </c>
-      <c r="F105" s="116" t="s">
+      <c r="F105" s="227" t="s">
         <v>1678</v>
       </c>
       <c r="G105" s="177">
@@ -10083,10 +10101,10 @@
       <c r="D106" s="177">
         <v>26</v>
       </c>
-      <c r="E106" s="116" t="s">
+      <c r="E106" s="227" t="s">
         <v>1679</v>
       </c>
-      <c r="F106" s="116" t="s">
+      <c r="F106" s="227" t="s">
         <v>1680</v>
       </c>
       <c r="G106" s="177">
@@ -10101,10 +10119,10 @@
       <c r="D107" s="177">
         <v>27</v>
       </c>
-      <c r="E107" s="116" t="s">
+      <c r="E107" s="227" t="s">
         <v>1663</v>
       </c>
-      <c r="F107" s="116" t="s">
+      <c r="F107" s="227" t="s">
         <v>1681</v>
       </c>
       <c r="G107" s="177" t="s">
@@ -10119,10 +10137,10 @@
       <c r="D108" s="177">
         <v>28</v>
       </c>
-      <c r="E108" s="116" t="s">
+      <c r="E108" s="227" t="s">
         <v>1682</v>
       </c>
-      <c r="F108" s="116" t="s">
+      <c r="F108" s="227" t="s">
         <v>1666</v>
       </c>
       <c r="G108" s="177"/>
@@ -10135,10 +10153,10 @@
       <c r="D109" s="177">
         <v>29</v>
       </c>
-      <c r="E109" s="116" t="s">
+      <c r="E109" s="227" t="s">
         <v>1686</v>
       </c>
-      <c r="F109" s="116" t="s">
+      <c r="F109" s="227" t="s">
         <v>1687</v>
       </c>
       <c r="G109" s="177" t="s">
@@ -10153,10 +10171,10 @@
       <c r="D110" s="177">
         <v>30</v>
       </c>
-      <c r="E110" s="116" t="s">
+      <c r="E110" s="227" t="s">
         <v>1688</v>
       </c>
-      <c r="F110" s="116" t="s">
+      <c r="F110" s="227" t="s">
         <v>1689</v>
       </c>
       <c r="G110" s="177"/>
@@ -10169,10 +10187,10 @@
       <c r="D111" s="177">
         <v>31</v>
       </c>
-      <c r="E111" s="116" t="s">
+      <c r="E111" s="227" t="s">
         <v>1690</v>
       </c>
-      <c r="F111" s="116" t="s">
+      <c r="F111" s="227" t="s">
         <v>1691</v>
       </c>
       <c r="G111" s="177"/>
@@ -10185,10 +10203,10 @@
       <c r="D112" s="177">
         <v>32</v>
       </c>
-      <c r="E112" s="116" t="s">
+      <c r="E112" s="227" t="s">
         <v>1688</v>
       </c>
-      <c r="F112" s="116" t="s">
+      <c r="F112" s="227" t="s">
         <v>1689</v>
       </c>
       <c r="G112" s="177"/>
@@ -10201,10 +10219,10 @@
       <c r="D113" s="177">
         <v>33</v>
       </c>
-      <c r="E113" s="116" t="s">
+      <c r="E113" s="227" t="s">
         <v>1692</v>
       </c>
-      <c r="F113" s="116" t="s">
+      <c r="F113" s="227" t="s">
         <v>1693</v>
       </c>
       <c r="G113" s="177"/>
@@ -10217,10 +10235,10 @@
       <c r="D114" s="177">
         <v>34</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="227" t="s">
         <v>1694</v>
       </c>
-      <c r="F114" s="116" t="s">
+      <c r="F114" s="227" t="s">
         <v>1695</v>
       </c>
       <c r="G114" s="177"/>
@@ -10233,10 +10251,10 @@
       <c r="D115" s="177">
         <v>35</v>
       </c>
-      <c r="E115" s="116" t="s">
+      <c r="E115" s="227" t="s">
         <v>1696</v>
       </c>
-      <c r="F115" s="116" t="s">
+      <c r="F115" s="227" t="s">
         <v>1697</v>
       </c>
       <c r="G115" s="177"/>
@@ -10249,10 +10267,10 @@
       <c r="D116" s="177">
         <v>36</v>
       </c>
-      <c r="E116" s="116" t="s">
+      <c r="E116" s="227" t="s">
         <v>1698</v>
       </c>
-      <c r="F116" s="116" t="s">
+      <c r="F116" s="227" t="s">
         <v>1699</v>
       </c>
       <c r="G116" s="177"/>
@@ -10265,10 +10283,10 @@
       <c r="D117" s="177">
         <v>37</v>
       </c>
-      <c r="E117" s="116" t="s">
+      <c r="E117" s="227" t="s">
         <v>1700</v>
       </c>
-      <c r="F117" s="116" t="s">
+      <c r="F117" s="227" t="s">
         <v>1701</v>
       </c>
       <c r="G117" s="177"/>
@@ -10281,10 +10299,10 @@
       <c r="D118" s="177">
         <v>38</v>
       </c>
-      <c r="E118" s="116" t="s">
+      <c r="E118" s="227" t="s">
         <v>1702</v>
       </c>
-      <c r="F118" s="116" t="s">
+      <c r="F118" s="227" t="s">
         <v>1703</v>
       </c>
       <c r="G118" s="177"/>
@@ -10297,10 +10315,10 @@
       <c r="D119" s="177">
         <v>39</v>
       </c>
-      <c r="E119" s="116" t="s">
+      <c r="E119" s="227" t="s">
         <v>1704</v>
       </c>
-      <c r="F119" s="116" t="s">
+      <c r="F119" s="227" t="s">
         <v>1705</v>
       </c>
       <c r="G119" s="177"/>
@@ -10313,10 +10331,10 @@
       <c r="D120" s="177">
         <v>40</v>
       </c>
-      <c r="E120" s="116" t="s">
+      <c r="E120" s="227" t="s">
         <v>1706</v>
       </c>
-      <c r="F120" s="116" t="s">
+      <c r="F120" s="227" t="s">
         <v>1707</v>
       </c>
       <c r="G120" s="177"/>
@@ -10329,10 +10347,10 @@
       <c r="D121" s="177">
         <v>41</v>
       </c>
-      <c r="E121" s="116" t="s">
+      <c r="E121" s="227" t="s">
         <v>1708</v>
       </c>
-      <c r="F121" s="116" t="s">
+      <c r="F121" s="227" t="s">
         <v>1709</v>
       </c>
       <c r="G121" s="177"/>
@@ -10345,10 +10363,10 @@
       <c r="D122" s="177">
         <v>42</v>
       </c>
-      <c r="E122" s="116" t="s">
+      <c r="E122" s="227" t="s">
         <v>1710</v>
       </c>
-      <c r="F122" s="116" t="s">
+      <c r="F122" s="227" t="s">
         <v>1711</v>
       </c>
       <c r="G122" s="177"/>
@@ -10361,10 +10379,10 @@
       <c r="D123" s="177">
         <v>43</v>
       </c>
-      <c r="E123" s="116" t="s">
+      <c r="E123" s="227" t="s">
         <v>1712</v>
       </c>
-      <c r="F123" s="116" t="s">
+      <c r="F123" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G123" s="177"/>
@@ -10377,10 +10395,10 @@
       <c r="D124" s="177">
         <v>44</v>
       </c>
-      <c r="E124" s="116" t="s">
+      <c r="E124" s="227" t="s">
         <v>1714</v>
       </c>
-      <c r="F124" s="116" t="s">
+      <c r="F124" s="227" t="s">
         <v>1715</v>
       </c>
       <c r="G124" s="177"/>
@@ -10393,10 +10411,10 @@
       <c r="D125" s="177">
         <v>45</v>
       </c>
-      <c r="E125" s="116" t="s">
+      <c r="E125" s="227" t="s">
         <v>1716</v>
       </c>
-      <c r="F125" s="116" t="s">
+      <c r="F125" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G125" s="177"/>
@@ -10409,10 +10427,10 @@
       <c r="D126" s="177">
         <v>46</v>
       </c>
-      <c r="E126" s="116" t="s">
+      <c r="E126" s="227" t="s">
         <v>1717</v>
       </c>
-      <c r="F126" s="116" t="s">
+      <c r="F126" s="227" t="s">
         <v>1718</v>
       </c>
       <c r="G126" s="177"/>
@@ -10425,10 +10443,10 @@
       <c r="D127" s="177">
         <v>47</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="E127" s="227" t="s">
         <v>1719</v>
       </c>
-      <c r="F127" s="116" t="s">
+      <c r="F127" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G127" s="177"/>
@@ -10441,10 +10459,10 @@
       <c r="D128" s="177">
         <v>48</v>
       </c>
-      <c r="E128" s="116" t="s">
+      <c r="E128" s="227" t="s">
         <v>1720</v>
       </c>
-      <c r="F128" s="116" t="s">
+      <c r="F128" s="227" t="s">
         <v>1721</v>
       </c>
       <c r="G128" s="177"/>
@@ -10457,10 +10475,10 @@
       <c r="D129" s="177">
         <v>49</v>
       </c>
-      <c r="E129" s="116" t="s">
+      <c r="E129" s="227" t="s">
         <v>1722</v>
       </c>
-      <c r="F129" s="116" t="s">
+      <c r="F129" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G129" s="177"/>
@@ -10473,10 +10491,10 @@
       <c r="D130" s="177">
         <v>50</v>
       </c>
-      <c r="E130" s="116" t="s">
+      <c r="E130" s="227" t="s">
         <v>1723</v>
       </c>
-      <c r="F130" s="116" t="s">
+      <c r="F130" s="227" t="s">
         <v>1724</v>
       </c>
       <c r="G130" s="177"/>
@@ -10489,10 +10507,10 @@
       <c r="D131" s="177">
         <v>51</v>
       </c>
-      <c r="E131" s="116" t="s">
+      <c r="E131" s="227" t="s">
         <v>1725</v>
       </c>
-      <c r="F131" s="116" t="s">
+      <c r="F131" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G131" s="177"/>
@@ -10505,10 +10523,10 @@
       <c r="D132" s="177">
         <v>52</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="227" t="s">
         <v>1726</v>
       </c>
-      <c r="F132" s="116" t="s">
+      <c r="F132" s="227" t="s">
         <v>1727</v>
       </c>
       <c r="G132" s="177"/>
@@ -10521,10 +10539,10 @@
       <c r="D133" s="177">
         <v>53</v>
       </c>
-      <c r="E133" s="116" t="s">
+      <c r="E133" s="227" t="s">
         <v>1728</v>
       </c>
-      <c r="F133" s="116" t="s">
+      <c r="F133" s="227" t="s">
         <v>1713</v>
       </c>
       <c r="G133" s="177"/>
@@ -10537,10 +10555,10 @@
       <c r="D134" s="177">
         <v>54</v>
       </c>
-      <c r="E134" s="116" t="s">
+      <c r="E134" s="227" t="s">
         <v>1729</v>
       </c>
-      <c r="F134" s="116" t="s">
+      <c r="F134" s="227" t="s">
         <v>1730</v>
       </c>
       <c r="G134" s="177"/>
@@ -10553,10 +10571,10 @@
       <c r="D135" s="177">
         <v>55</v>
       </c>
-      <c r="E135" s="116" t="s">
+      <c r="E135" s="227" t="s">
         <v>1731</v>
       </c>
-      <c r="F135" s="116" t="s">
+      <c r="F135" s="227" t="s">
         <v>1732</v>
       </c>
       <c r="G135" s="177"/>
@@ -10569,10 +10587,10 @@
       <c r="D136" s="177">
         <v>56</v>
       </c>
-      <c r="E136" s="116" t="s">
+      <c r="E136" s="227" t="s">
         <v>1733</v>
       </c>
-      <c r="F136" s="116" t="s">
+      <c r="F136" s="227" t="s">
         <v>1734</v>
       </c>
       <c r="G136" s="177"/>
@@ -10585,10 +10603,10 @@
       <c r="D137" s="177">
         <v>57</v>
       </c>
-      <c r="E137" s="116" t="s">
+      <c r="E137" s="227" t="s">
         <v>1735</v>
       </c>
-      <c r="F137" s="116" t="s">
+      <c r="F137" s="227" t="s">
         <v>1736</v>
       </c>
       <c r="G137" s="177" t="s">
@@ -10603,10 +10621,10 @@
       <c r="D138" s="177">
         <v>58</v>
       </c>
-      <c r="E138" s="116" t="s">
+      <c r="E138" s="227" t="s">
         <v>1738</v>
       </c>
-      <c r="F138" s="116" t="s">
+      <c r="F138" s="227" t="s">
         <v>1739</v>
       </c>
       <c r="G138" s="177"/>
@@ -10619,10 +10637,10 @@
       <c r="D139" s="177">
         <v>59</v>
       </c>
-      <c r="E139" s="116" t="s">
+      <c r="E139" s="227" t="s">
         <v>1740</v>
       </c>
-      <c r="F139" s="116" t="s">
+      <c r="F139" s="227" t="s">
         <v>1673</v>
       </c>
       <c r="G139" s="177" t="s">
@@ -10637,10 +10655,10 @@
       <c r="D140" s="177">
         <v>60</v>
       </c>
-      <c r="E140" s="116" t="s">
+      <c r="E140" s="227" t="s">
         <v>1742</v>
       </c>
-      <c r="F140" s="116" t="s">
+      <c r="F140" s="227" t="s">
         <v>1743</v>
       </c>
       <c r="G140" s="177"/>
@@ -10653,13 +10671,13 @@
       <c r="D141" s="177">
         <v>61</v>
       </c>
-      <c r="E141" s="116" t="s">
+      <c r="E141" s="227" t="s">
         <v>1744</v>
       </c>
-      <c r="F141" s="116" t="s">
+      <c r="F141" s="227" t="s">
         <v>1745</v>
       </c>
-      <c r="G141" s="230" t="s">
+      <c r="G141" s="232" t="s">
         <v>1746</v>
       </c>
       <c r="H141" s="125"/>
@@ -10671,10 +10689,10 @@
       <c r="D142" s="177">
         <v>62</v>
       </c>
-      <c r="E142" s="116" t="s">
+      <c r="E142" s="227" t="s">
         <v>1747</v>
       </c>
-      <c r="F142" s="116" t="s">
+      <c r="F142" s="227" t="s">
         <v>1748</v>
       </c>
       <c r="G142" s="177"/>
@@ -10687,10 +10705,10 @@
       <c r="D143" s="177">
         <v>63</v>
       </c>
-      <c r="E143" s="116" t="s">
+      <c r="E143" s="227" t="s">
         <v>1749</v>
       </c>
-      <c r="F143" s="116" t="s">
+      <c r="F143" s="227" t="s">
         <v>1750</v>
       </c>
       <c r="G143" s="177">
@@ -10705,10 +10723,10 @@
       <c r="D144" s="177">
         <v>64</v>
       </c>
-      <c r="E144" s="116" t="s">
+      <c r="E144" s="227" t="s">
         <v>1751</v>
       </c>
-      <c r="F144" s="116" t="s">
+      <c r="F144" s="227" t="s">
         <v>1752</v>
       </c>
       <c r="G144" s="177"/>
@@ -10721,10 +10739,10 @@
       <c r="D145" s="177">
         <v>65</v>
       </c>
-      <c r="E145" s="116" t="s">
+      <c r="E145" s="227" t="s">
         <v>1753</v>
       </c>
-      <c r="F145" s="116" t="s">
+      <c r="F145" s="227" t="s">
         <v>1754</v>
       </c>
       <c r="G145" s="177">
@@ -10739,10 +10757,10 @@
       <c r="D146" s="177">
         <v>66</v>
       </c>
-      <c r="E146" s="116" t="s">
+      <c r="E146" s="227" t="s">
         <v>1755</v>
       </c>
-      <c r="F146" s="116" t="s">
+      <c r="F146" s="227" t="s">
         <v>1756</v>
       </c>
       <c r="G146" s="177"/>
@@ -10755,10 +10773,10 @@
       <c r="D147" s="177">
         <v>67</v>
       </c>
-      <c r="E147" s="116" t="s">
+      <c r="E147" s="227" t="s">
         <v>1757</v>
       </c>
-      <c r="F147" s="116" t="s">
+      <c r="F147" s="227" t="s">
         <v>1758</v>
       </c>
       <c r="G147" s="177" t="s">
@@ -10773,24 +10791,24 @@
       <c r="D148" s="177">
         <v>69</v>
       </c>
-      <c r="E148" s="116" t="s">
+      <c r="E148" s="227" t="s">
         <v>1760</v>
       </c>
-      <c r="F148" s="116" t="s">
+      <c r="F148" s="227" t="s">
         <v>1761</v>
       </c>
       <c r="G148" s="177"/>
-      <c r="H148" s="116"/>
+      <c r="H148" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="116"/>
+      <c r="A149" s="227"/>
       <c r="B149" s="221"/>
       <c r="C149" s="221"/>
       <c r="D149" s="177"/>
-      <c r="E149" s="116"/>
-      <c r="F149" s="116"/>
+      <c r="E149" s="227"/>
+      <c r="F149" s="227"/>
       <c r="G149" s="177"/>
-      <c r="H149" s="116"/>
+      <c r="H149" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="14.25">
       <c r="A150" s="174" t="s">
@@ -10805,14 +10823,14 @@
       <c r="D150" s="177">
         <v>1</v>
       </c>
-      <c r="E150" s="116" t="s">
+      <c r="E150" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F150" s="116" t="s">
+      <c r="F150" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G150" s="227"/>
-      <c r="H150" s="228" t="s">
+      <c r="G150" s="228"/>
+      <c r="H150" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10823,13 +10841,13 @@
       <c r="D151" s="177">
         <v>2</v>
       </c>
-      <c r="E151" s="116" t="s">
+      <c r="E151" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F151" s="116" t="s">
+      <c r="F151" s="227" t="s">
         <v>1514</v>
       </c>
-      <c r="G151" s="227"/>
+      <c r="G151" s="228"/>
       <c r="H151" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -10839,13 +10857,13 @@
       <c r="D152" s="177">
         <v>3</v>
       </c>
-      <c r="E152" s="116" t="s">
+      <c r="E152" s="227" t="s">
         <v>1765</v>
       </c>
-      <c r="F152" s="116" t="s">
+      <c r="F152" s="227" t="s">
         <v>1766</v>
       </c>
-      <c r="G152" s="227"/>
+      <c r="G152" s="228"/>
       <c r="H152" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -10855,13 +10873,13 @@
       <c r="D153" s="177">
         <v>4</v>
       </c>
-      <c r="E153" s="116" t="s">
+      <c r="E153" s="227" t="s">
         <v>1767</v>
       </c>
-      <c r="F153" s="116" t="s">
+      <c r="F153" s="227" t="s">
         <v>1768</v>
       </c>
-      <c r="G153" s="227"/>
+      <c r="G153" s="228"/>
       <c r="H153" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -10871,13 +10889,13 @@
       <c r="D154" s="177">
         <v>5</v>
       </c>
-      <c r="E154" s="116" t="s">
+      <c r="E154" s="227" t="s">
         <v>1769</v>
       </c>
-      <c r="F154" s="116" t="s">
+      <c r="F154" s="227" t="s">
         <v>1770</v>
       </c>
-      <c r="G154" s="227"/>
+      <c r="G154" s="228"/>
       <c r="H154" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
@@ -10887,13 +10905,13 @@
       <c r="D155" s="177">
         <v>6</v>
       </c>
-      <c r="E155" s="116" t="s">
+      <c r="E155" s="227" t="s">
         <v>1771</v>
       </c>
-      <c r="F155" s="116" t="s">
+      <c r="F155" s="227" t="s">
         <v>1772</v>
       </c>
-      <c r="G155" s="227"/>
+      <c r="G155" s="228"/>
       <c r="H155" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
@@ -10903,24 +10921,24 @@
       <c r="D156" s="177">
         <v>7</v>
       </c>
-      <c r="E156" s="116" t="s">
+      <c r="E156" s="227" t="s">
         <v>1773</v>
       </c>
-      <c r="F156" s="116" t="s">
+      <c r="F156" s="227" t="s">
         <v>1774</v>
       </c>
-      <c r="G156" s="227"/>
+      <c r="G156" s="228"/>
       <c r="H156" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="116"/>
+      <c r="A157" s="227"/>
       <c r="B157" s="221"/>
       <c r="C157" s="221"/>
       <c r="D157" s="177"/>
-      <c r="E157" s="116"/>
-      <c r="F157" s="116"/>
-      <c r="G157" s="227"/>
-      <c r="H157" s="116"/>
+      <c r="E157" s="227"/>
+      <c r="F157" s="227"/>
+      <c r="G157" s="228"/>
+      <c r="H157" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="13.5">
       <c r="A158" s="174" t="s">
@@ -10935,14 +10953,14 @@
       <c r="D158" s="177">
         <v>1</v>
       </c>
-      <c r="E158" s="116" t="s">
+      <c r="E158" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F158" s="116" t="s">
+      <c r="F158" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G158" s="227"/>
-      <c r="H158" s="228" t="s">
+      <c r="G158" s="228"/>
+      <c r="H158" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10953,13 +10971,13 @@
       <c r="D159" s="177">
         <v>2</v>
       </c>
-      <c r="E159" s="116" t="s">
+      <c r="E159" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F159" s="116" t="s">
+      <c r="F159" s="227" t="s">
         <v>1514</v>
       </c>
-      <c r="G159" s="227"/>
+      <c r="G159" s="228"/>
       <c r="H159" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
@@ -10969,13 +10987,13 @@
       <c r="D160" s="177">
         <v>3</v>
       </c>
-      <c r="E160" s="116" t="s">
+      <c r="E160" s="227" t="s">
         <v>1778</v>
       </c>
-      <c r="F160" s="116" t="s">
+      <c r="F160" s="227" t="s">
         <v>1779</v>
       </c>
-      <c r="G160" s="227"/>
+      <c r="G160" s="228"/>
       <c r="H160" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
@@ -10985,13 +11003,13 @@
       <c r="D161" s="177">
         <v>4</v>
       </c>
-      <c r="E161" s="116" t="s">
+      <c r="E161" s="227" t="s">
         <v>1780</v>
       </c>
-      <c r="F161" s="116" t="s">
+      <c r="F161" s="227" t="s">
         <v>1781</v>
       </c>
-      <c r="G161" s="227"/>
+      <c r="G161" s="228"/>
       <c r="H161" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
@@ -11001,13 +11019,13 @@
       <c r="D162" s="177">
         <v>5</v>
       </c>
-      <c r="E162" s="116" t="s">
+      <c r="E162" s="227" t="s">
         <v>1782</v>
       </c>
-      <c r="F162" s="116" t="s">
+      <c r="F162" s="227" t="s">
         <v>1783</v>
       </c>
-      <c r="G162" s="227"/>
+      <c r="G162" s="228"/>
       <c r="H162" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
@@ -11017,13 +11035,13 @@
       <c r="D163" s="177">
         <v>6</v>
       </c>
-      <c r="E163" s="116" t="s">
+      <c r="E163" s="227" t="s">
         <v>1784</v>
       </c>
-      <c r="F163" s="116" t="s">
+      <c r="F163" s="227" t="s">
         <v>1785</v>
       </c>
-      <c r="G163" s="227"/>
+      <c r="G163" s="228"/>
       <c r="H163" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -11033,24 +11051,24 @@
       <c r="D164" s="177">
         <v>7</v>
       </c>
-      <c r="E164" s="116" t="s">
+      <c r="E164" s="227" t="s">
         <v>1786</v>
       </c>
-      <c r="F164" s="116" t="s">
+      <c r="F164" s="227" t="s">
         <v>1787</v>
       </c>
-      <c r="G164" s="227"/>
+      <c r="G164" s="228"/>
       <c r="H164" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="116"/>
+      <c r="A165" s="227"/>
       <c r="B165" s="221"/>
       <c r="C165" s="221"/>
-      <c r="D165" s="227"/>
-      <c r="E165" s="116"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="227"/>
-      <c r="H165" s="116"/>
+      <c r="D165" s="228"/>
+      <c r="E165" s="227"/>
+      <c r="F165" s="227"/>
+      <c r="G165" s="228"/>
+      <c r="H165" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="174" t="s">
@@ -11065,14 +11083,14 @@
       <c r="D166" s="177">
         <v>1</v>
       </c>
-      <c r="E166" s="116" t="s">
+      <c r="E166" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F166" s="116" t="s">
+      <c r="F166" s="227" t="s">
         <v>1512</v>
       </c>
       <c r="G166" s="177"/>
-      <c r="H166" s="228" t="s">
+      <c r="H166" s="229" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11083,10 +11101,10 @@
       <c r="D167" s="177">
         <v>2</v>
       </c>
-      <c r="E167" s="116" t="s">
+      <c r="E167" s="227" t="s">
         <v>1513</v>
       </c>
-      <c r="F167" s="116" t="s">
+      <c r="F167" s="227" t="s">
         <v>1514</v>
       </c>
       <c r="G167" s="177"/>
@@ -11099,10 +11117,10 @@
       <c r="D168" s="177">
         <v>3</v>
       </c>
-      <c r="E168" s="116" t="s">
+      <c r="E168" s="227" t="s">
         <v>1791</v>
       </c>
-      <c r="F168" s="116" t="s">
+      <c r="F168" s="227" t="s">
         <v>1792</v>
       </c>
       <c r="G168" s="177"/>
@@ -11115,10 +11133,10 @@
       <c r="D169" s="177">
         <v>4</v>
       </c>
-      <c r="E169" s="116" t="s">
+      <c r="E169" s="227" t="s">
         <v>1793</v>
       </c>
-      <c r="F169" s="116" t="s">
+      <c r="F169" s="227" t="s">
         <v>1794</v>
       </c>
       <c r="G169" s="177"/>
@@ -11131,10 +11149,10 @@
       <c r="D170" s="177">
         <v>5</v>
       </c>
-      <c r="E170" s="116" t="s">
+      <c r="E170" s="227" t="s">
         <v>1795</v>
       </c>
-      <c r="F170" s="116" t="s">
+      <c r="F170" s="227" t="s">
         <v>1796</v>
       </c>
       <c r="G170" s="177"/>
@@ -11147,10 +11165,10 @@
       <c r="D171" s="177">
         <v>6</v>
       </c>
-      <c r="E171" s="116" t="s">
+      <c r="E171" s="227" t="s">
         <v>1797</v>
       </c>
-      <c r="F171" s="116" t="s">
+      <c r="F171" s="227" t="s">
         <v>1798</v>
       </c>
       <c r="G171" s="177"/>
@@ -11160,13 +11178,13 @@
       <c r="A172" s="60"/>
       <c r="B172" s="60"/>
       <c r="C172" s="60"/>
-      <c r="D172" s="231">
+      <c r="D172" s="233">
         <v>7</v>
       </c>
-      <c r="E172" s="228" t="s">
+      <c r="E172" s="229" t="s">
         <v>1799</v>
       </c>
-      <c r="F172" s="228" t="s">
+      <c r="F172" s="229" t="s">
         <v>1800</v>
       </c>
       <c r="G172" s="177"/>
@@ -11183,12 +11201,12 @@
       <c r="H173" s="125"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="116"/>
+      <c r="A174" s="227"/>
       <c r="B174" s="221"/>
       <c r="C174" s="221"/>
-      <c r="D174" s="227"/>
-      <c r="E174" s="116"/>
-      <c r="F174" s="116"/>
+      <c r="D174" s="228"/>
+      <c r="E174" s="227"/>
+      <c r="F174" s="227"/>
       <c r="G174" s="177"/>
       <c r="H174" s="125"/>
     </row>
@@ -11203,10 +11221,10 @@
       <c r="D175" s="177">
         <v>1</v>
       </c>
-      <c r="E175" s="116" t="s">
+      <c r="E175" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F175" s="116" t="s">
+      <c r="F175" s="227" t="s">
         <v>1512</v>
       </c>
       <c r="G175" s="177"/>
@@ -11221,10 +11239,10 @@
       <c r="D176" s="177">
         <v>2</v>
       </c>
-      <c r="E176" s="116" t="s">
+      <c r="E176" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F176" s="116" t="s">
+      <c r="F176" s="227" t="s">
         <v>1805</v>
       </c>
       <c r="G176" s="177"/>
@@ -11237,10 +11255,10 @@
       <c r="D177" s="177">
         <v>3</v>
       </c>
-      <c r="E177" s="116" t="s">
+      <c r="E177" s="227" t="s">
         <v>1806</v>
       </c>
-      <c r="F177" s="116" t="s">
+      <c r="F177" s="227" t="s">
         <v>1807</v>
       </c>
       <c r="G177" s="177"/>
@@ -11253,10 +11271,10 @@
       <c r="D178" s="177">
         <v>4</v>
       </c>
-      <c r="E178" s="116" t="s">
+      <c r="E178" s="227" t="s">
         <v>1808</v>
       </c>
-      <c r="F178" s="116" t="s">
+      <c r="F178" s="227" t="s">
         <v>1809</v>
       </c>
       <c r="G178" s="177" t="s">
@@ -11271,10 +11289,10 @@
       <c r="D179" s="177">
         <v>5</v>
       </c>
-      <c r="E179" s="116" t="s">
+      <c r="E179" s="227" t="s">
         <v>1810</v>
       </c>
-      <c r="F179" s="116" t="s">
+      <c r="F179" s="227" t="s">
         <v>1811</v>
       </c>
       <c r="G179" s="177" t="s">
@@ -11292,7 +11310,7 @@
       <c r="E180" s="155" t="s">
         <v>1813</v>
       </c>
-      <c r="F180" s="116" t="s">
+      <c r="F180" s="227" t="s">
         <v>1814</v>
       </c>
       <c r="G180" s="177" t="s">
@@ -11307,10 +11325,10 @@
       <c r="D181" s="177">
         <v>7</v>
       </c>
-      <c r="E181" s="116" t="s">
+      <c r="E181" s="227" t="s">
         <v>1815</v>
       </c>
-      <c r="F181" s="116" t="s">
+      <c r="F181" s="227" t="s">
         <v>1816</v>
       </c>
       <c r="G181" s="177"/>
@@ -11323,13 +11341,13 @@
       <c r="D182" s="177">
         <v>8</v>
       </c>
-      <c r="E182" s="116" t="s">
+      <c r="E182" s="227" t="s">
         <v>1817</v>
       </c>
-      <c r="F182" s="116" t="s">
+      <c r="F182" s="227" t="s">
         <v>1814</v>
       </c>
-      <c r="G182" s="230" t="s">
+      <c r="G182" s="232" t="s">
         <v>1528</v>
       </c>
       <c r="H182" s="125"/>
@@ -11341,10 +11359,10 @@
       <c r="D183" s="177">
         <v>9</v>
       </c>
-      <c r="E183" s="116" t="s">
+      <c r="E183" s="227" t="s">
         <v>1818</v>
       </c>
-      <c r="F183" s="116" t="s">
+      <c r="F183" s="227" t="s">
         <v>1819</v>
       </c>
       <c r="G183" s="177">
@@ -11359,10 +11377,10 @@
       <c r="D184" s="177">
         <v>10</v>
       </c>
-      <c r="E184" s="116" t="s">
+      <c r="E184" s="227" t="s">
         <v>1815</v>
       </c>
-      <c r="F184" s="116" t="s">
+      <c r="F184" s="227" t="s">
         <v>1820</v>
       </c>
       <c r="G184" s="177"/>
@@ -11375,10 +11393,10 @@
       <c r="D185" s="177">
         <v>11</v>
       </c>
-      <c r="E185" s="116" t="s">
+      <c r="E185" s="227" t="s">
         <v>1821</v>
       </c>
-      <c r="F185" s="116" t="s">
+      <c r="F185" s="227" t="s">
         <v>1819</v>
       </c>
       <c r="G185" s="177">
@@ -11393,10 +11411,10 @@
       <c r="D186" s="177">
         <v>12</v>
       </c>
-      <c r="E186" s="116" t="s">
+      <c r="E186" s="227" t="s">
         <v>1822</v>
       </c>
-      <c r="F186" s="116" t="s">
+      <c r="F186" s="227" t="s">
         <v>1823</v>
       </c>
       <c r="G186" s="177"/>
@@ -11409,10 +11427,10 @@
       <c r="D187" s="177">
         <v>13</v>
       </c>
-      <c r="E187" s="116" t="s">
+      <c r="E187" s="227" t="s">
         <v>1824</v>
       </c>
-      <c r="F187" s="116" t="s">
+      <c r="F187" s="227" t="s">
         <v>1825</v>
       </c>
       <c r="G187" s="177"/>
@@ -11425,10 +11443,10 @@
       <c r="D188" s="177">
         <v>14</v>
       </c>
-      <c r="E188" s="116" t="s">
+      <c r="E188" s="227" t="s">
         <v>1826</v>
       </c>
-      <c r="F188" s="116" t="s">
+      <c r="F188" s="227" t="s">
         <v>1827</v>
       </c>
       <c r="G188" s="177"/>
@@ -11441,10 +11459,10 @@
       <c r="D189" s="177">
         <v>15</v>
       </c>
-      <c r="E189" s="116" t="s">
+      <c r="E189" s="227" t="s">
         <v>1828</v>
       </c>
-      <c r="F189" s="116" t="s">
+      <c r="F189" s="227" t="s">
         <v>1829</v>
       </c>
       <c r="G189" s="177"/>
@@ -11457,10 +11475,10 @@
       <c r="D190" s="177">
         <v>16</v>
       </c>
-      <c r="E190" s="116" t="s">
+      <c r="E190" s="227" t="s">
         <v>1830</v>
       </c>
-      <c r="F190" s="116" t="s">
+      <c r="F190" s="227" t="s">
         <v>1831</v>
       </c>
       <c r="G190" s="177"/>
@@ -11473,10 +11491,10 @@
       <c r="D191" s="177">
         <v>17</v>
       </c>
-      <c r="E191" s="116" t="s">
+      <c r="E191" s="227" t="s">
         <v>1832</v>
       </c>
-      <c r="F191" s="116" t="s">
+      <c r="F191" s="227" t="s">
         <v>1833</v>
       </c>
       <c r="G191" s="177"/>
@@ -11489,10 +11507,10 @@
       <c r="D192" s="177">
         <v>18</v>
       </c>
-      <c r="E192" s="116" t="s">
+      <c r="E192" s="227" t="s">
         <v>1834</v>
       </c>
-      <c r="F192" s="116" t="s">
+      <c r="F192" s="227" t="s">
         <v>1835</v>
       </c>
       <c r="G192" s="177"/>
@@ -11505,10 +11523,10 @@
       <c r="D193" s="177">
         <v>19</v>
       </c>
-      <c r="E193" s="116" t="s">
+      <c r="E193" s="227" t="s">
         <v>1836</v>
       </c>
-      <c r="F193" s="116" t="s">
+      <c r="F193" s="227" t="s">
         <v>1837</v>
       </c>
       <c r="G193" s="177"/>
@@ -11521,10 +11539,10 @@
       <c r="D194" s="177">
         <v>20</v>
       </c>
-      <c r="E194" s="116" t="s">
+      <c r="E194" s="227" t="s">
         <v>1838</v>
       </c>
-      <c r="F194" s="116" t="s">
+      <c r="F194" s="227" t="s">
         <v>1839</v>
       </c>
       <c r="G194" s="177" t="s">
@@ -11539,10 +11557,10 @@
       <c r="D195" s="177">
         <v>21</v>
       </c>
-      <c r="E195" s="116" t="s">
+      <c r="E195" s="227" t="s">
         <v>1841</v>
       </c>
-      <c r="F195" s="116" t="s">
+      <c r="F195" s="227" t="s">
         <v>1842</v>
       </c>
       <c r="G195" s="177"/>
@@ -11555,10 +11573,10 @@
       <c r="D196" s="177">
         <v>22</v>
       </c>
-      <c r="E196" s="116" t="s">
+      <c r="E196" s="227" t="s">
         <v>1843</v>
       </c>
-      <c r="F196" s="116" t="s">
+      <c r="F196" s="227" t="s">
         <v>1844</v>
       </c>
       <c r="G196" s="177"/>
@@ -11571,10 +11589,10 @@
       <c r="D197" s="177">
         <v>23</v>
       </c>
-      <c r="E197" s="116" t="s">
+      <c r="E197" s="227" t="s">
         <v>1845</v>
       </c>
-      <c r="F197" s="116" t="s">
+      <c r="F197" s="227" t="s">
         <v>1846</v>
       </c>
       <c r="G197" s="177"/>
@@ -11587,10 +11605,10 @@
       <c r="D198" s="177">
         <v>24</v>
       </c>
-      <c r="E198" s="116" t="s">
+      <c r="E198" s="227" t="s">
         <v>1847</v>
       </c>
-      <c r="F198" s="116" t="s">
+      <c r="F198" s="227" t="s">
         <v>1848</v>
       </c>
       <c r="G198" s="177"/>
@@ -11603,10 +11621,10 @@
       <c r="D199" s="177">
         <v>25</v>
       </c>
-      <c r="E199" s="116" t="s">
+      <c r="E199" s="227" t="s">
         <v>1847</v>
       </c>
-      <c r="F199" s="116" t="s">
+      <c r="F199" s="227" t="s">
         <v>1849</v>
       </c>
       <c r="G199" s="177"/>
@@ -11619,10 +11637,10 @@
       <c r="D200" s="177">
         <v>26</v>
       </c>
-      <c r="E200" s="116" t="s">
+      <c r="E200" s="227" t="s">
         <v>1850</v>
       </c>
-      <c r="F200" s="116" t="s">
+      <c r="F200" s="227" t="s">
         <v>1851</v>
       </c>
       <c r="G200" s="177"/>
@@ -11635,10 +11653,10 @@
       <c r="D201" s="177">
         <v>27</v>
       </c>
-      <c r="E201" s="116" t="s">
+      <c r="E201" s="227" t="s">
         <v>1850</v>
       </c>
-      <c r="F201" s="116" t="s">
+      <c r="F201" s="227" t="s">
         <v>1852</v>
       </c>
       <c r="G201" s="177"/>
@@ -11651,10 +11669,10 @@
       <c r="D202" s="177">
         <v>28</v>
       </c>
-      <c r="E202" s="116" t="s">
+      <c r="E202" s="227" t="s">
         <v>1847</v>
       </c>
-      <c r="F202" s="116" t="s">
+      <c r="F202" s="227" t="s">
         <v>1848</v>
       </c>
       <c r="G202" s="177"/>
@@ -11667,10 +11685,10 @@
       <c r="D203" s="177">
         <v>29</v>
       </c>
-      <c r="E203" s="116" t="s">
+      <c r="E203" s="227" t="s">
         <v>1853</v>
       </c>
-      <c r="F203" s="116" t="s">
+      <c r="F203" s="227" t="s">
         <v>1854</v>
       </c>
       <c r="G203" s="177"/>
@@ -11683,10 +11701,10 @@
       <c r="D204" s="177">
         <v>30</v>
       </c>
-      <c r="E204" s="116" t="s">
+      <c r="E204" s="227" t="s">
         <v>1855</v>
       </c>
-      <c r="F204" s="116" t="s">
+      <c r="F204" s="227" t="s">
         <v>1152</v>
       </c>
       <c r="G204" s="177"/>
@@ -11699,10 +11717,10 @@
       <c r="D205" s="177">
         <v>31</v>
       </c>
-      <c r="E205" s="116" t="s">
+      <c r="E205" s="227" t="s">
         <v>1856</v>
       </c>
-      <c r="F205" s="116" t="s">
+      <c r="F205" s="227" t="s">
         <v>1857</v>
       </c>
       <c r="G205" s="177"/>
@@ -11715,10 +11733,10 @@
       <c r="D206" s="177">
         <v>32</v>
       </c>
-      <c r="E206" s="116" t="s">
+      <c r="E206" s="227" t="s">
         <v>1858</v>
       </c>
-      <c r="F206" s="116" t="s">
+      <c r="F206" s="227" t="s">
         <v>1859</v>
       </c>
       <c r="G206" s="177" t="s">
@@ -11733,10 +11751,10 @@
       <c r="D207" s="177">
         <v>33</v>
       </c>
-      <c r="E207" s="116" t="s">
+      <c r="E207" s="227" t="s">
         <v>1861</v>
       </c>
-      <c r="F207" s="116" t="s">
+      <c r="F207" s="227" t="s">
         <v>1862</v>
       </c>
       <c r="G207" s="177"/>
@@ -11749,10 +11767,10 @@
       <c r="D208" s="177">
         <v>34</v>
       </c>
-      <c r="E208" s="116" t="s">
+      <c r="E208" s="227" t="s">
         <v>1863</v>
       </c>
-      <c r="F208" s="116" t="s">
+      <c r="F208" s="227" t="s">
         <v>1864</v>
       </c>
       <c r="G208" s="177"/>
@@ -11765,10 +11783,10 @@
       <c r="D209" s="177">
         <v>35</v>
       </c>
-      <c r="E209" s="116" t="s">
+      <c r="E209" s="227" t="s">
         <v>1865</v>
       </c>
-      <c r="F209" s="116" t="s">
+      <c r="F209" s="227" t="s">
         <v>1866</v>
       </c>
       <c r="G209" s="177"/>
@@ -11781,10 +11799,10 @@
       <c r="D210" s="177">
         <v>36</v>
       </c>
-      <c r="E210" s="116" t="s">
+      <c r="E210" s="227" t="s">
         <v>1867</v>
       </c>
-      <c r="F210" s="116" t="s">
+      <c r="F210" s="227" t="s">
         <v>1864</v>
       </c>
       <c r="G210" s="177"/>
@@ -11797,10 +11815,10 @@
       <c r="D211" s="177">
         <v>37</v>
       </c>
-      <c r="E211" s="116" t="s">
+      <c r="E211" s="227" t="s">
         <v>1815</v>
       </c>
-      <c r="F211" s="116" t="s">
+      <c r="F211" s="227" t="s">
         <v>1868</v>
       </c>
       <c r="G211" s="177"/>
@@ -11811,10 +11829,10 @@
       <c r="B212" s="155"/>
       <c r="C212" s="60"/>
       <c r="D212" s="177"/>
-      <c r="E212" s="116"/>
-      <c r="F212" s="116"/>
-      <c r="G212" s="227"/>
-      <c r="H212" s="116"/>
+      <c r="E212" s="227"/>
+      <c r="F212" s="227"/>
+      <c r="G212" s="228"/>
+      <c r="H212" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="12.75">
       <c r="A213" s="174" t="s">
@@ -11827,14 +11845,14 @@
       <c r="D213" s="177">
         <v>1</v>
       </c>
-      <c r="E213" s="116" t="s">
+      <c r="E213" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F213" s="116" t="s">
+      <c r="F213" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G213" s="227"/>
-      <c r="H213" s="116"/>
+      <c r="G213" s="228"/>
+      <c r="H213" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="60"/>
@@ -11845,14 +11863,14 @@
       <c r="D214" s="177">
         <v>2</v>
       </c>
-      <c r="E214" s="116" t="s">
+      <c r="E214" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F214" s="116" t="s">
+      <c r="F214" s="227" t="s">
         <v>1805</v>
       </c>
-      <c r="G214" s="227"/>
-      <c r="H214" s="116"/>
+      <c r="G214" s="228"/>
+      <c r="H214" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="60"/>
@@ -11861,14 +11879,14 @@
       <c r="D215" s="177">
         <v>3</v>
       </c>
-      <c r="E215" s="116" t="s">
+      <c r="E215" s="227" t="s">
         <v>1872</v>
       </c>
-      <c r="F215" s="116" t="s">
+      <c r="F215" s="227" t="s">
         <v>1873</v>
       </c>
-      <c r="G215" s="227"/>
-      <c r="H215" s="116"/>
+      <c r="G215" s="228"/>
+      <c r="H215" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="60"/>
@@ -11877,14 +11895,14 @@
       <c r="D216" s="177">
         <v>4</v>
       </c>
-      <c r="E216" s="116" t="s">
+      <c r="E216" s="227" t="s">
         <v>1874</v>
       </c>
-      <c r="F216" s="116" t="s">
+      <c r="F216" s="227" t="s">
         <v>1875</v>
       </c>
-      <c r="G216" s="227"/>
-      <c r="H216" s="116"/>
+      <c r="G216" s="228"/>
+      <c r="H216" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="60"/>
@@ -11893,14 +11911,14 @@
       <c r="D217" s="177">
         <v>5</v>
       </c>
-      <c r="E217" s="116" t="s">
+      <c r="E217" s="227" t="s">
         <v>1876</v>
       </c>
-      <c r="F217" s="116" t="s">
+      <c r="F217" s="227" t="s">
         <v>1877</v>
       </c>
-      <c r="G217" s="227"/>
-      <c r="H217" s="116"/>
+      <c r="G217" s="228"/>
+      <c r="H217" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="60"/>
@@ -11909,14 +11927,14 @@
       <c r="D218" s="177">
         <v>6</v>
       </c>
-      <c r="E218" s="116" t="s">
+      <c r="E218" s="227" t="s">
         <v>1878</v>
       </c>
-      <c r="F218" s="116" t="s">
+      <c r="F218" s="227" t="s">
         <v>1879</v>
       </c>
-      <c r="G218" s="227"/>
-      <c r="H218" s="116"/>
+      <c r="G218" s="228"/>
+      <c r="H218" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="60"/>
@@ -11925,14 +11943,14 @@
       <c r="D219" s="177">
         <v>7</v>
       </c>
-      <c r="E219" s="116" t="s">
+      <c r="E219" s="227" t="s">
         <v>1880</v>
       </c>
-      <c r="F219" s="116" t="s">
+      <c r="F219" s="227" t="s">
         <v>1877</v>
       </c>
-      <c r="G219" s="227"/>
-      <c r="H219" s="116"/>
+      <c r="G219" s="228"/>
+      <c r="H219" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="60"/>
@@ -11941,14 +11959,14 @@
       <c r="D220" s="177">
         <v>8</v>
       </c>
-      <c r="E220" s="116" t="s">
+      <c r="E220" s="227" t="s">
         <v>1881</v>
       </c>
-      <c r="F220" s="116" t="s">
+      <c r="F220" s="227" t="s">
         <v>1882</v>
       </c>
-      <c r="G220" s="227"/>
-      <c r="H220" s="116"/>
+      <c r="G220" s="228"/>
+      <c r="H220" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="60"/>
@@ -11957,14 +11975,14 @@
       <c r="D221" s="177">
         <v>9</v>
       </c>
-      <c r="E221" s="116" t="s">
+      <c r="E221" s="227" t="s">
         <v>1883</v>
       </c>
-      <c r="F221" s="116" t="s">
+      <c r="F221" s="227" t="s">
         <v>1884</v>
       </c>
-      <c r="G221" s="227"/>
-      <c r="H221" s="116"/>
+      <c r="G221" s="228"/>
+      <c r="H221" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="60"/>
@@ -11973,14 +11991,14 @@
       <c r="D222" s="177">
         <v>10</v>
       </c>
-      <c r="E222" s="116" t="s">
+      <c r="E222" s="227" t="s">
         <v>1880</v>
       </c>
-      <c r="F222" s="116" t="s">
+      <c r="F222" s="227" t="s">
         <v>1877</v>
       </c>
-      <c r="G222" s="227"/>
-      <c r="H222" s="116"/>
+      <c r="G222" s="228"/>
+      <c r="H222" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="60"/>
@@ -11989,27 +12007,27 @@
       <c r="D223" s="177">
         <v>11</v>
       </c>
-      <c r="E223" s="116" t="s">
+      <c r="E223" s="227" t="s">
         <v>1885</v>
       </c>
-      <c r="F223" s="116" t="s">
+      <c r="F223" s="227" t="s">
         <v>1886</v>
       </c>
-      <c r="G223" s="227"/>
-      <c r="H223" s="116"/>
+      <c r="G223" s="228"/>
+      <c r="H223" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="221"/>
       <c r="B224" s="221"/>
       <c r="C224" s="60"/>
-      <c r="D224" s="232"/>
+      <c r="D224" s="234"/>
       <c r="E224" s="221"/>
       <c r="F224" s="221"/>
-      <c r="G224" s="232"/>
+      <c r="G224" s="234"/>
       <c r="H224" s="221"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15">
-      <c r="A225" s="228" t="s">
+      <c r="A225" s="229" t="s">
         <v>1887</v>
       </c>
       <c r="B225" s="174" t="s">
@@ -12019,14 +12037,14 @@
       <c r="D225" s="177">
         <v>1</v>
       </c>
-      <c r="E225" s="116" t="s">
+      <c r="E225" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F225" s="116" t="s">
+      <c r="F225" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G225" s="227"/>
-      <c r="H225" s="116"/>
+      <c r="G225" s="228"/>
+      <c r="H225" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="125"/>
@@ -12037,14 +12055,14 @@
       <c r="D226" s="177">
         <v>2</v>
       </c>
-      <c r="E226" s="116" t="s">
+      <c r="E226" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F226" s="116" t="s">
+      <c r="F226" s="227" t="s">
         <v>1805</v>
       </c>
-      <c r="G226" s="227"/>
-      <c r="H226" s="116"/>
+      <c r="G226" s="228"/>
+      <c r="H226" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="125"/>
@@ -12053,14 +12071,14 @@
       <c r="D227" s="177">
         <v>3</v>
       </c>
-      <c r="E227" s="116" t="s">
+      <c r="E227" s="227" t="s">
         <v>1890</v>
       </c>
-      <c r="F227" s="116" t="s">
+      <c r="F227" s="227" t="s">
         <v>1891</v>
       </c>
-      <c r="G227" s="227"/>
-      <c r="H227" s="116"/>
+      <c r="G227" s="228"/>
+      <c r="H227" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="125"/>
@@ -12069,14 +12087,14 @@
       <c r="D228" s="177">
         <v>4</v>
       </c>
-      <c r="E228" s="116" t="s">
+      <c r="E228" s="227" t="s">
         <v>1892</v>
       </c>
-      <c r="F228" s="116" t="s">
+      <c r="F228" s="227" t="s">
         <v>1893</v>
       </c>
-      <c r="G228" s="227"/>
-      <c r="H228" s="116"/>
+      <c r="G228" s="228"/>
+      <c r="H228" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="125"/>
@@ -12085,14 +12103,14 @@
       <c r="D229" s="177">
         <v>5</v>
       </c>
-      <c r="E229" s="116" t="s">
+      <c r="E229" s="227" t="s">
         <v>1894</v>
       </c>
-      <c r="F229" s="116" t="s">
+      <c r="F229" s="227" t="s">
         <v>1895</v>
       </c>
-      <c r="G229" s="227"/>
-      <c r="H229" s="116"/>
+      <c r="G229" s="228"/>
+      <c r="H229" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="125"/>
@@ -12101,14 +12119,14 @@
       <c r="D230" s="177">
         <v>6</v>
       </c>
-      <c r="E230" s="116" t="s">
+      <c r="E230" s="227" t="s">
         <v>1896</v>
       </c>
-      <c r="F230" s="116" t="s">
+      <c r="F230" s="227" t="s">
         <v>1897</v>
       </c>
-      <c r="G230" s="227"/>
-      <c r="H230" s="116"/>
+      <c r="G230" s="228"/>
+      <c r="H230" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="125"/>
@@ -12117,14 +12135,14 @@
       <c r="D231" s="177">
         <v>7</v>
       </c>
-      <c r="E231" s="116" t="s">
+      <c r="E231" s="227" t="s">
         <v>1894</v>
       </c>
-      <c r="F231" s="116" t="s">
+      <c r="F231" s="227" t="s">
         <v>1895</v>
       </c>
-      <c r="G231" s="227"/>
-      <c r="H231" s="116"/>
+      <c r="G231" s="228"/>
+      <c r="H231" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="125"/>
@@ -12133,14 +12151,14 @@
       <c r="D232" s="177">
         <v>8</v>
       </c>
-      <c r="E232" s="116" t="s">
+      <c r="E232" s="227" t="s">
         <v>1898</v>
       </c>
-      <c r="F232" s="116" t="s">
+      <c r="F232" s="227" t="s">
         <v>1899</v>
       </c>
-      <c r="G232" s="227"/>
-      <c r="H232" s="116"/>
+      <c r="G232" s="228"/>
+      <c r="H232" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="125"/>
@@ -12149,14 +12167,14 @@
       <c r="D233" s="177">
         <v>9</v>
       </c>
-      <c r="E233" s="116" t="s">
+      <c r="E233" s="227" t="s">
         <v>1900</v>
       </c>
-      <c r="F233" s="116" t="s">
+      <c r="F233" s="227" t="s">
         <v>1901</v>
       </c>
-      <c r="G233" s="227"/>
-      <c r="H233" s="116"/>
+      <c r="G233" s="228"/>
+      <c r="H233" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="125"/>
@@ -12165,14 +12183,14 @@
       <c r="D234" s="177">
         <v>10</v>
       </c>
-      <c r="E234" s="116" t="s">
+      <c r="E234" s="227" t="s">
         <v>1902</v>
       </c>
-      <c r="F234" s="116" t="s">
+      <c r="F234" s="227" t="s">
         <v>1903</v>
       </c>
-      <c r="G234" s="227"/>
-      <c r="H234" s="116"/>
+      <c r="G234" s="228"/>
+      <c r="H234" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="125"/>
@@ -12181,14 +12199,14 @@
       <c r="D235" s="177">
         <v>11</v>
       </c>
-      <c r="E235" s="116" t="s">
+      <c r="E235" s="227" t="s">
         <v>1904</v>
       </c>
-      <c r="F235" s="116" t="s">
+      <c r="F235" s="227" t="s">
         <v>1905</v>
       </c>
-      <c r="G235" s="227"/>
-      <c r="H235" s="116"/>
+      <c r="G235" s="228"/>
+      <c r="H235" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="125"/>
@@ -12197,43 +12215,43 @@
       <c r="D236" s="177">
         <v>12</v>
       </c>
-      <c r="E236" s="116" t="s">
+      <c r="E236" s="227" t="s">
         <v>1906</v>
       </c>
-      <c r="F236" s="116" t="s">
+      <c r="F236" s="227" t="s">
         <v>1907</v>
       </c>
-      <c r="G236" s="227"/>
-      <c r="H236" s="116"/>
+      <c r="G236" s="228"/>
+      <c r="H236" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="125"/>
       <c r="B237" s="60"/>
       <c r="C237" s="60"/>
-      <c r="D237" s="227"/>
-      <c r="E237" s="116"/>
-      <c r="F237" s="116"/>
-      <c r="G237" s="227"/>
-      <c r="H237" s="116"/>
+      <c r="D237" s="228"/>
+      <c r="E237" s="227"/>
+      <c r="F237" s="227"/>
+      <c r="G237" s="228"/>
+      <c r="H237" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="125"/>
       <c r="B238" s="60"/>
       <c r="C238" s="60"/>
-      <c r="D238" s="227"/>
-      <c r="E238" s="116"/>
-      <c r="F238" s="116"/>
-      <c r="G238" s="227"/>
-      <c r="H238" s="116"/>
+      <c r="D238" s="228"/>
+      <c r="E238" s="227"/>
+      <c r="F238" s="227"/>
+      <c r="G238" s="228"/>
+      <c r="H238" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="221"/>
       <c r="B239" s="221"/>
       <c r="C239" s="60"/>
-      <c r="D239" s="232"/>
+      <c r="D239" s="234"/>
       <c r="E239" s="221"/>
       <c r="F239" s="221"/>
-      <c r="G239" s="232"/>
+      <c r="G239" s="234"/>
       <c r="H239" s="221"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="16.5">
@@ -12247,14 +12265,14 @@
       <c r="D240" s="177">
         <v>1</v>
       </c>
-      <c r="E240" s="116" t="s">
+      <c r="E240" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F240" s="116" t="s">
+      <c r="F240" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G240" s="227"/>
-      <c r="H240" s="116"/>
+      <c r="G240" s="228"/>
+      <c r="H240" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="60"/>
@@ -12265,14 +12283,14 @@
       <c r="D241" s="177">
         <v>2</v>
       </c>
-      <c r="E241" s="116" t="s">
+      <c r="E241" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F241" s="116" t="s">
+      <c r="F241" s="227" t="s">
         <v>1805</v>
       </c>
-      <c r="G241" s="227"/>
-      <c r="H241" s="116"/>
+      <c r="G241" s="228"/>
+      <c r="H241" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="60"/>
@@ -12281,14 +12299,14 @@
       <c r="D242" s="177">
         <v>3</v>
       </c>
-      <c r="E242" s="116" t="s">
+      <c r="E242" s="227" t="s">
         <v>1911</v>
       </c>
-      <c r="F242" s="116" t="s">
+      <c r="F242" s="227" t="s">
         <v>1912</v>
       </c>
-      <c r="G242" s="227"/>
-      <c r="H242" s="116"/>
+      <c r="G242" s="228"/>
+      <c r="H242" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="60"/>
@@ -12297,14 +12315,14 @@
       <c r="D243" s="177">
         <v>4</v>
       </c>
-      <c r="E243" s="116" t="s">
+      <c r="E243" s="227" t="s">
         <v>1913</v>
       </c>
-      <c r="F243" s="116" t="s">
+      <c r="F243" s="227" t="s">
         <v>1914</v>
       </c>
-      <c r="G243" s="227"/>
-      <c r="H243" s="116"/>
+      <c r="G243" s="228"/>
+      <c r="H243" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="60"/>
@@ -12313,14 +12331,14 @@
       <c r="D244" s="177">
         <v>5</v>
       </c>
-      <c r="E244" s="116" t="s">
+      <c r="E244" s="227" t="s">
         <v>1915</v>
       </c>
-      <c r="F244" s="116" t="s">
+      <c r="F244" s="227" t="s">
         <v>1916</v>
       </c>
-      <c r="G244" s="227"/>
-      <c r="H244" s="116"/>
+      <c r="G244" s="228"/>
+      <c r="H244" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="60"/>
@@ -12329,14 +12347,14 @@
       <c r="D245" s="177">
         <v>6</v>
       </c>
-      <c r="E245" s="116" t="s">
+      <c r="E245" s="227" t="s">
         <v>1917</v>
       </c>
-      <c r="F245" s="116" t="s">
+      <c r="F245" s="227" t="s">
         <v>1918</v>
       </c>
-      <c r="G245" s="227"/>
-      <c r="H245" s="116"/>
+      <c r="G245" s="228"/>
+      <c r="H245" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="60"/>
@@ -12345,14 +12363,14 @@
       <c r="D246" s="177">
         <v>7</v>
       </c>
-      <c r="E246" s="116" t="s">
+      <c r="E246" s="227" t="s">
         <v>1919</v>
       </c>
-      <c r="F246" s="116" t="s">
+      <c r="F246" s="227" t="s">
         <v>1920</v>
       </c>
-      <c r="G246" s="227"/>
-      <c r="H246" s="116"/>
+      <c r="G246" s="228"/>
+      <c r="H246" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="60"/>
@@ -12361,14 +12379,14 @@
       <c r="D247" s="177">
         <v>8</v>
       </c>
-      <c r="E247" s="116" t="s">
+      <c r="E247" s="227" t="s">
         <v>1915</v>
       </c>
-      <c r="F247" s="116" t="s">
+      <c r="F247" s="227" t="s">
         <v>1916</v>
       </c>
-      <c r="G247" s="227"/>
-      <c r="H247" s="116"/>
+      <c r="G247" s="228"/>
+      <c r="H247" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="60"/>
@@ -12377,14 +12395,14 @@
       <c r="D248" s="177">
         <v>9</v>
       </c>
-      <c r="E248" s="116" t="s">
+      <c r="E248" s="227" t="s">
         <v>1917</v>
       </c>
-      <c r="F248" s="116" t="s">
+      <c r="F248" s="227" t="s">
         <v>1918</v>
       </c>
-      <c r="G248" s="227"/>
-      <c r="H248" s="116"/>
+      <c r="G248" s="228"/>
+      <c r="H248" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="60"/>
@@ -12393,27 +12411,27 @@
       <c r="D249" s="177">
         <v>10</v>
       </c>
-      <c r="E249" s="116" t="s">
+      <c r="E249" s="227" t="s">
         <v>1921</v>
       </c>
-      <c r="F249" s="116" t="s">
+      <c r="F249" s="227" t="s">
         <v>1920</v>
       </c>
-      <c r="G249" s="227"/>
-      <c r="H249" s="116"/>
+      <c r="G249" s="228"/>
+      <c r="H249" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="155"/>
       <c r="B250" s="155"/>
       <c r="C250" s="60"/>
-      <c r="D250" s="232"/>
+      <c r="D250" s="234"/>
       <c r="E250" s="221"/>
       <c r="F250" s="221"/>
-      <c r="G250" s="232"/>
+      <c r="G250" s="234"/>
       <c r="H250" s="221"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15">
-      <c r="A251" s="228" t="s">
+      <c r="A251" s="229" t="s">
         <v>1922</v>
       </c>
       <c r="B251" s="174" t="s">
@@ -12425,14 +12443,14 @@
       <c r="D251" s="177">
         <v>1</v>
       </c>
-      <c r="E251" s="116" t="s">
+      <c r="E251" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F251" s="116" t="s">
+      <c r="F251" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G251" s="227"/>
-      <c r="H251" s="116"/>
+      <c r="G251" s="228"/>
+      <c r="H251" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="125"/>
@@ -12441,14 +12459,14 @@
       <c r="D252" s="177">
         <v>2</v>
       </c>
-      <c r="E252" s="116" t="s">
+      <c r="E252" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F252" s="116" t="s">
+      <c r="F252" s="227" t="s">
         <v>1805</v>
       </c>
-      <c r="G252" s="227"/>
-      <c r="H252" s="116"/>
+      <c r="G252" s="228"/>
+      <c r="H252" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="125"/>
@@ -12457,14 +12475,14 @@
       <c r="D253" s="177">
         <v>3</v>
       </c>
-      <c r="E253" s="116" t="s">
+      <c r="E253" s="227" t="s">
         <v>1925</v>
       </c>
-      <c r="F253" s="116" t="s">
+      <c r="F253" s="227" t="s">
         <v>1926</v>
       </c>
-      <c r="G253" s="227"/>
-      <c r="H253" s="116"/>
+      <c r="G253" s="228"/>
+      <c r="H253" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="125"/>
@@ -12473,14 +12491,14 @@
       <c r="D254" s="177">
         <v>4</v>
       </c>
-      <c r="E254" s="116" t="s">
+      <c r="E254" s="227" t="s">
         <v>1927</v>
       </c>
-      <c r="F254" s="116" t="s">
+      <c r="F254" s="227" t="s">
         <v>1928</v>
       </c>
-      <c r="G254" s="227"/>
-      <c r="H254" s="116"/>
+      <c r="G254" s="228"/>
+      <c r="H254" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="125"/>
@@ -12489,14 +12507,14 @@
       <c r="D255" s="177">
         <v>5</v>
       </c>
-      <c r="E255" s="116" t="s">
+      <c r="E255" s="227" t="s">
         <v>1929</v>
       </c>
-      <c r="F255" s="116" t="s">
+      <c r="F255" s="227" t="s">
         <v>1930</v>
       </c>
-      <c r="G255" s="227"/>
-      <c r="H255" s="116"/>
+      <c r="G255" s="228"/>
+      <c r="H255" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="125"/>
@@ -12505,14 +12523,14 @@
       <c r="D256" s="177">
         <v>6</v>
       </c>
-      <c r="E256" s="116" t="s">
+      <c r="E256" s="227" t="s">
         <v>1931</v>
       </c>
-      <c r="F256" s="116" t="s">
+      <c r="F256" s="227" t="s">
         <v>1932</v>
       </c>
-      <c r="G256" s="227"/>
-      <c r="H256" s="116"/>
+      <c r="G256" s="228"/>
+      <c r="H256" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="125"/>
@@ -12521,14 +12539,14 @@
       <c r="D257" s="177">
         <v>7</v>
       </c>
-      <c r="E257" s="116" t="s">
+      <c r="E257" s="227" t="s">
         <v>1933</v>
       </c>
-      <c r="F257" s="116" t="s">
+      <c r="F257" s="227" t="s">
         <v>1934</v>
       </c>
-      <c r="G257" s="227"/>
-      <c r="H257" s="116"/>
+      <c r="G257" s="228"/>
+      <c r="H257" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="125"/>
@@ -12537,14 +12555,14 @@
       <c r="D258" s="177">
         <v>8</v>
       </c>
-      <c r="E258" s="116" t="s">
+      <c r="E258" s="227" t="s">
         <v>1935</v>
       </c>
-      <c r="F258" s="116" t="s">
+      <c r="F258" s="227" t="s">
         <v>1936</v>
       </c>
-      <c r="G258" s="227"/>
-      <c r="H258" s="116"/>
+      <c r="G258" s="228"/>
+      <c r="H258" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="125"/>
@@ -12553,27 +12571,27 @@
       <c r="D259" s="177">
         <v>9</v>
       </c>
-      <c r="E259" s="116" t="s">
+      <c r="E259" s="227" t="s">
         <v>1937</v>
       </c>
-      <c r="F259" s="116" t="s">
+      <c r="F259" s="227" t="s">
         <v>1938</v>
       </c>
-      <c r="G259" s="227"/>
-      <c r="H259" s="116"/>
+      <c r="G259" s="228"/>
+      <c r="H259" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="116"/>
+      <c r="A260" s="227"/>
       <c r="B260" s="221"/>
       <c r="C260" s="221"/>
-      <c r="D260" s="227"/>
-      <c r="E260" s="116"/>
-      <c r="F260" s="116"/>
-      <c r="G260" s="227"/>
-      <c r="H260" s="116"/>
+      <c r="D260" s="228"/>
+      <c r="E260" s="227"/>
+      <c r="F260" s="227"/>
+      <c r="G260" s="228"/>
+      <c r="H260" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="12.75">
-      <c r="A261" s="228" t="s">
+      <c r="A261" s="229" t="s">
         <v>1939</v>
       </c>
       <c r="B261" s="174" t="s">
@@ -12585,14 +12603,14 @@
       <c r="D261" s="177">
         <v>1</v>
       </c>
-      <c r="E261" s="116" t="s">
+      <c r="E261" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F261" s="116" t="s">
+      <c r="F261" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G261" s="227"/>
-      <c r="H261" s="116"/>
+      <c r="G261" s="228"/>
+      <c r="H261" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="125"/>
@@ -12601,14 +12619,14 @@
       <c r="D262" s="177">
         <v>2</v>
       </c>
-      <c r="E262" s="116" t="s">
+      <c r="E262" s="227" t="s">
         <v>1804</v>
       </c>
-      <c r="F262" s="116" t="s">
+      <c r="F262" s="227" t="s">
         <v>1805</v>
       </c>
-      <c r="G262" s="227"/>
-      <c r="H262" s="116"/>
+      <c r="G262" s="228"/>
+      <c r="H262" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="125"/>
@@ -12617,14 +12635,14 @@
       <c r="D263" s="177">
         <v>3</v>
       </c>
-      <c r="E263" s="116" t="s">
+      <c r="E263" s="227" t="s">
         <v>1942</v>
       </c>
-      <c r="F263" s="116" t="s">
+      <c r="F263" s="227" t="s">
         <v>1943</v>
       </c>
-      <c r="G263" s="227"/>
-      <c r="H263" s="116"/>
+      <c r="G263" s="228"/>
+      <c r="H263" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="125"/>
@@ -12633,14 +12651,14 @@
       <c r="D264" s="177">
         <v>4</v>
       </c>
-      <c r="E264" s="116" t="s">
+      <c r="E264" s="227" t="s">
         <v>1944</v>
       </c>
-      <c r="F264" s="116" t="s">
+      <c r="F264" s="227" t="s">
         <v>1945</v>
       </c>
-      <c r="G264" s="227"/>
-      <c r="H264" s="116"/>
+      <c r="G264" s="228"/>
+      <c r="H264" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="125"/>
@@ -12649,14 +12667,14 @@
       <c r="D265" s="177">
         <v>5</v>
       </c>
-      <c r="E265" s="116" t="s">
+      <c r="E265" s="227" t="s">
         <v>1946</v>
       </c>
-      <c r="F265" s="116" t="s">
+      <c r="F265" s="227" t="s">
         <v>1947</v>
       </c>
-      <c r="G265" s="227"/>
-      <c r="H265" s="116"/>
+      <c r="G265" s="228"/>
+      <c r="H265" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="125"/>
@@ -12665,14 +12683,14 @@
       <c r="D266" s="177">
         <v>6</v>
       </c>
-      <c r="E266" s="116" t="s">
+      <c r="E266" s="227" t="s">
         <v>1944</v>
       </c>
-      <c r="F266" s="116" t="s">
+      <c r="F266" s="227" t="s">
         <v>1945</v>
       </c>
-      <c r="G266" s="227"/>
-      <c r="H266" s="116"/>
+      <c r="G266" s="228"/>
+      <c r="H266" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="125"/>
@@ -12681,14 +12699,14 @@
       <c r="D267" s="177">
         <v>7</v>
       </c>
-      <c r="E267" s="116" t="s">
+      <c r="E267" s="227" t="s">
         <v>1948</v>
       </c>
-      <c r="F267" s="116" t="s">
+      <c r="F267" s="227" t="s">
         <v>1947</v>
       </c>
-      <c r="G267" s="227"/>
-      <c r="H267" s="116"/>
+      <c r="G267" s="228"/>
+      <c r="H267" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="125"/>
@@ -12697,14 +12715,14 @@
       <c r="D268" s="177">
         <v>8</v>
       </c>
-      <c r="E268" s="116" t="s">
+      <c r="E268" s="227" t="s">
         <v>1949</v>
       </c>
-      <c r="F268" s="116" t="s">
+      <c r="F268" s="227" t="s">
         <v>1950</v>
       </c>
-      <c r="G268" s="227"/>
-      <c r="H268" s="116"/>
+      <c r="G268" s="228"/>
+      <c r="H268" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="125"/>
@@ -12713,14 +12731,14 @@
       <c r="D269" s="177">
         <v>9</v>
       </c>
-      <c r="E269" s="116" t="s">
+      <c r="E269" s="227" t="s">
         <v>1951</v>
       </c>
-      <c r="F269" s="116" t="s">
+      <c r="F269" s="227" t="s">
         <v>1947</v>
       </c>
-      <c r="G269" s="227"/>
-      <c r="H269" s="116"/>
+      <c r="G269" s="228"/>
+      <c r="H269" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="125"/>
@@ -12729,14 +12747,14 @@
       <c r="D270" s="177">
         <v>10</v>
       </c>
-      <c r="E270" s="116" t="s">
+      <c r="E270" s="227" t="s">
         <v>1949</v>
       </c>
-      <c r="F270" s="116" t="s">
+      <c r="F270" s="227" t="s">
         <v>1950</v>
       </c>
-      <c r="G270" s="227"/>
-      <c r="H270" s="116"/>
+      <c r="G270" s="228"/>
+      <c r="H270" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="125"/>
@@ -12745,24 +12763,24 @@
       <c r="D271" s="177">
         <v>11</v>
       </c>
-      <c r="E271" s="116" t="s">
+      <c r="E271" s="227" t="s">
         <v>1948</v>
       </c>
-      <c r="F271" s="116" t="s">
+      <c r="F271" s="227" t="s">
         <v>1947</v>
       </c>
-      <c r="G271" s="227"/>
-      <c r="H271" s="116"/>
+      <c r="G271" s="228"/>
+      <c r="H271" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="116"/>
+      <c r="A272" s="227"/>
       <c r="B272" s="221"/>
       <c r="C272" s="221"/>
-      <c r="D272" s="227"/>
-      <c r="E272" s="116"/>
-      <c r="F272" s="116"/>
-      <c r="G272" s="227"/>
-      <c r="H272" s="116"/>
+      <c r="D272" s="228"/>
+      <c r="E272" s="227"/>
+      <c r="F272" s="227"/>
+      <c r="G272" s="228"/>
+      <c r="H272" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="16.5">
       <c r="A273" s="174" t="s">
@@ -12777,14 +12795,14 @@
       <c r="D273" s="177">
         <v>1</v>
       </c>
-      <c r="E273" s="116" t="s">
+      <c r="E273" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F273" s="116" t="s">
+      <c r="F273" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G273" s="227"/>
-      <c r="H273" s="116"/>
+      <c r="G273" s="228"/>
+      <c r="H273" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="60"/>
@@ -12793,14 +12811,14 @@
       <c r="D274" s="177">
         <v>2</v>
       </c>
-      <c r="E274" s="116" t="s">
+      <c r="E274" s="227" t="s">
         <v>1955</v>
       </c>
-      <c r="F274" s="116" t="s">
+      <c r="F274" s="227" t="s">
         <v>1956</v>
       </c>
-      <c r="G274" s="227"/>
-      <c r="H274" s="116"/>
+      <c r="G274" s="228"/>
+      <c r="H274" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="60"/>
@@ -12809,14 +12827,14 @@
       <c r="D275" s="177">
         <v>3</v>
       </c>
-      <c r="E275" s="116" t="s">
+      <c r="E275" s="227" t="s">
         <v>1957</v>
       </c>
-      <c r="F275" s="116" t="s">
+      <c r="F275" s="227" t="s">
         <v>1958</v>
       </c>
-      <c r="G275" s="227"/>
-      <c r="H275" s="116"/>
+      <c r="G275" s="228"/>
+      <c r="H275" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="60"/>
@@ -12825,14 +12843,14 @@
       <c r="D276" s="177">
         <v>4</v>
       </c>
-      <c r="E276" s="116" t="s">
+      <c r="E276" s="227" t="s">
         <v>1959</v>
       </c>
-      <c r="F276" s="116" t="s">
+      <c r="F276" s="227" t="s">
         <v>1960</v>
       </c>
-      <c r="G276" s="227"/>
-      <c r="H276" s="116"/>
+      <c r="G276" s="228"/>
+      <c r="H276" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="60"/>
@@ -12841,14 +12859,14 @@
       <c r="D277" s="177">
         <v>5</v>
       </c>
-      <c r="E277" s="116" t="s">
+      <c r="E277" s="227" t="s">
         <v>1961</v>
       </c>
-      <c r="F277" s="116" t="s">
+      <c r="F277" s="227" t="s">
         <v>1962</v>
       </c>
-      <c r="G277" s="227"/>
-      <c r="H277" s="116"/>
+      <c r="G277" s="228"/>
+      <c r="H277" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="60"/>
@@ -12857,14 +12875,14 @@
       <c r="D278" s="177">
         <v>6</v>
       </c>
-      <c r="E278" s="116" t="s">
+      <c r="E278" s="227" t="s">
         <v>1963</v>
       </c>
-      <c r="F278" s="116" t="s">
+      <c r="F278" s="227" t="s">
         <v>1964</v>
       </c>
-      <c r="G278" s="227"/>
-      <c r="H278" s="116"/>
+      <c r="G278" s="228"/>
+      <c r="H278" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="60"/>
@@ -12873,14 +12891,14 @@
       <c r="D279" s="177">
         <v>7</v>
       </c>
-      <c r="E279" s="116" t="s">
+      <c r="E279" s="227" t="s">
         <v>1965</v>
       </c>
-      <c r="F279" s="116" t="s">
+      <c r="F279" s="227" t="s">
         <v>1966</v>
       </c>
-      <c r="G279" s="227"/>
-      <c r="H279" s="116"/>
+      <c r="G279" s="228"/>
+      <c r="H279" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="60"/>
@@ -12889,14 +12907,14 @@
       <c r="D280" s="177">
         <v>8</v>
       </c>
-      <c r="E280" s="116" t="s">
+      <c r="E280" s="227" t="s">
         <v>1967</v>
       </c>
-      <c r="F280" s="116" t="s">
+      <c r="F280" s="227" t="s">
         <v>1968</v>
       </c>
-      <c r="G280" s="227"/>
-      <c r="H280" s="116"/>
+      <c r="G280" s="228"/>
+      <c r="H280" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="60"/>
@@ -12905,14 +12923,14 @@
       <c r="D281" s="177">
         <v>9</v>
       </c>
-      <c r="E281" s="116" t="s">
+      <c r="E281" s="227" t="s">
         <v>1969</v>
       </c>
-      <c r="F281" s="116" t="s">
+      <c r="F281" s="227" t="s">
         <v>1970</v>
       </c>
-      <c r="G281" s="227"/>
-      <c r="H281" s="116"/>
+      <c r="G281" s="228"/>
+      <c r="H281" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="60"/>
@@ -12921,14 +12939,14 @@
       <c r="D282" s="177">
         <v>10</v>
       </c>
-      <c r="E282" s="116" t="s">
+      <c r="E282" s="227" t="s">
         <v>1971</v>
       </c>
-      <c r="F282" s="116" t="s">
+      <c r="F282" s="227" t="s">
         <v>1972</v>
       </c>
-      <c r="G282" s="227"/>
-      <c r="H282" s="116"/>
+      <c r="G282" s="228"/>
+      <c r="H282" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="60"/>
@@ -12937,14 +12955,14 @@
       <c r="D283" s="177">
         <v>11</v>
       </c>
-      <c r="E283" s="116" t="s">
+      <c r="E283" s="227" t="s">
         <v>1961</v>
       </c>
-      <c r="F283" s="116" t="s">
+      <c r="F283" s="227" t="s">
         <v>1962</v>
       </c>
-      <c r="G283" s="227"/>
-      <c r="H283" s="116"/>
+      <c r="G283" s="228"/>
+      <c r="H283" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="60"/>
@@ -12953,14 +12971,14 @@
       <c r="D284" s="177">
         <v>12</v>
       </c>
-      <c r="E284" s="116" t="s">
+      <c r="E284" s="227" t="s">
         <v>1963</v>
       </c>
-      <c r="F284" s="116" t="s">
+      <c r="F284" s="227" t="s">
         <v>1964</v>
       </c>
-      <c r="G284" s="227"/>
-      <c r="H284" s="116"/>
+      <c r="G284" s="228"/>
+      <c r="H284" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="60"/>
@@ -12969,14 +12987,14 @@
       <c r="D285" s="177">
         <v>13</v>
       </c>
-      <c r="E285" s="116" t="s">
+      <c r="E285" s="227" t="s">
         <v>1965</v>
       </c>
-      <c r="F285" s="116" t="s">
+      <c r="F285" s="227" t="s">
         <v>1966</v>
       </c>
-      <c r="G285" s="227"/>
-      <c r="H285" s="116"/>
+      <c r="G285" s="228"/>
+      <c r="H285" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="60"/>
@@ -12985,14 +13003,14 @@
       <c r="D286" s="177">
         <v>14</v>
       </c>
-      <c r="E286" s="116" t="s">
+      <c r="E286" s="227" t="s">
         <v>1967</v>
       </c>
-      <c r="F286" s="116" t="s">
+      <c r="F286" s="227" t="s">
         <v>1968</v>
       </c>
-      <c r="G286" s="227"/>
-      <c r="H286" s="116"/>
+      <c r="G286" s="228"/>
+      <c r="H286" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="60"/>
@@ -13001,14 +13019,14 @@
       <c r="D287" s="177">
         <v>15</v>
       </c>
-      <c r="E287" s="116" t="s">
+      <c r="E287" s="227" t="s">
         <v>1969</v>
       </c>
-      <c r="F287" s="116" t="s">
+      <c r="F287" s="227" t="s">
         <v>1973</v>
       </c>
-      <c r="G287" s="227"/>
-      <c r="H287" s="116"/>
+      <c r="G287" s="228"/>
+      <c r="H287" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="60"/>
@@ -13017,27 +13035,27 @@
       <c r="D288" s="177">
         <v>16</v>
       </c>
-      <c r="E288" s="116" t="s">
+      <c r="E288" s="227" t="s">
         <v>1974</v>
       </c>
-      <c r="F288" s="116" t="s">
+      <c r="F288" s="227" t="s">
         <v>1975</v>
       </c>
-      <c r="G288" s="227"/>
-      <c r="H288" s="116"/>
+      <c r="G288" s="228"/>
+      <c r="H288" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="116"/>
+      <c r="A289" s="227"/>
       <c r="B289" s="221"/>
       <c r="C289" s="221"/>
-      <c r="D289" s="227"/>
-      <c r="E289" s="116"/>
-      <c r="F289" s="116"/>
-      <c r="G289" s="227"/>
-      <c r="H289" s="116"/>
+      <c r="D289" s="228"/>
+      <c r="E289" s="227"/>
+      <c r="F289" s="227"/>
+      <c r="G289" s="228"/>
+      <c r="H289" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="16.5">
-      <c r="A290" s="228" t="s">
+      <c r="A290" s="229" t="s">
         <v>1976</v>
       </c>
       <c r="B290" s="174" t="s">
@@ -13049,14 +13067,14 @@
       <c r="D290" s="177">
         <v>1</v>
       </c>
-      <c r="E290" s="116" t="s">
+      <c r="E290" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F290" s="116" t="s">
+      <c r="F290" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G290" s="227"/>
-      <c r="H290" s="116"/>
+      <c r="G290" s="228"/>
+      <c r="H290" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="125"/>
@@ -13065,14 +13083,14 @@
       <c r="D291" s="177">
         <v>2</v>
       </c>
-      <c r="E291" s="116" t="s">
+      <c r="E291" s="227" t="s">
         <v>1955</v>
       </c>
-      <c r="F291" s="116" t="s">
+      <c r="F291" s="227" t="s">
         <v>1956</v>
       </c>
-      <c r="G291" s="227"/>
-      <c r="H291" s="116"/>
+      <c r="G291" s="228"/>
+      <c r="H291" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="125"/>
@@ -13081,14 +13099,14 @@
       <c r="D292" s="177">
         <v>3</v>
       </c>
-      <c r="E292" s="116" t="s">
+      <c r="E292" s="227" t="s">
         <v>1979</v>
       </c>
-      <c r="F292" s="116" t="s">
+      <c r="F292" s="227" t="s">
         <v>1980</v>
       </c>
-      <c r="G292" s="227"/>
-      <c r="H292" s="116"/>
+      <c r="G292" s="228"/>
+      <c r="H292" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="125"/>
@@ -13097,14 +13115,14 @@
       <c r="D293" s="177">
         <v>4</v>
       </c>
-      <c r="E293" s="116" t="s">
+      <c r="E293" s="227" t="s">
         <v>1981</v>
       </c>
-      <c r="F293" s="116" t="s">
+      <c r="F293" s="227" t="s">
         <v>1982</v>
       </c>
-      <c r="G293" s="227"/>
-      <c r="H293" s="116"/>
+      <c r="G293" s="228"/>
+      <c r="H293" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="125"/>
@@ -13113,24 +13131,24 @@
       <c r="D294" s="177">
         <v>5</v>
       </c>
-      <c r="E294" s="116" t="s">
+      <c r="E294" s="227" t="s">
         <v>1983</v>
       </c>
-      <c r="F294" s="116" t="s">
+      <c r="F294" s="227" t="s">
         <v>1984</v>
       </c>
-      <c r="G294" s="227"/>
-      <c r="H294" s="116"/>
+      <c r="G294" s="228"/>
+      <c r="H294" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="116"/>
+      <c r="A295" s="227"/>
       <c r="B295" s="221"/>
       <c r="C295" s="221"/>
-      <c r="D295" s="227"/>
-      <c r="E295" s="116"/>
-      <c r="F295" s="116"/>
-      <c r="G295" s="227"/>
-      <c r="H295" s="116"/>
+      <c r="D295" s="228"/>
+      <c r="E295" s="227"/>
+      <c r="F295" s="227"/>
+      <c r="G295" s="228"/>
+      <c r="H295" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="14.25">
       <c r="A296" s="174" t="s">
@@ -13145,14 +13163,14 @@
       <c r="D296" s="177">
         <v>1</v>
       </c>
-      <c r="E296" s="116" t="s">
+      <c r="E296" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F296" s="116" t="s">
+      <c r="F296" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G296" s="227"/>
-      <c r="H296" s="116"/>
+      <c r="G296" s="228"/>
+      <c r="H296" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="60"/>
@@ -13161,14 +13179,14 @@
       <c r="D297" s="177">
         <v>2</v>
       </c>
-      <c r="E297" s="116" t="s">
+      <c r="E297" s="227" t="s">
         <v>1955</v>
       </c>
-      <c r="F297" s="116" t="s">
+      <c r="F297" s="227" t="s">
         <v>1956</v>
       </c>
-      <c r="G297" s="227"/>
-      <c r="H297" s="116"/>
+      <c r="G297" s="228"/>
+      <c r="H297" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="60"/>
@@ -13177,14 +13195,14 @@
       <c r="D298" s="177">
         <v>3</v>
       </c>
-      <c r="E298" s="116" t="s">
+      <c r="E298" s="227" t="s">
         <v>1988</v>
       </c>
-      <c r="F298" s="116" t="s">
+      <c r="F298" s="227" t="s">
         <v>1989</v>
       </c>
-      <c r="G298" s="227"/>
-      <c r="H298" s="116"/>
+      <c r="G298" s="228"/>
+      <c r="H298" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="60"/>
@@ -13193,14 +13211,14 @@
       <c r="D299" s="177">
         <v>4</v>
       </c>
-      <c r="E299" s="116" t="s">
+      <c r="E299" s="227" t="s">
         <v>1990</v>
       </c>
-      <c r="F299" s="116" t="s">
+      <c r="F299" s="227" t="s">
         <v>1991</v>
       </c>
-      <c r="G299" s="227"/>
-      <c r="H299" s="116"/>
+      <c r="G299" s="228"/>
+      <c r="H299" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="60"/>
@@ -13209,14 +13227,14 @@
       <c r="D300" s="177">
         <v>5</v>
       </c>
-      <c r="E300" s="116" t="s">
+      <c r="E300" s="227" t="s">
         <v>1992</v>
       </c>
-      <c r="F300" s="116" t="s">
+      <c r="F300" s="227" t="s">
         <v>1993</v>
       </c>
-      <c r="G300" s="227"/>
-      <c r="H300" s="116"/>
+      <c r="G300" s="228"/>
+      <c r="H300" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="60"/>
@@ -13225,14 +13243,14 @@
       <c r="D301" s="177">
         <v>6</v>
       </c>
-      <c r="E301" s="116" t="s">
+      <c r="E301" s="227" t="s">
         <v>1990</v>
       </c>
-      <c r="F301" s="116" t="s">
+      <c r="F301" s="227" t="s">
         <v>1991</v>
       </c>
-      <c r="G301" s="227"/>
-      <c r="H301" s="116"/>
+      <c r="G301" s="228"/>
+      <c r="H301" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="60"/>
@@ -13241,47 +13259,47 @@
       <c r="D302" s="177">
         <v>7</v>
       </c>
-      <c r="E302" s="116" t="s">
+      <c r="E302" s="227" t="s">
         <v>1994</v>
       </c>
-      <c r="F302" s="116" t="s">
+      <c r="F302" s="227" t="s">
         <v>1995</v>
       </c>
-      <c r="G302" s="227"/>
-      <c r="H302" s="116"/>
+      <c r="G302" s="228"/>
+      <c r="H302" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A303" s="60"/>
       <c r="B303" s="60"/>
       <c r="C303" s="60"/>
-      <c r="D303" s="232"/>
+      <c r="D303" s="234"/>
       <c r="E303" s="221"/>
       <c r="F303" s="221"/>
-      <c r="G303" s="232"/>
+      <c r="G303" s="234"/>
       <c r="H303" s="221"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A304" s="60"/>
       <c r="B304" s="60"/>
       <c r="C304" s="60"/>
-      <c r="D304" s="232"/>
+      <c r="D304" s="234"/>
       <c r="E304" s="221"/>
       <c r="F304" s="221"/>
-      <c r="G304" s="232"/>
+      <c r="G304" s="234"/>
       <c r="H304" s="221"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="116"/>
+      <c r="A305" s="227"/>
       <c r="B305" s="221"/>
       <c r="C305" s="221"/>
-      <c r="D305" s="227"/>
-      <c r="E305" s="116"/>
-      <c r="F305" s="116"/>
-      <c r="G305" s="227"/>
-      <c r="H305" s="116"/>
+      <c r="D305" s="228"/>
+      <c r="E305" s="227"/>
+      <c r="F305" s="227"/>
+      <c r="G305" s="228"/>
+      <c r="H305" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="144.75">
-      <c r="A306" s="228" t="s">
+      <c r="A306" s="229" t="s">
         <v>1996</v>
       </c>
       <c r="B306" s="174" t="s">
@@ -13293,14 +13311,14 @@
       <c r="D306" s="177">
         <v>1</v>
       </c>
-      <c r="E306" s="116" t="s">
+      <c r="E306" s="227" t="s">
         <v>1511</v>
       </c>
-      <c r="F306" s="116" t="s">
+      <c r="F306" s="227" t="s">
         <v>1512</v>
       </c>
-      <c r="G306" s="227"/>
-      <c r="H306" s="116"/>
+      <c r="G306" s="228"/>
+      <c r="H306" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="125"/>
@@ -13309,14 +13327,14 @@
       <c r="D307" s="177">
         <v>2</v>
       </c>
-      <c r="E307" s="116" t="s">
+      <c r="E307" s="227" t="s">
         <v>1955</v>
       </c>
-      <c r="F307" s="116" t="s">
+      <c r="F307" s="227" t="s">
         <v>1956</v>
       </c>
-      <c r="G307" s="227"/>
-      <c r="H307" s="116"/>
+      <c r="G307" s="228"/>
+      <c r="H307" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="125"/>
@@ -13325,14 +13343,14 @@
       <c r="D308" s="177">
         <v>3</v>
       </c>
-      <c r="E308" s="116" t="s">
+      <c r="E308" s="227" t="s">
         <v>1999</v>
       </c>
-      <c r="F308" s="116" t="s">
+      <c r="F308" s="227" t="s">
         <v>2000</v>
       </c>
-      <c r="G308" s="227"/>
-      <c r="H308" s="116"/>
+      <c r="G308" s="228"/>
+      <c r="H308" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="125"/>
@@ -13341,14 +13359,14 @@
       <c r="D309" s="177">
         <v>4</v>
       </c>
-      <c r="E309" s="116" t="s">
+      <c r="E309" s="227" t="s">
         <v>2001</v>
       </c>
-      <c r="F309" s="116" t="s">
+      <c r="F309" s="227" t="s">
         <v>2002</v>
       </c>
-      <c r="G309" s="227"/>
-      <c r="H309" s="116"/>
+      <c r="G309" s="228"/>
+      <c r="H309" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="125"/>
@@ -13357,14 +13375,14 @@
       <c r="D310" s="177">
         <v>5</v>
       </c>
-      <c r="E310" s="116" t="s">
+      <c r="E310" s="227" t="s">
         <v>2003</v>
       </c>
-      <c r="F310" s="116" t="s">
+      <c r="F310" s="227" t="s">
         <v>2002</v>
       </c>
-      <c r="G310" s="227"/>
-      <c r="H310" s="116"/>
+      <c r="G310" s="228"/>
+      <c r="H310" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="125"/>
@@ -13373,14 +13391,14 @@
       <c r="D311" s="177">
         <v>6</v>
       </c>
-      <c r="E311" s="116" t="s">
+      <c r="E311" s="227" t="s">
         <v>2004</v>
       </c>
-      <c r="F311" s="116" t="s">
+      <c r="F311" s="227" t="s">
         <v>2005</v>
       </c>
-      <c r="G311" s="227"/>
-      <c r="H311" s="116"/>
+      <c r="G311" s="228"/>
+      <c r="H311" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="125"/>
@@ -13389,14 +13407,14 @@
       <c r="D312" s="177">
         <v>7</v>
       </c>
-      <c r="E312" s="116" t="s">
+      <c r="E312" s="227" t="s">
         <v>2006</v>
       </c>
-      <c r="F312" s="116" t="s">
+      <c r="F312" s="227" t="s">
         <v>2007</v>
       </c>
-      <c r="G312" s="227"/>
-      <c r="H312" s="116"/>
+      <c r="G312" s="228"/>
+      <c r="H312" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="125"/>
@@ -13405,14 +13423,14 @@
       <c r="D313" s="177">
         <v>8</v>
       </c>
-      <c r="E313" s="116" t="s">
+      <c r="E313" s="227" t="s">
         <v>2008</v>
       </c>
-      <c r="F313" s="116" t="s">
+      <c r="F313" s="227" t="s">
         <v>2007</v>
       </c>
-      <c r="G313" s="227"/>
-      <c r="H313" s="116"/>
+      <c r="G313" s="228"/>
+      <c r="H313" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="125"/>
@@ -13421,14 +13439,14 @@
       <c r="D314" s="177">
         <v>9</v>
       </c>
-      <c r="E314" s="116" t="s">
+      <c r="E314" s="227" t="s">
         <v>2009</v>
       </c>
-      <c r="F314" s="116" t="s">
+      <c r="F314" s="227" t="s">
         <v>2010</v>
       </c>
-      <c r="G314" s="227"/>
-      <c r="H314" s="116"/>
+      <c r="G314" s="228"/>
+      <c r="H314" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="125"/>
@@ -13437,14 +13455,14 @@
       <c r="D315" s="177">
         <v>10</v>
       </c>
-      <c r="E315" s="116" t="s">
+      <c r="E315" s="227" t="s">
         <v>2011</v>
       </c>
-      <c r="F315" s="116" t="s">
+      <c r="F315" s="227" t="s">
         <v>2007</v>
       </c>
-      <c r="G315" s="227"/>
-      <c r="H315" s="116"/>
+      <c r="G315" s="228"/>
+      <c r="H315" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="125"/>
@@ -13453,24 +13471,24 @@
       <c r="D316" s="177">
         <v>11</v>
       </c>
-      <c r="E316" s="116" t="s">
+      <c r="E316" s="227" t="s">
         <v>2012</v>
       </c>
-      <c r="F316" s="116" t="s">
+      <c r="F316" s="227" t="s">
         <v>2007</v>
       </c>
-      <c r="G316" s="227"/>
-      <c r="H316" s="116"/>
+      <c r="G316" s="228"/>
+      <c r="H316" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="116"/>
+      <c r="A317" s="227"/>
       <c r="B317" s="221"/>
       <c r="C317" s="221"/>
-      <c r="D317" s="227"/>
-      <c r="E317" s="116"/>
-      <c r="F317" s="116"/>
-      <c r="G317" s="227"/>
-      <c r="H317" s="116"/>
+      <c r="D317" s="228"/>
+      <c r="E317" s="227"/>
+      <c r="F317" s="227"/>
+      <c r="G317" s="228"/>
+      <c r="H317" s="227"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="13.5" customFormat="1" s="1">
       <c r="A318" s="221" t="s">
@@ -13482,10 +13500,10 @@
       <c r="C318" s="155" t="s">
         <v>2015</v>
       </c>
-      <c r="D318" s="232"/>
+      <c r="D318" s="234"/>
       <c r="E318" s="221"/>
       <c r="F318" s="221"/>
-      <c r="G318" s="232"/>
+      <c r="G318" s="234"/>
       <c r="H318" s="221"/>
     </row>
   </sheetData>
@@ -25754,7 +25772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -25778,7 +25796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
@@ -25794,7 +25812,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
@@ -25810,7 +25828,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33.75">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -25828,7 +25846,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -25846,7 +25864,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -25862,7 +25880,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -25880,7 +25898,7 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33.75">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -25898,7 +25916,7 @@
       </c>
       <c r="H9" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -25916,7 +25934,7 @@
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="47.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -25932,7 +25950,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -25948,7 +25966,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -25964,7 +25982,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="34" t="s">
         <v>40</v>
       </c>
@@ -25988,7 +26006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -26004,7 +26022,7 @@
       <c r="G15" s="40"/>
       <c r="H15" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -26020,7 +26038,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -26036,7 +26054,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -26052,7 +26070,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -26068,7 +26086,7 @@
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -26084,7 +26102,7 @@
       <c r="G20" s="42"/>
       <c r="H20" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -26100,7 +26118,7 @@
       <c r="G21" s="40"/>
       <c r="H21" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -26116,7 +26134,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -26132,7 +26150,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -26148,7 +26166,7 @@
       <c r="G24" s="42"/>
       <c r="H24" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -26164,7 +26182,7 @@
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -26180,7 +26198,7 @@
       <c r="G26" s="42"/>
       <c r="H26" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -26196,7 +26214,7 @@
       <c r="G27" s="40"/>
       <c r="H27" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -26212,7 +26230,7 @@
       <c r="G28" s="42"/>
       <c r="H28" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -26228,7 +26246,7 @@
       <c r="G29" s="40"/>
       <c r="H29" s="41"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="38"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>

--- a/Plan de Pruebas Demo QA.xlsx
+++ b/Plan de Pruebas Demo QA.xlsx
@@ -29357,7 +29357,7 @@
       <c r="G215" s="63"/>
       <c r="H215" s="78"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="33">
       <c r="A216" s="105"/>
       <c r="B216" s="105"/>
       <c r="C216" s="14"/>
@@ -29373,7 +29373,7 @@
       <c r="G216" s="63"/>
       <c r="H216" s="78"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="33">
       <c r="A217" s="105"/>
       <c r="B217" s="105"/>
       <c r="C217" s="14"/>
@@ -29389,7 +29389,7 @@
       <c r="G217" s="63"/>
       <c r="H217" s="78"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="65.25">
       <c r="A218" s="105"/>
       <c r="B218" s="105"/>
       <c r="C218" s="14"/>

--- a/Plan de Pruebas Demo QA.xlsx
+++ b/Plan de Pruebas Demo QA.xlsx
@@ -6081,7 +6081,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6126,12 +6126,6 @@
       <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7309,7 +7303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="230">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7971,9 +7965,6 @@
     <xf xfId="0" numFmtId="0" borderId="91" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="47" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -8309,16 +8300,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="230" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="230" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="230" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="229" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="229" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="229" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -8372,10 +8363,10 @@
     <col min="1" max="1" style="141" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="212" width="31.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="212" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="229" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="228" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="141" width="55.14785714285715" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="141" width="72.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="229" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="228" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="141" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -8418,14 +8409,14 @@
       <c r="D2" s="155">
         <v>1</v>
       </c>
-      <c r="E2" s="221" t="s">
+      <c r="E2" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F2" s="221" t="s">
+      <c r="F2" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G2" s="222"/>
-      <c r="H2" s="223" t="s">
+      <c r="G2" s="221"/>
+      <c r="H2" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8436,13 +8427,13 @@
       <c r="D3" s="155">
         <v>2</v>
       </c>
-      <c r="E3" s="221" t="s">
+      <c r="E3" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="116" t="s">
         <v>1514</v>
       </c>
-      <c r="G3" s="222"/>
+      <c r="G3" s="221"/>
       <c r="H3" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -8452,13 +8443,13 @@
       <c r="D4" s="155">
         <v>3</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="116" t="s">
         <v>1515</v>
       </c>
-      <c r="F4" s="221" t="s">
+      <c r="F4" s="116" t="s">
         <v>1516</v>
       </c>
-      <c r="G4" s="222"/>
+      <c r="G4" s="221"/>
       <c r="H4" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -8468,13 +8459,13 @@
       <c r="D5" s="155">
         <v>4</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="116" t="s">
         <v>1517</v>
       </c>
-      <c r="F5" s="221" t="s">
+      <c r="F5" s="116" t="s">
         <v>1518</v>
       </c>
-      <c r="G5" s="224" t="s">
+      <c r="G5" s="223" t="s">
         <v>1519</v>
       </c>
       <c r="H5" s="124"/>
@@ -8486,13 +8477,13 @@
       <c r="D6" s="155">
         <v>5</v>
       </c>
-      <c r="E6" s="221" t="s">
+      <c r="E6" s="116" t="s">
         <v>1520</v>
       </c>
-      <c r="F6" s="221" t="s">
+      <c r="F6" s="116" t="s">
         <v>1521</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="223" t="s">
         <v>1519</v>
       </c>
       <c r="H6" s="124"/>
@@ -8504,13 +8495,13 @@
       <c r="D7" s="155">
         <v>6</v>
       </c>
-      <c r="E7" s="221" t="s">
+      <c r="E7" s="116" t="s">
         <v>1522</v>
       </c>
-      <c r="F7" s="221" t="s">
+      <c r="F7" s="116" t="s">
         <v>1523</v>
       </c>
-      <c r="G7" s="222"/>
+      <c r="G7" s="221"/>
       <c r="H7" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -8520,13 +8511,13 @@
       <c r="D8" s="155">
         <v>7</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="116" t="s">
         <v>1524</v>
       </c>
-      <c r="F8" s="221" t="s">
+      <c r="F8" s="116" t="s">
         <v>1521</v>
       </c>
-      <c r="G8" s="224" t="s">
+      <c r="G8" s="223" t="s">
         <v>1525</v>
       </c>
       <c r="H8" s="124"/>
@@ -8538,13 +8529,13 @@
       <c r="D9" s="155">
         <v>8</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="116" t="s">
         <v>1522</v>
       </c>
-      <c r="F9" s="221" t="s">
+      <c r="F9" s="116" t="s">
         <v>1523</v>
       </c>
-      <c r="G9" s="222"/>
+      <c r="G9" s="221"/>
       <c r="H9" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -8554,13 +8545,13 @@
       <c r="D10" s="155">
         <v>9</v>
       </c>
-      <c r="E10" s="221" t="s">
+      <c r="E10" s="116" t="s">
         <v>1526</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="116" t="s">
         <v>1527</v>
       </c>
-      <c r="G10" s="225" t="s">
+      <c r="G10" s="224" t="s">
         <v>1528</v>
       </c>
       <c r="H10" s="124"/>
@@ -8572,13 +8563,13 @@
       <c r="D11" s="155">
         <v>10</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="116" t="s">
         <v>1529</v>
       </c>
-      <c r="F11" s="221" t="s">
+      <c r="F11" s="116" t="s">
         <v>1530</v>
       </c>
-      <c r="G11" s="224" t="s">
+      <c r="G11" s="223" t="s">
         <v>1531</v>
       </c>
       <c r="H11" s="124"/>
@@ -8590,13 +8581,13 @@
       <c r="D12" s="155">
         <v>11</v>
       </c>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="116" t="s">
         <v>1532</v>
       </c>
-      <c r="F12" s="221" t="s">
+      <c r="F12" s="116" t="s">
         <v>1533</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="223" t="s">
         <v>1534</v>
       </c>
       <c r="H12" s="124"/>
@@ -8608,13 +8599,13 @@
       <c r="D13" s="155">
         <v>12</v>
       </c>
-      <c r="E13" s="221" t="s">
+      <c r="E13" s="116" t="s">
         <v>1522</v>
       </c>
-      <c r="F13" s="221" t="s">
+      <c r="F13" s="116" t="s">
         <v>1535</v>
       </c>
-      <c r="G13" s="222"/>
+      <c r="G13" s="221"/>
       <c r="H13" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -8624,13 +8615,13 @@
       <c r="D14" s="155">
         <v>13</v>
       </c>
-      <c r="E14" s="221" t="s">
+      <c r="E14" s="116" t="s">
         <v>1536</v>
       </c>
-      <c r="F14" s="221" t="s">
+      <c r="F14" s="116" t="s">
         <v>1537</v>
       </c>
-      <c r="G14" s="222"/>
+      <c r="G14" s="221"/>
       <c r="H14" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -8640,13 +8631,13 @@
       <c r="D15" s="155">
         <v>14</v>
       </c>
-      <c r="E15" s="221" t="s">
+      <c r="E15" s="116" t="s">
         <v>1538</v>
       </c>
-      <c r="F15" s="221" t="s">
+      <c r="F15" s="116" t="s">
         <v>1539</v>
       </c>
-      <c r="G15" s="222"/>
+      <c r="G15" s="221"/>
       <c r="H15" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -8654,9 +8645,9 @@
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="155"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="222"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="221"/>
       <c r="H16" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -8664,9 +8655,9 @@
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="155"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="222"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="221"/>
       <c r="H17" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -8674,9 +8665,9 @@
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="155"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="222"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="221"/>
       <c r="H18" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -8684,13 +8675,13 @@
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="155"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="222"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="221"/>
       <c r="H19" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="222" t="s">
         <v>1540</v>
       </c>
       <c r="B20" s="171" t="s">
@@ -8702,14 +8693,14 @@
       <c r="D20" s="155">
         <v>1</v>
       </c>
-      <c r="E20" s="221" t="s">
+      <c r="E20" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F20" s="221" t="s">
+      <c r="F20" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G20" s="222"/>
-      <c r="H20" s="223" t="s">
+      <c r="G20" s="221"/>
+      <c r="H20" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8720,13 +8711,13 @@
       <c r="D21" s="155">
         <v>2</v>
       </c>
-      <c r="E21" s="221" t="s">
+      <c r="E21" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F21" s="221" t="s">
+      <c r="F21" s="116" t="s">
         <v>1514</v>
       </c>
-      <c r="G21" s="222"/>
+      <c r="G21" s="221"/>
       <c r="H21" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -8736,13 +8727,13 @@
       <c r="D22" s="155">
         <v>3</v>
       </c>
-      <c r="E22" s="221" t="s">
+      <c r="E22" s="116" t="s">
         <v>1543</v>
       </c>
-      <c r="F22" s="221" t="s">
+      <c r="F22" s="116" t="s">
         <v>1544</v>
       </c>
-      <c r="G22" s="222"/>
+      <c r="G22" s="221"/>
       <c r="H22" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -8752,13 +8743,13 @@
       <c r="D23" s="155">
         <v>4</v>
       </c>
-      <c r="E23" s="221" t="s">
+      <c r="E23" s="116" t="s">
         <v>1545</v>
       </c>
-      <c r="F23" s="221" t="s">
+      <c r="F23" s="116" t="s">
         <v>1546</v>
       </c>
-      <c r="G23" s="222"/>
+      <c r="G23" s="221"/>
       <c r="H23" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -8768,13 +8759,13 @@
       <c r="D24" s="155">
         <v>5</v>
       </c>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="116" t="s">
         <v>1547</v>
       </c>
-      <c r="F24" s="221" t="s">
+      <c r="F24" s="116" t="s">
         <v>1548</v>
       </c>
-      <c r="G24" s="222"/>
+      <c r="G24" s="221"/>
       <c r="H24" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -8784,13 +8775,13 @@
       <c r="D25" s="155">
         <v>6</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="116" t="s">
         <v>1549</v>
       </c>
-      <c r="F25" s="221" t="s">
+      <c r="F25" s="116" t="s">
         <v>1550</v>
       </c>
-      <c r="G25" s="222"/>
+      <c r="G25" s="221"/>
       <c r="H25" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -8800,13 +8791,13 @@
       <c r="D26" s="155">
         <v>7</v>
       </c>
-      <c r="E26" s="221" t="s">
+      <c r="E26" s="116" t="s">
         <v>1551</v>
       </c>
-      <c r="F26" s="221" t="s">
+      <c r="F26" s="116" t="s">
         <v>1552</v>
       </c>
-      <c r="G26" s="222"/>
+      <c r="G26" s="221"/>
       <c r="H26" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -8816,13 +8807,13 @@
       <c r="D27" s="155">
         <v>8</v>
       </c>
-      <c r="E27" s="221" t="s">
+      <c r="E27" s="116" t="s">
         <v>1553</v>
       </c>
-      <c r="F27" s="221" t="s">
+      <c r="F27" s="116" t="s">
         <v>1554</v>
       </c>
-      <c r="G27" s="222"/>
+      <c r="G27" s="221"/>
       <c r="H27" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -8832,13 +8823,13 @@
       <c r="D28" s="155">
         <v>9</v>
       </c>
-      <c r="E28" s="221" t="s">
+      <c r="E28" s="116" t="s">
         <v>1555</v>
       </c>
-      <c r="F28" s="221" t="s">
+      <c r="F28" s="116" t="s">
         <v>1556</v>
       </c>
-      <c r="G28" s="222"/>
+      <c r="G28" s="221"/>
       <c r="H28" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -8848,13 +8839,13 @@
       <c r="D29" s="155">
         <v>10</v>
       </c>
-      <c r="E29" s="221" t="s">
+      <c r="E29" s="116" t="s">
         <v>1557</v>
       </c>
-      <c r="F29" s="221" t="s">
+      <c r="F29" s="116" t="s">
         <v>1558</v>
       </c>
-      <c r="G29" s="222"/>
+      <c r="G29" s="221"/>
       <c r="H29" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -8864,13 +8855,13 @@
       <c r="D30" s="155">
         <v>11</v>
       </c>
-      <c r="E30" s="221" t="s">
+      <c r="E30" s="116" t="s">
         <v>1559</v>
       </c>
-      <c r="F30" s="221" t="s">
+      <c r="F30" s="116" t="s">
         <v>1560</v>
       </c>
-      <c r="G30" s="222"/>
+      <c r="G30" s="221"/>
       <c r="H30" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -8880,13 +8871,13 @@
       <c r="D31" s="155">
         <v>12</v>
       </c>
-      <c r="E31" s="221" t="s">
+      <c r="E31" s="116" t="s">
         <v>1561</v>
       </c>
-      <c r="F31" s="221" t="s">
+      <c r="F31" s="116" t="s">
         <v>1562</v>
       </c>
-      <c r="G31" s="222"/>
+      <c r="G31" s="221"/>
       <c r="H31" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -8896,13 +8887,13 @@
       <c r="D32" s="155">
         <v>13</v>
       </c>
-      <c r="E32" s="221" t="s">
+      <c r="E32" s="116" t="s">
         <v>1563</v>
       </c>
-      <c r="F32" s="221" t="s">
+      <c r="F32" s="116" t="s">
         <v>1564</v>
       </c>
-      <c r="G32" s="222"/>
+      <c r="G32" s="221"/>
       <c r="H32" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -8912,13 +8903,13 @@
       <c r="D33" s="155">
         <v>14</v>
       </c>
-      <c r="E33" s="221" t="s">
+      <c r="E33" s="116" t="s">
         <v>1565</v>
       </c>
-      <c r="F33" s="221" t="s">
+      <c r="F33" s="116" t="s">
         <v>1566</v>
       </c>
-      <c r="G33" s="222"/>
+      <c r="G33" s="221"/>
       <c r="H33" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -8928,13 +8919,13 @@
       <c r="D34" s="155">
         <v>15</v>
       </c>
-      <c r="E34" s="221" t="s">
+      <c r="E34" s="116" t="s">
         <v>1567</v>
       </c>
-      <c r="F34" s="221" t="s">
+      <c r="F34" s="116" t="s">
         <v>1568</v>
       </c>
-      <c r="G34" s="222"/>
+      <c r="G34" s="221"/>
       <c r="H34" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -8944,13 +8935,13 @@
       <c r="D35" s="155">
         <v>16</v>
       </c>
-      <c r="E35" s="221" t="s">
+      <c r="E35" s="116" t="s">
         <v>1569</v>
       </c>
-      <c r="F35" s="221" t="s">
+      <c r="F35" s="116" t="s">
         <v>1570</v>
       </c>
-      <c r="G35" s="222"/>
+      <c r="G35" s="221"/>
       <c r="H35" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -8960,13 +8951,13 @@
       <c r="D36" s="155">
         <v>17</v>
       </c>
-      <c r="E36" s="221" t="s">
+      <c r="E36" s="116" t="s">
         <v>1571</v>
       </c>
-      <c r="F36" s="221" t="s">
+      <c r="F36" s="116" t="s">
         <v>1572</v>
       </c>
-      <c r="G36" s="222"/>
+      <c r="G36" s="221"/>
       <c r="H36" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -8976,13 +8967,13 @@
       <c r="D37" s="155">
         <v>18</v>
       </c>
-      <c r="E37" s="221" t="s">
+      <c r="E37" s="116" t="s">
         <v>1573</v>
       </c>
-      <c r="F37" s="221" t="s">
+      <c r="F37" s="116" t="s">
         <v>1574</v>
       </c>
-      <c r="G37" s="222"/>
+      <c r="G37" s="221"/>
       <c r="H37" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -8992,13 +8983,13 @@
       <c r="D38" s="155">
         <v>19</v>
       </c>
-      <c r="E38" s="221" t="s">
+      <c r="E38" s="116" t="s">
         <v>1575</v>
       </c>
-      <c r="F38" s="221" t="s">
+      <c r="F38" s="116" t="s">
         <v>1576</v>
       </c>
-      <c r="G38" s="222"/>
+      <c r="G38" s="221"/>
       <c r="H38" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -9008,13 +8999,13 @@
       <c r="D39" s="155">
         <v>20</v>
       </c>
-      <c r="E39" s="221" t="s">
+      <c r="E39" s="116" t="s">
         <v>1577</v>
       </c>
-      <c r="F39" s="221" t="s">
+      <c r="F39" s="116" t="s">
         <v>1578</v>
       </c>
-      <c r="G39" s="222"/>
+      <c r="G39" s="221"/>
       <c r="H39" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -9024,13 +9015,13 @@
       <c r="D40" s="155">
         <v>21</v>
       </c>
-      <c r="E40" s="221" t="s">
+      <c r="E40" s="116" t="s">
         <v>1579</v>
       </c>
-      <c r="F40" s="221" t="s">
+      <c r="F40" s="116" t="s">
         <v>1580</v>
       </c>
-      <c r="G40" s="222"/>
+      <c r="G40" s="221"/>
       <c r="H40" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -9040,13 +9031,13 @@
       <c r="D41" s="155">
         <v>22</v>
       </c>
-      <c r="E41" s="221" t="s">
+      <c r="E41" s="116" t="s">
         <v>1581</v>
       </c>
-      <c r="F41" s="221" t="s">
+      <c r="F41" s="116" t="s">
         <v>1582</v>
       </c>
-      <c r="G41" s="222"/>
+      <c r="G41" s="221"/>
       <c r="H41" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -9056,13 +9047,13 @@
       <c r="D42" s="155">
         <v>23</v>
       </c>
-      <c r="E42" s="221" t="s">
+      <c r="E42" s="116" t="s">
         <v>1583</v>
       </c>
-      <c r="F42" s="221" t="s">
+      <c r="F42" s="116" t="s">
         <v>1584</v>
       </c>
-      <c r="G42" s="222"/>
+      <c r="G42" s="221"/>
       <c r="H42" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -9072,13 +9063,13 @@
       <c r="D43" s="155">
         <v>24</v>
       </c>
-      <c r="E43" s="221" t="s">
+      <c r="E43" s="116" t="s">
         <v>1585</v>
       </c>
-      <c r="F43" s="221" t="s">
+      <c r="F43" s="116" t="s">
         <v>1586</v>
       </c>
-      <c r="G43" s="222"/>
+      <c r="G43" s="221"/>
       <c r="H43" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -9088,13 +9079,13 @@
       <c r="D44" s="155">
         <v>25</v>
       </c>
-      <c r="E44" s="221" t="s">
+      <c r="E44" s="116" t="s">
         <v>1587</v>
       </c>
-      <c r="F44" s="221" t="s">
+      <c r="F44" s="116" t="s">
         <v>1588</v>
       </c>
-      <c r="G44" s="222"/>
+      <c r="G44" s="221"/>
       <c r="H44" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -9104,13 +9095,13 @@
       <c r="D45" s="155">
         <v>26</v>
       </c>
-      <c r="E45" s="221" t="s">
+      <c r="E45" s="116" t="s">
         <v>1589</v>
       </c>
-      <c r="F45" s="221" t="s">
+      <c r="F45" s="116" t="s">
         <v>1590</v>
       </c>
-      <c r="G45" s="222"/>
+      <c r="G45" s="221"/>
       <c r="H45" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -9120,13 +9111,13 @@
       <c r="D46" s="155">
         <v>27</v>
       </c>
-      <c r="E46" s="221" t="s">
+      <c r="E46" s="116" t="s">
         <v>1591</v>
       </c>
-      <c r="F46" s="221" t="s">
+      <c r="F46" s="116" t="s">
         <v>1592</v>
       </c>
-      <c r="G46" s="222"/>
+      <c r="G46" s="221"/>
       <c r="H46" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -9136,13 +9127,13 @@
       <c r="D47" s="155">
         <v>28</v>
       </c>
-      <c r="E47" s="221" t="s">
+      <c r="E47" s="116" t="s">
         <v>1593</v>
       </c>
-      <c r="F47" s="221" t="s">
+      <c r="F47" s="116" t="s">
         <v>1594</v>
       </c>
-      <c r="G47" s="222"/>
+      <c r="G47" s="221"/>
       <c r="H47" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -9152,13 +9143,13 @@
       <c r="D48" s="155">
         <v>29</v>
       </c>
-      <c r="E48" s="221" t="s">
+      <c r="E48" s="116" t="s">
         <v>1595</v>
       </c>
-      <c r="F48" s="221" t="s">
+      <c r="F48" s="116" t="s">
         <v>1596</v>
       </c>
-      <c r="G48" s="222"/>
+      <c r="G48" s="221"/>
       <c r="H48" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -9168,13 +9159,13 @@
       <c r="D49" s="155">
         <v>30</v>
       </c>
-      <c r="E49" s="221" t="s">
+      <c r="E49" s="116" t="s">
         <v>1597</v>
       </c>
-      <c r="F49" s="221" t="s">
+      <c r="F49" s="116" t="s">
         <v>1598</v>
       </c>
-      <c r="G49" s="222"/>
+      <c r="G49" s="221"/>
       <c r="H49" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -9184,13 +9175,13 @@
       <c r="D50" s="155">
         <v>31</v>
       </c>
-      <c r="E50" s="221" t="s">
+      <c r="E50" s="116" t="s">
         <v>1599</v>
       </c>
       <c r="F50" s="156" t="s">
         <v>1600</v>
       </c>
-      <c r="G50" s="222"/>
+      <c r="G50" s="221"/>
       <c r="H50" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -9200,13 +9191,13 @@
       <c r="D51" s="155">
         <v>32</v>
       </c>
-      <c r="E51" s="221" t="s">
+      <c r="E51" s="116" t="s">
         <v>1601</v>
       </c>
-      <c r="F51" s="221" t="s">
+      <c r="F51" s="116" t="s">
         <v>1602</v>
       </c>
-      <c r="G51" s="222"/>
+      <c r="G51" s="221"/>
       <c r="H51" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -9216,13 +9207,13 @@
       <c r="D52" s="155">
         <v>33</v>
       </c>
-      <c r="E52" s="221" t="s">
+      <c r="E52" s="116" t="s">
         <v>1603</v>
       </c>
-      <c r="F52" s="221" t="s">
+      <c r="F52" s="116" t="s">
         <v>1604</v>
       </c>
-      <c r="G52" s="222"/>
+      <c r="G52" s="221"/>
       <c r="H52" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -9232,13 +9223,13 @@
       <c r="D53" s="155">
         <v>34</v>
       </c>
-      <c r="E53" s="221" t="s">
+      <c r="E53" s="116" t="s">
         <v>1605</v>
       </c>
       <c r="F53" s="156" t="s">
         <v>1606</v>
       </c>
-      <c r="G53" s="222"/>
+      <c r="G53" s="221"/>
       <c r="H53" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -9248,13 +9239,13 @@
       <c r="D54" s="155">
         <v>35</v>
       </c>
-      <c r="E54" s="221" t="s">
+      <c r="E54" s="116" t="s">
         <v>1607</v>
       </c>
-      <c r="F54" s="221" t="s">
+      <c r="F54" s="116" t="s">
         <v>1608</v>
       </c>
-      <c r="G54" s="222"/>
+      <c r="G54" s="221"/>
       <c r="H54" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -9264,13 +9255,13 @@
       <c r="D55" s="155">
         <v>36</v>
       </c>
-      <c r="E55" s="221" t="s">
+      <c r="E55" s="116" t="s">
         <v>1609</v>
       </c>
-      <c r="F55" s="221" t="s">
+      <c r="F55" s="116" t="s">
         <v>1610</v>
       </c>
-      <c r="G55" s="222"/>
+      <c r="G55" s="221"/>
       <c r="H55" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -9280,13 +9271,13 @@
       <c r="D56" s="155">
         <v>37</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="116" t="s">
         <v>1611</v>
       </c>
-      <c r="F56" s="221" t="s">
+      <c r="F56" s="116" t="s">
         <v>1612</v>
       </c>
-      <c r="G56" s="222"/>
+      <c r="G56" s="221"/>
       <c r="H56" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -9296,13 +9287,13 @@
       <c r="D57" s="155">
         <v>38</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="116" t="s">
         <v>1613</v>
       </c>
       <c r="F57" s="156" t="s">
         <v>1614</v>
       </c>
-      <c r="G57" s="222"/>
+      <c r="G57" s="221"/>
       <c r="H57" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -9312,13 +9303,13 @@
       <c r="D58" s="155">
         <v>39</v>
       </c>
-      <c r="E58" s="221" t="s">
+      <c r="E58" s="116" t="s">
         <v>1615</v>
       </c>
-      <c r="F58" s="221" t="s">
+      <c r="F58" s="116" t="s">
         <v>1616</v>
       </c>
-      <c r="G58" s="222"/>
+      <c r="G58" s="221"/>
       <c r="H58" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -9328,13 +9319,13 @@
       <c r="D59" s="155">
         <v>40</v>
       </c>
-      <c r="E59" s="221" t="s">
+      <c r="E59" s="116" t="s">
         <v>1617</v>
       </c>
-      <c r="F59" s="221" t="s">
+      <c r="F59" s="116" t="s">
         <v>1618</v>
       </c>
-      <c r="G59" s="222"/>
+      <c r="G59" s="221"/>
       <c r="H59" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -9344,13 +9335,13 @@
       <c r="D60" s="155">
         <v>41</v>
       </c>
-      <c r="E60" s="221" t="s">
+      <c r="E60" s="116" t="s">
         <v>1619</v>
       </c>
-      <c r="F60" s="221" t="s">
+      <c r="F60" s="116" t="s">
         <v>1620</v>
       </c>
-      <c r="G60" s="222"/>
+      <c r="G60" s="221"/>
       <c r="H60" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -9360,13 +9351,13 @@
       <c r="D61" s="155">
         <v>42</v>
       </c>
-      <c r="E61" s="221" t="s">
+      <c r="E61" s="116" t="s">
         <v>1621</v>
       </c>
       <c r="F61" s="156" t="s">
         <v>1622</v>
       </c>
-      <c r="G61" s="222"/>
+      <c r="G61" s="221"/>
       <c r="H61" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -9376,13 +9367,13 @@
       <c r="D62" s="155">
         <v>43</v>
       </c>
-      <c r="E62" s="221" t="s">
+      <c r="E62" s="116" t="s">
         <v>1623</v>
       </c>
-      <c r="F62" s="221" t="s">
+      <c r="F62" s="116" t="s">
         <v>1624</v>
       </c>
-      <c r="G62" s="222"/>
+      <c r="G62" s="221"/>
       <c r="H62" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -9390,9 +9381,9 @@
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
       <c r="D63" s="155"/>
-      <c r="E63" s="221"/>
-      <c r="F63" s="221"/>
-      <c r="G63" s="222"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="221"/>
       <c r="H63" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
@@ -9408,14 +9399,14 @@
       <c r="D64" s="155">
         <v>1</v>
       </c>
-      <c r="E64" s="221" t="s">
+      <c r="E64" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F64" s="221" t="s">
+      <c r="F64" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G64" s="222"/>
-      <c r="H64" s="223" t="s">
+      <c r="G64" s="221"/>
+      <c r="H64" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9426,13 +9417,13 @@
       <c r="D65" s="155">
         <v>2</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F65" s="221" t="s">
+      <c r="F65" s="116" t="s">
         <v>1514</v>
       </c>
-      <c r="G65" s="222"/>
+      <c r="G65" s="221"/>
       <c r="H65" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -9442,13 +9433,13 @@
       <c r="D66" s="155">
         <v>3</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="116" t="s">
         <v>1628</v>
       </c>
-      <c r="F66" s="221" t="s">
+      <c r="F66" s="116" t="s">
         <v>1629</v>
       </c>
-      <c r="G66" s="222"/>
+      <c r="G66" s="221"/>
       <c r="H66" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -9458,13 +9449,13 @@
       <c r="D67" s="155">
         <v>4</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="116" t="s">
         <v>1630</v>
       </c>
-      <c r="F67" s="221" t="s">
+      <c r="F67" s="116" t="s">
         <v>1631</v>
       </c>
-      <c r="G67" s="222"/>
+      <c r="G67" s="221"/>
       <c r="H67" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -9474,13 +9465,13 @@
       <c r="D68" s="155">
         <v>5</v>
       </c>
-      <c r="E68" s="221" t="s">
+      <c r="E68" s="116" t="s">
         <v>1632</v>
       </c>
-      <c r="F68" s="221" t="s">
+      <c r="F68" s="116" t="s">
         <v>1633</v>
       </c>
-      <c r="G68" s="222"/>
+      <c r="G68" s="221"/>
       <c r="H68" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -9490,13 +9481,13 @@
       <c r="D69" s="155">
         <v>6</v>
       </c>
-      <c r="E69" s="221" t="s">
+      <c r="E69" s="116" t="s">
         <v>1634</v>
       </c>
-      <c r="F69" s="221" t="s">
+      <c r="F69" s="116" t="s">
         <v>1635</v>
       </c>
-      <c r="G69" s="222"/>
+      <c r="G69" s="221"/>
       <c r="H69" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -9506,13 +9497,13 @@
       <c r="D70" s="155">
         <v>7</v>
       </c>
-      <c r="E70" s="221" t="s">
+      <c r="E70" s="116" t="s">
         <v>1632</v>
       </c>
-      <c r="F70" s="221" t="s">
+      <c r="F70" s="116" t="s">
         <v>1636</v>
       </c>
-      <c r="G70" s="222"/>
+      <c r="G70" s="221"/>
       <c r="H70" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
@@ -9522,13 +9513,13 @@
       <c r="D71" s="155">
         <v>8</v>
       </c>
-      <c r="E71" s="221" t="s">
+      <c r="E71" s="116" t="s">
         <v>1637</v>
       </c>
-      <c r="F71" s="221" t="s">
+      <c r="F71" s="116" t="s">
         <v>1638</v>
       </c>
-      <c r="G71" s="222"/>
+      <c r="G71" s="221"/>
       <c r="H71" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -9538,13 +9529,13 @@
       <c r="D72" s="155">
         <v>9</v>
       </c>
-      <c r="E72" s="221" t="s">
+      <c r="E72" s="116" t="s">
         <v>1639</v>
       </c>
-      <c r="F72" s="221" t="s">
+      <c r="F72" s="116" t="s">
         <v>1640</v>
       </c>
-      <c r="G72" s="222"/>
+      <c r="G72" s="221"/>
       <c r="H72" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -9554,13 +9545,13 @@
       <c r="D73" s="155">
         <v>10</v>
       </c>
-      <c r="E73" s="221" t="s">
+      <c r="E73" s="116" t="s">
         <v>1641</v>
       </c>
-      <c r="F73" s="221" t="s">
+      <c r="F73" s="116" t="s">
         <v>1642</v>
       </c>
-      <c r="G73" s="222"/>
+      <c r="G73" s="221"/>
       <c r="H73" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -9568,9 +9559,9 @@
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="155"/>
-      <c r="E74" s="221"/>
-      <c r="F74" s="221"/>
-      <c r="G74" s="222"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="221"/>
       <c r="H74" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -9578,9 +9569,9 @@
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="155"/>
-      <c r="E75" s="221"/>
-      <c r="F75" s="221"/>
-      <c r="G75" s="222"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="221"/>
       <c r="H75" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -9588,9 +9579,9 @@
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="155"/>
-      <c r="E76" s="221"/>
-      <c r="F76" s="221"/>
-      <c r="G76" s="222"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="221"/>
       <c r="H76" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -9598,9 +9589,9 @@
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="155"/>
-      <c r="E77" s="221"/>
-      <c r="F77" s="221"/>
-      <c r="G77" s="222"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="221"/>
       <c r="H77" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -9608,9 +9599,9 @@
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="155"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="221"/>
-      <c r="G78" s="222"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="221"/>
       <c r="H78" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -9618,20 +9609,20 @@
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="155"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="221"/>
-      <c r="G79" s="222"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="221"/>
       <c r="H79" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="221"/>
+      <c r="A80" s="116"/>
       <c r="B80" s="154"/>
       <c r="C80" s="154"/>
-      <c r="D80" s="222"/>
-      <c r="E80" s="221"/>
-      <c r="F80" s="221"/>
-      <c r="G80" s="222"/>
-      <c r="H80" s="221"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="221"/>
+      <c r="H80" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="361.5">
       <c r="A81" s="171" t="s">
@@ -9646,14 +9637,14 @@
       <c r="D81" s="155">
         <v>1</v>
       </c>
-      <c r="E81" s="221" t="s">
+      <c r="E81" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F81" s="221" t="s">
+      <c r="F81" s="116" t="s">
         <v>1512</v>
       </c>
       <c r="G81" s="155"/>
-      <c r="H81" s="223" t="s">
+      <c r="H81" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9664,10 +9655,10 @@
       <c r="D82" s="155">
         <v>2</v>
       </c>
-      <c r="E82" s="221" t="s">
+      <c r="E82" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F82" s="221" t="s">
+      <c r="F82" s="116" t="s">
         <v>1514</v>
       </c>
       <c r="G82" s="155"/>
@@ -9680,10 +9671,10 @@
       <c r="D83" s="155">
         <v>3</v>
       </c>
-      <c r="E83" s="221" t="s">
+      <c r="E83" s="116" t="s">
         <v>1646</v>
       </c>
-      <c r="F83" s="221" t="s">
+      <c r="F83" s="116" t="s">
         <v>1647</v>
       </c>
       <c r="G83" s="155"/>
@@ -9696,10 +9687,10 @@
       <c r="D84" s="155">
         <v>4</v>
       </c>
-      <c r="E84" s="221" t="s">
+      <c r="E84" s="116" t="s">
         <v>1648</v>
       </c>
-      <c r="F84" s="221" t="s">
+      <c r="F84" s="116" t="s">
         <v>1649</v>
       </c>
       <c r="G84" s="155"/>
@@ -9712,10 +9703,10 @@
       <c r="D85" s="155">
         <v>5</v>
       </c>
-      <c r="E85" s="221" t="s">
+      <c r="E85" s="116" t="s">
         <v>1650</v>
       </c>
-      <c r="F85" s="221"/>
+      <c r="F85" s="116"/>
       <c r="G85" s="155"/>
       <c r="H85" s="124"/>
     </row>
@@ -9726,10 +9717,10 @@
       <c r="D86" s="155">
         <v>6</v>
       </c>
-      <c r="E86" s="221" t="s">
+      <c r="E86" s="116" t="s">
         <v>1651</v>
       </c>
-      <c r="F86" s="221" t="s">
+      <c r="F86" s="116" t="s">
         <v>1651</v>
       </c>
       <c r="G86" s="155" t="s">
@@ -9744,10 +9735,10 @@
       <c r="D87" s="155">
         <v>7</v>
       </c>
-      <c r="E87" s="221" t="s">
+      <c r="E87" s="116" t="s">
         <v>1653</v>
       </c>
-      <c r="F87" s="221" t="s">
+      <c r="F87" s="116" t="s">
         <v>1654</v>
       </c>
       <c r="G87" s="155"/>
@@ -9760,10 +9751,10 @@
       <c r="D88" s="155">
         <v>8</v>
       </c>
-      <c r="E88" s="221" t="s">
+      <c r="E88" s="116" t="s">
         <v>1655</v>
       </c>
-      <c r="F88" s="221" t="s">
+      <c r="F88" s="116" t="s">
         <v>1655</v>
       </c>
       <c r="G88" s="155" t="s">
@@ -9778,10 +9769,10 @@
       <c r="D89" s="155">
         <v>9</v>
       </c>
-      <c r="E89" s="221" t="s">
+      <c r="E89" s="116" t="s">
         <v>1657</v>
       </c>
-      <c r="F89" s="221" t="s">
+      <c r="F89" s="116" t="s">
         <v>1658</v>
       </c>
       <c r="G89" s="155" t="s">
@@ -9796,10 +9787,10 @@
       <c r="D90" s="155">
         <v>10</v>
       </c>
-      <c r="E90" s="221" t="s">
+      <c r="E90" s="116" t="s">
         <v>1659</v>
       </c>
-      <c r="F90" s="221" t="s">
+      <c r="F90" s="116" t="s">
         <v>1660</v>
       </c>
       <c r="G90" s="155">
@@ -9814,10 +9805,10 @@
       <c r="D91" s="155">
         <v>11</v>
       </c>
-      <c r="E91" s="221" t="s">
+      <c r="E91" s="116" t="s">
         <v>1661</v>
       </c>
-      <c r="F91" s="221" t="s">
+      <c r="F91" s="116" t="s">
         <v>1662</v>
       </c>
       <c r="G91" s="155">
@@ -9832,10 +9823,10 @@
       <c r="D92" s="155">
         <v>12</v>
       </c>
-      <c r="E92" s="221" t="s">
+      <c r="E92" s="116" t="s">
         <v>1663</v>
       </c>
-      <c r="F92" s="221" t="s">
+      <c r="F92" s="116" t="s">
         <v>1664</v>
       </c>
       <c r="G92" s="155" t="s">
@@ -9850,10 +9841,10 @@
       <c r="D93" s="155">
         <v>13</v>
       </c>
-      <c r="E93" s="221" t="s">
+      <c r="E93" s="116" t="s">
         <v>1653</v>
       </c>
-      <c r="F93" s="221" t="s">
+      <c r="F93" s="116" t="s">
         <v>1666</v>
       </c>
       <c r="G93" s="155"/>
@@ -9866,13 +9857,13 @@
       <c r="D94" s="155">
         <v>14</v>
       </c>
-      <c r="E94" s="221" t="s">
+      <c r="E94" s="116" t="s">
         <v>1667</v>
       </c>
-      <c r="F94" s="221" t="s">
+      <c r="F94" s="116" t="s">
         <v>1668</v>
       </c>
-      <c r="G94" s="226" t="s">
+      <c r="G94" s="225" t="s">
         <v>1528</v>
       </c>
       <c r="H94" s="124"/>
@@ -9884,10 +9875,10 @@
       <c r="D95" s="155">
         <v>15</v>
       </c>
-      <c r="E95" s="221" t="s">
+      <c r="E95" s="116" t="s">
         <v>1669</v>
       </c>
-      <c r="F95" s="221" t="s">
+      <c r="F95" s="116" t="s">
         <v>1670</v>
       </c>
       <c r="G95" s="155" t="s">
@@ -9902,10 +9893,10 @@
       <c r="D96" s="155">
         <v>16</v>
       </c>
-      <c r="E96" s="221" t="s">
+      <c r="E96" s="116" t="s">
         <v>1672</v>
       </c>
-      <c r="F96" s="221" t="s">
+      <c r="F96" s="116" t="s">
         <v>1673</v>
       </c>
       <c r="G96" s="155" t="s">
@@ -9920,13 +9911,13 @@
       <c r="D97" s="155">
         <v>17</v>
       </c>
-      <c r="E97" s="221" t="s">
+      <c r="E97" s="116" t="s">
         <v>1675</v>
       </c>
-      <c r="F97" s="221" t="s">
+      <c r="F97" s="116" t="s">
         <v>1668</v>
       </c>
-      <c r="G97" s="226" t="s">
+      <c r="G97" s="225" t="s">
         <v>1676</v>
       </c>
       <c r="H97" s="124"/>
@@ -9938,10 +9929,10 @@
       <c r="D98" s="155">
         <v>18</v>
       </c>
-      <c r="E98" s="221" t="s">
+      <c r="E98" s="116" t="s">
         <v>1677</v>
       </c>
-      <c r="F98" s="221" t="s">
+      <c r="F98" s="116" t="s">
         <v>1678</v>
       </c>
       <c r="G98" s="155">
@@ -9956,10 +9947,10 @@
       <c r="D99" s="155">
         <v>19</v>
       </c>
-      <c r="E99" s="221" t="s">
+      <c r="E99" s="116" t="s">
         <v>1679</v>
       </c>
-      <c r="F99" s="221" t="s">
+      <c r="F99" s="116" t="s">
         <v>1680</v>
       </c>
       <c r="G99" s="155">
@@ -9974,10 +9965,10 @@
       <c r="D100" s="155">
         <v>20</v>
       </c>
-      <c r="E100" s="221" t="s">
+      <c r="E100" s="116" t="s">
         <v>1663</v>
       </c>
-      <c r="F100" s="221" t="s">
+      <c r="F100" s="116" t="s">
         <v>1681</v>
       </c>
       <c r="G100" s="155" t="s">
@@ -9992,10 +9983,10 @@
       <c r="D101" s="155">
         <v>21</v>
       </c>
-      <c r="E101" s="221" t="s">
+      <c r="E101" s="116" t="s">
         <v>1682</v>
       </c>
-      <c r="F101" s="221" t="s">
+      <c r="F101" s="116" t="s">
         <v>1666</v>
       </c>
       <c r="G101" s="155"/>
@@ -10008,10 +9999,10 @@
       <c r="D102" s="155">
         <v>22</v>
       </c>
-      <c r="E102" s="221" t="s">
+      <c r="E102" s="116" t="s">
         <v>1669</v>
       </c>
-      <c r="F102" s="221" t="s">
+      <c r="F102" s="116" t="s">
         <v>1670</v>
       </c>
       <c r="G102" s="155" t="s">
@@ -10026,10 +10017,10 @@
       <c r="D103" s="155">
         <v>23</v>
       </c>
-      <c r="E103" s="221" t="s">
+      <c r="E103" s="116" t="s">
         <v>1672</v>
       </c>
-      <c r="F103" s="221" t="s">
+      <c r="F103" s="116" t="s">
         <v>1673</v>
       </c>
       <c r="G103" s="155" t="s">
@@ -10044,13 +10035,13 @@
       <c r="D104" s="155">
         <v>24</v>
       </c>
-      <c r="E104" s="221" t="s">
+      <c r="E104" s="116" t="s">
         <v>1675</v>
       </c>
-      <c r="F104" s="221" t="s">
+      <c r="F104" s="116" t="s">
         <v>1668</v>
       </c>
-      <c r="G104" s="226" t="s">
+      <c r="G104" s="225" t="s">
         <v>1685</v>
       </c>
       <c r="H104" s="124"/>
@@ -10062,10 +10053,10 @@
       <c r="D105" s="155">
         <v>25</v>
       </c>
-      <c r="E105" s="221" t="s">
+      <c r="E105" s="116" t="s">
         <v>1677</v>
       </c>
-      <c r="F105" s="221" t="s">
+      <c r="F105" s="116" t="s">
         <v>1678</v>
       </c>
       <c r="G105" s="155">
@@ -10080,10 +10071,10 @@
       <c r="D106" s="155">
         <v>26</v>
       </c>
-      <c r="E106" s="221" t="s">
+      <c r="E106" s="116" t="s">
         <v>1679</v>
       </c>
-      <c r="F106" s="221" t="s">
+      <c r="F106" s="116" t="s">
         <v>1680</v>
       </c>
       <c r="G106" s="155">
@@ -10098,10 +10089,10 @@
       <c r="D107" s="155">
         <v>27</v>
       </c>
-      <c r="E107" s="221" t="s">
+      <c r="E107" s="116" t="s">
         <v>1663</v>
       </c>
-      <c r="F107" s="221" t="s">
+      <c r="F107" s="116" t="s">
         <v>1681</v>
       </c>
       <c r="G107" s="155" t="s">
@@ -10116,10 +10107,10 @@
       <c r="D108" s="155">
         <v>28</v>
       </c>
-      <c r="E108" s="221" t="s">
+      <c r="E108" s="116" t="s">
         <v>1682</v>
       </c>
-      <c r="F108" s="221" t="s">
+      <c r="F108" s="116" t="s">
         <v>1666</v>
       </c>
       <c r="G108" s="155"/>
@@ -10132,10 +10123,10 @@
       <c r="D109" s="155">
         <v>29</v>
       </c>
-      <c r="E109" s="221" t="s">
+      <c r="E109" s="116" t="s">
         <v>1686</v>
       </c>
-      <c r="F109" s="221" t="s">
+      <c r="F109" s="116" t="s">
         <v>1687</v>
       </c>
       <c r="G109" s="155" t="s">
@@ -10150,10 +10141,10 @@
       <c r="D110" s="155">
         <v>30</v>
       </c>
-      <c r="E110" s="221" t="s">
+      <c r="E110" s="116" t="s">
         <v>1688</v>
       </c>
-      <c r="F110" s="221" t="s">
+      <c r="F110" s="116" t="s">
         <v>1689</v>
       </c>
       <c r="G110" s="155"/>
@@ -10166,10 +10157,10 @@
       <c r="D111" s="155">
         <v>31</v>
       </c>
-      <c r="E111" s="221" t="s">
+      <c r="E111" s="116" t="s">
         <v>1690</v>
       </c>
-      <c r="F111" s="221" t="s">
+      <c r="F111" s="116" t="s">
         <v>1691</v>
       </c>
       <c r="G111" s="155"/>
@@ -10182,10 +10173,10 @@
       <c r="D112" s="155">
         <v>32</v>
       </c>
-      <c r="E112" s="221" t="s">
+      <c r="E112" s="116" t="s">
         <v>1688</v>
       </c>
-      <c r="F112" s="221" t="s">
+      <c r="F112" s="116" t="s">
         <v>1689</v>
       </c>
       <c r="G112" s="155"/>
@@ -10198,10 +10189,10 @@
       <c r="D113" s="155">
         <v>33</v>
       </c>
-      <c r="E113" s="221" t="s">
+      <c r="E113" s="116" t="s">
         <v>1692</v>
       </c>
-      <c r="F113" s="221" t="s">
+      <c r="F113" s="116" t="s">
         <v>1693</v>
       </c>
       <c r="G113" s="155"/>
@@ -10214,10 +10205,10 @@
       <c r="D114" s="155">
         <v>34</v>
       </c>
-      <c r="E114" s="221" t="s">
+      <c r="E114" s="116" t="s">
         <v>1694</v>
       </c>
-      <c r="F114" s="221" t="s">
+      <c r="F114" s="116" t="s">
         <v>1695</v>
       </c>
       <c r="G114" s="155"/>
@@ -10230,10 +10221,10 @@
       <c r="D115" s="155">
         <v>35</v>
       </c>
-      <c r="E115" s="221" t="s">
+      <c r="E115" s="116" t="s">
         <v>1696</v>
       </c>
-      <c r="F115" s="221" t="s">
+      <c r="F115" s="116" t="s">
         <v>1697</v>
       </c>
       <c r="G115" s="155"/>
@@ -10246,10 +10237,10 @@
       <c r="D116" s="155">
         <v>36</v>
       </c>
-      <c r="E116" s="221" t="s">
+      <c r="E116" s="116" t="s">
         <v>1698</v>
       </c>
-      <c r="F116" s="221" t="s">
+      <c r="F116" s="116" t="s">
         <v>1699</v>
       </c>
       <c r="G116" s="155"/>
@@ -10262,10 +10253,10 @@
       <c r="D117" s="155">
         <v>37</v>
       </c>
-      <c r="E117" s="221" t="s">
+      <c r="E117" s="116" t="s">
         <v>1700</v>
       </c>
-      <c r="F117" s="221" t="s">
+      <c r="F117" s="116" t="s">
         <v>1701</v>
       </c>
       <c r="G117" s="155"/>
@@ -10278,10 +10269,10 @@
       <c r="D118" s="155">
         <v>38</v>
       </c>
-      <c r="E118" s="221" t="s">
+      <c r="E118" s="116" t="s">
         <v>1702</v>
       </c>
-      <c r="F118" s="221" t="s">
+      <c r="F118" s="116" t="s">
         <v>1703</v>
       </c>
       <c r="G118" s="155"/>
@@ -10294,10 +10285,10 @@
       <c r="D119" s="155">
         <v>39</v>
       </c>
-      <c r="E119" s="221" t="s">
+      <c r="E119" s="116" t="s">
         <v>1704</v>
       </c>
-      <c r="F119" s="221" t="s">
+      <c r="F119" s="116" t="s">
         <v>1705</v>
       </c>
       <c r="G119" s="155"/>
@@ -10310,10 +10301,10 @@
       <c r="D120" s="155">
         <v>40</v>
       </c>
-      <c r="E120" s="221" t="s">
+      <c r="E120" s="116" t="s">
         <v>1706</v>
       </c>
-      <c r="F120" s="221" t="s">
+      <c r="F120" s="116" t="s">
         <v>1707</v>
       </c>
       <c r="G120" s="155"/>
@@ -10326,10 +10317,10 @@
       <c r="D121" s="155">
         <v>41</v>
       </c>
-      <c r="E121" s="221" t="s">
+      <c r="E121" s="116" t="s">
         <v>1708</v>
       </c>
-      <c r="F121" s="221" t="s">
+      <c r="F121" s="116" t="s">
         <v>1709</v>
       </c>
       <c r="G121" s="155"/>
@@ -10342,10 +10333,10 @@
       <c r="D122" s="155">
         <v>42</v>
       </c>
-      <c r="E122" s="221" t="s">
+      <c r="E122" s="116" t="s">
         <v>1710</v>
       </c>
-      <c r="F122" s="221" t="s">
+      <c r="F122" s="116" t="s">
         <v>1711</v>
       </c>
       <c r="G122" s="155"/>
@@ -10358,10 +10349,10 @@
       <c r="D123" s="155">
         <v>43</v>
       </c>
-      <c r="E123" s="221" t="s">
+      <c r="E123" s="116" t="s">
         <v>1712</v>
       </c>
-      <c r="F123" s="221" t="s">
+      <c r="F123" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G123" s="155"/>
@@ -10374,10 +10365,10 @@
       <c r="D124" s="155">
         <v>44</v>
       </c>
-      <c r="E124" s="221" t="s">
+      <c r="E124" s="116" t="s">
         <v>1714</v>
       </c>
-      <c r="F124" s="221" t="s">
+      <c r="F124" s="116" t="s">
         <v>1715</v>
       </c>
       <c r="G124" s="155"/>
@@ -10390,10 +10381,10 @@
       <c r="D125" s="155">
         <v>45</v>
       </c>
-      <c r="E125" s="221" t="s">
+      <c r="E125" s="116" t="s">
         <v>1716</v>
       </c>
-      <c r="F125" s="221" t="s">
+      <c r="F125" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G125" s="155"/>
@@ -10406,10 +10397,10 @@
       <c r="D126" s="155">
         <v>46</v>
       </c>
-      <c r="E126" s="221" t="s">
+      <c r="E126" s="116" t="s">
         <v>1717</v>
       </c>
-      <c r="F126" s="221" t="s">
+      <c r="F126" s="116" t="s">
         <v>1718</v>
       </c>
       <c r="G126" s="155"/>
@@ -10422,10 +10413,10 @@
       <c r="D127" s="155">
         <v>47</v>
       </c>
-      <c r="E127" s="221" t="s">
+      <c r="E127" s="116" t="s">
         <v>1719</v>
       </c>
-      <c r="F127" s="221" t="s">
+      <c r="F127" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G127" s="155"/>
@@ -10438,10 +10429,10 @@
       <c r="D128" s="155">
         <v>48</v>
       </c>
-      <c r="E128" s="221" t="s">
+      <c r="E128" s="116" t="s">
         <v>1720</v>
       </c>
-      <c r="F128" s="221" t="s">
+      <c r="F128" s="116" t="s">
         <v>1721</v>
       </c>
       <c r="G128" s="155"/>
@@ -10454,10 +10445,10 @@
       <c r="D129" s="155">
         <v>49</v>
       </c>
-      <c r="E129" s="221" t="s">
+      <c r="E129" s="116" t="s">
         <v>1722</v>
       </c>
-      <c r="F129" s="221" t="s">
+      <c r="F129" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G129" s="155"/>
@@ -10470,10 +10461,10 @@
       <c r="D130" s="155">
         <v>50</v>
       </c>
-      <c r="E130" s="221" t="s">
+      <c r="E130" s="116" t="s">
         <v>1723</v>
       </c>
-      <c r="F130" s="221" t="s">
+      <c r="F130" s="116" t="s">
         <v>1724</v>
       </c>
       <c r="G130" s="155"/>
@@ -10486,10 +10477,10 @@
       <c r="D131" s="155">
         <v>51</v>
       </c>
-      <c r="E131" s="221" t="s">
+      <c r="E131" s="116" t="s">
         <v>1725</v>
       </c>
-      <c r="F131" s="221" t="s">
+      <c r="F131" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G131" s="155"/>
@@ -10502,10 +10493,10 @@
       <c r="D132" s="155">
         <v>52</v>
       </c>
-      <c r="E132" s="221" t="s">
+      <c r="E132" s="116" t="s">
         <v>1726</v>
       </c>
-      <c r="F132" s="221" t="s">
+      <c r="F132" s="116" t="s">
         <v>1727</v>
       </c>
       <c r="G132" s="155"/>
@@ -10518,10 +10509,10 @@
       <c r="D133" s="155">
         <v>53</v>
       </c>
-      <c r="E133" s="221" t="s">
+      <c r="E133" s="116" t="s">
         <v>1728</v>
       </c>
-      <c r="F133" s="221" t="s">
+      <c r="F133" s="116" t="s">
         <v>1713</v>
       </c>
       <c r="G133" s="155"/>
@@ -10534,10 +10525,10 @@
       <c r="D134" s="155">
         <v>54</v>
       </c>
-      <c r="E134" s="221" t="s">
+      <c r="E134" s="116" t="s">
         <v>1729</v>
       </c>
-      <c r="F134" s="221" t="s">
+      <c r="F134" s="116" t="s">
         <v>1730</v>
       </c>
       <c r="G134" s="155"/>
@@ -10550,10 +10541,10 @@
       <c r="D135" s="155">
         <v>55</v>
       </c>
-      <c r="E135" s="221" t="s">
+      <c r="E135" s="116" t="s">
         <v>1731</v>
       </c>
-      <c r="F135" s="221" t="s">
+      <c r="F135" s="116" t="s">
         <v>1732</v>
       </c>
       <c r="G135" s="155"/>
@@ -10566,10 +10557,10 @@
       <c r="D136" s="155">
         <v>56</v>
       </c>
-      <c r="E136" s="221" t="s">
+      <c r="E136" s="116" t="s">
         <v>1733</v>
       </c>
-      <c r="F136" s="221" t="s">
+      <c r="F136" s="116" t="s">
         <v>1734</v>
       </c>
       <c r="G136" s="155"/>
@@ -10582,10 +10573,10 @@
       <c r="D137" s="155">
         <v>57</v>
       </c>
-      <c r="E137" s="221" t="s">
+      <c r="E137" s="116" t="s">
         <v>1735</v>
       </c>
-      <c r="F137" s="221" t="s">
+      <c r="F137" s="116" t="s">
         <v>1736</v>
       </c>
       <c r="G137" s="155" t="s">
@@ -10600,10 +10591,10 @@
       <c r="D138" s="155">
         <v>58</v>
       </c>
-      <c r="E138" s="221" t="s">
+      <c r="E138" s="116" t="s">
         <v>1738</v>
       </c>
-      <c r="F138" s="221" t="s">
+      <c r="F138" s="116" t="s">
         <v>1739</v>
       </c>
       <c r="G138" s="155"/>
@@ -10616,10 +10607,10 @@
       <c r="D139" s="155">
         <v>59</v>
       </c>
-      <c r="E139" s="221" t="s">
+      <c r="E139" s="116" t="s">
         <v>1740</v>
       </c>
-      <c r="F139" s="221" t="s">
+      <c r="F139" s="116" t="s">
         <v>1673</v>
       </c>
       <c r="G139" s="155" t="s">
@@ -10634,10 +10625,10 @@
       <c r="D140" s="155">
         <v>60</v>
       </c>
-      <c r="E140" s="221" t="s">
+      <c r="E140" s="116" t="s">
         <v>1742</v>
       </c>
-      <c r="F140" s="221" t="s">
+      <c r="F140" s="116" t="s">
         <v>1743</v>
       </c>
       <c r="G140" s="155"/>
@@ -10650,13 +10641,13 @@
       <c r="D141" s="155">
         <v>61</v>
       </c>
-      <c r="E141" s="221" t="s">
+      <c r="E141" s="116" t="s">
         <v>1744</v>
       </c>
-      <c r="F141" s="221" t="s">
+      <c r="F141" s="116" t="s">
         <v>1745</v>
       </c>
-      <c r="G141" s="226" t="s">
+      <c r="G141" s="225" t="s">
         <v>1746</v>
       </c>
       <c r="H141" s="124"/>
@@ -10668,10 +10659,10 @@
       <c r="D142" s="155">
         <v>62</v>
       </c>
-      <c r="E142" s="221" t="s">
+      <c r="E142" s="116" t="s">
         <v>1747</v>
       </c>
-      <c r="F142" s="221" t="s">
+      <c r="F142" s="116" t="s">
         <v>1748</v>
       </c>
       <c r="G142" s="155"/>
@@ -10684,10 +10675,10 @@
       <c r="D143" s="155">
         <v>63</v>
       </c>
-      <c r="E143" s="221" t="s">
+      <c r="E143" s="116" t="s">
         <v>1749</v>
       </c>
-      <c r="F143" s="221" t="s">
+      <c r="F143" s="116" t="s">
         <v>1750</v>
       </c>
       <c r="G143" s="155">
@@ -10702,10 +10693,10 @@
       <c r="D144" s="155">
         <v>64</v>
       </c>
-      <c r="E144" s="221" t="s">
+      <c r="E144" s="116" t="s">
         <v>1751</v>
       </c>
-      <c r="F144" s="221" t="s">
+      <c r="F144" s="116" t="s">
         <v>1752</v>
       </c>
       <c r="G144" s="155"/>
@@ -10718,10 +10709,10 @@
       <c r="D145" s="155">
         <v>65</v>
       </c>
-      <c r="E145" s="221" t="s">
+      <c r="E145" s="116" t="s">
         <v>1753</v>
       </c>
-      <c r="F145" s="221" t="s">
+      <c r="F145" s="116" t="s">
         <v>1754</v>
       </c>
       <c r="G145" s="155">
@@ -10736,10 +10727,10 @@
       <c r="D146" s="155">
         <v>66</v>
       </c>
-      <c r="E146" s="221" t="s">
+      <c r="E146" s="116" t="s">
         <v>1755</v>
       </c>
-      <c r="F146" s="221" t="s">
+      <c r="F146" s="116" t="s">
         <v>1756</v>
       </c>
       <c r="G146" s="155"/>
@@ -10752,10 +10743,10 @@
       <c r="D147" s="155">
         <v>67</v>
       </c>
-      <c r="E147" s="221" t="s">
+      <c r="E147" s="116" t="s">
         <v>1757</v>
       </c>
-      <c r="F147" s="221" t="s">
+      <c r="F147" s="116" t="s">
         <v>1758</v>
       </c>
       <c r="G147" s="155" t="s">
@@ -10770,24 +10761,24 @@
       <c r="D148" s="155">
         <v>69</v>
       </c>
-      <c r="E148" s="221" t="s">
+      <c r="E148" s="116" t="s">
         <v>1760</v>
       </c>
-      <c r="F148" s="221" t="s">
+      <c r="F148" s="116" t="s">
         <v>1761</v>
       </c>
       <c r="G148" s="155"/>
-      <c r="H148" s="221"/>
+      <c r="H148" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="221"/>
+      <c r="A149" s="116"/>
       <c r="B149" s="154"/>
       <c r="C149" s="154"/>
       <c r="D149" s="155"/>
-      <c r="E149" s="221"/>
-      <c r="F149" s="221"/>
+      <c r="E149" s="116"/>
+      <c r="F149" s="116"/>
       <c r="G149" s="155"/>
-      <c r="H149" s="221"/>
+      <c r="H149" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="14.25">
       <c r="A150" s="171" t="s">
@@ -10802,14 +10793,14 @@
       <c r="D150" s="155">
         <v>1</v>
       </c>
-      <c r="E150" s="221" t="s">
+      <c r="E150" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F150" s="221" t="s">
+      <c r="F150" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G150" s="222"/>
-      <c r="H150" s="223" t="s">
+      <c r="G150" s="221"/>
+      <c r="H150" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10820,13 +10811,13 @@
       <c r="D151" s="155">
         <v>2</v>
       </c>
-      <c r="E151" s="221" t="s">
+      <c r="E151" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F151" s="221" t="s">
+      <c r="F151" s="116" t="s">
         <v>1514</v>
       </c>
-      <c r="G151" s="222"/>
+      <c r="G151" s="221"/>
       <c r="H151" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -10836,13 +10827,13 @@
       <c r="D152" s="155">
         <v>3</v>
       </c>
-      <c r="E152" s="221" t="s">
+      <c r="E152" s="116" t="s">
         <v>1765</v>
       </c>
-      <c r="F152" s="221" t="s">
+      <c r="F152" s="116" t="s">
         <v>1766</v>
       </c>
-      <c r="G152" s="222"/>
+      <c r="G152" s="221"/>
       <c r="H152" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -10852,13 +10843,13 @@
       <c r="D153" s="155">
         <v>4</v>
       </c>
-      <c r="E153" s="221" t="s">
+      <c r="E153" s="116" t="s">
         <v>1767</v>
       </c>
-      <c r="F153" s="221" t="s">
+      <c r="F153" s="116" t="s">
         <v>1768</v>
       </c>
-      <c r="G153" s="222"/>
+      <c r="G153" s="221"/>
       <c r="H153" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -10868,13 +10859,13 @@
       <c r="D154" s="155">
         <v>5</v>
       </c>
-      <c r="E154" s="221" t="s">
+      <c r="E154" s="116" t="s">
         <v>1769</v>
       </c>
-      <c r="F154" s="221" t="s">
+      <c r="F154" s="116" t="s">
         <v>1770</v>
       </c>
-      <c r="G154" s="222"/>
+      <c r="G154" s="221"/>
       <c r="H154" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
@@ -10884,13 +10875,13 @@
       <c r="D155" s="155">
         <v>6</v>
       </c>
-      <c r="E155" s="221" t="s">
+      <c r="E155" s="116" t="s">
         <v>1771</v>
       </c>
-      <c r="F155" s="221" t="s">
+      <c r="F155" s="116" t="s">
         <v>1772</v>
       </c>
-      <c r="G155" s="222"/>
+      <c r="G155" s="221"/>
       <c r="H155" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
@@ -10900,24 +10891,24 @@
       <c r="D156" s="155">
         <v>7</v>
       </c>
-      <c r="E156" s="221" t="s">
+      <c r="E156" s="116" t="s">
         <v>1773</v>
       </c>
-      <c r="F156" s="221" t="s">
+      <c r="F156" s="116" t="s">
         <v>1774</v>
       </c>
-      <c r="G156" s="222"/>
+      <c r="G156" s="221"/>
       <c r="H156" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="221"/>
+      <c r="A157" s="116"/>
       <c r="B157" s="154"/>
       <c r="C157" s="154"/>
       <c r="D157" s="155"/>
-      <c r="E157" s="221"/>
-      <c r="F157" s="221"/>
-      <c r="G157" s="222"/>
-      <c r="H157" s="221"/>
+      <c r="E157" s="116"/>
+      <c r="F157" s="116"/>
+      <c r="G157" s="221"/>
+      <c r="H157" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="13.5">
       <c r="A158" s="171" t="s">
@@ -10932,14 +10923,14 @@
       <c r="D158" s="155">
         <v>1</v>
       </c>
-      <c r="E158" s="221" t="s">
+      <c r="E158" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F158" s="221" t="s">
+      <c r="F158" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G158" s="222"/>
-      <c r="H158" s="223" t="s">
+      <c r="G158" s="221"/>
+      <c r="H158" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10950,13 +10941,13 @@
       <c r="D159" s="155">
         <v>2</v>
       </c>
-      <c r="E159" s="221" t="s">
+      <c r="E159" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F159" s="221" t="s">
+      <c r="F159" s="116" t="s">
         <v>1514</v>
       </c>
-      <c r="G159" s="222"/>
+      <c r="G159" s="221"/>
       <c r="H159" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
@@ -10966,13 +10957,13 @@
       <c r="D160" s="155">
         <v>3</v>
       </c>
-      <c r="E160" s="221" t="s">
+      <c r="E160" s="116" t="s">
         <v>1778</v>
       </c>
-      <c r="F160" s="221" t="s">
+      <c r="F160" s="116" t="s">
         <v>1779</v>
       </c>
-      <c r="G160" s="222"/>
+      <c r="G160" s="221"/>
       <c r="H160" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
@@ -10982,13 +10973,13 @@
       <c r="D161" s="155">
         <v>4</v>
       </c>
-      <c r="E161" s="221" t="s">
+      <c r="E161" s="116" t="s">
         <v>1780</v>
       </c>
-      <c r="F161" s="221" t="s">
+      <c r="F161" s="116" t="s">
         <v>1781</v>
       </c>
-      <c r="G161" s="222"/>
+      <c r="G161" s="221"/>
       <c r="H161" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
@@ -10998,13 +10989,13 @@
       <c r="D162" s="155">
         <v>5</v>
       </c>
-      <c r="E162" s="221" t="s">
+      <c r="E162" s="116" t="s">
         <v>1782</v>
       </c>
-      <c r="F162" s="221" t="s">
+      <c r="F162" s="116" t="s">
         <v>1783</v>
       </c>
-      <c r="G162" s="222"/>
+      <c r="G162" s="221"/>
       <c r="H162" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
@@ -11014,13 +11005,13 @@
       <c r="D163" s="155">
         <v>6</v>
       </c>
-      <c r="E163" s="221" t="s">
+      <c r="E163" s="116" t="s">
         <v>1784</v>
       </c>
-      <c r="F163" s="221" t="s">
+      <c r="F163" s="116" t="s">
         <v>1785</v>
       </c>
-      <c r="G163" s="222"/>
+      <c r="G163" s="221"/>
       <c r="H163" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -11030,24 +11021,24 @@
       <c r="D164" s="155">
         <v>7</v>
       </c>
-      <c r="E164" s="221" t="s">
+      <c r="E164" s="116" t="s">
         <v>1786</v>
       </c>
-      <c r="F164" s="221" t="s">
+      <c r="F164" s="116" t="s">
         <v>1787</v>
       </c>
-      <c r="G164" s="222"/>
+      <c r="G164" s="221"/>
       <c r="H164" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="221"/>
+      <c r="A165" s="116"/>
       <c r="B165" s="154"/>
       <c r="C165" s="154"/>
-      <c r="D165" s="222"/>
-      <c r="E165" s="221"/>
-      <c r="F165" s="221"/>
-      <c r="G165" s="222"/>
-      <c r="H165" s="221"/>
+      <c r="D165" s="221"/>
+      <c r="E165" s="116"/>
+      <c r="F165" s="116"/>
+      <c r="G165" s="221"/>
+      <c r="H165" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="171" t="s">
@@ -11062,14 +11053,14 @@
       <c r="D166" s="155">
         <v>1</v>
       </c>
-      <c r="E166" s="221" t="s">
+      <c r="E166" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F166" s="221" t="s">
+      <c r="F166" s="116" t="s">
         <v>1512</v>
       </c>
       <c r="G166" s="155"/>
-      <c r="H166" s="223" t="s">
+      <c r="H166" s="222" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11080,10 +11071,10 @@
       <c r="D167" s="155">
         <v>2</v>
       </c>
-      <c r="E167" s="221" t="s">
+      <c r="E167" s="116" t="s">
         <v>1513</v>
       </c>
-      <c r="F167" s="221" t="s">
+      <c r="F167" s="116" t="s">
         <v>1514</v>
       </c>
       <c r="G167" s="155"/>
@@ -11096,10 +11087,10 @@
       <c r="D168" s="155">
         <v>3</v>
       </c>
-      <c r="E168" s="221" t="s">
+      <c r="E168" s="116" t="s">
         <v>1791</v>
       </c>
-      <c r="F168" s="221" t="s">
+      <c r="F168" s="116" t="s">
         <v>1792</v>
       </c>
       <c r="G168" s="155"/>
@@ -11112,10 +11103,10 @@
       <c r="D169" s="155">
         <v>4</v>
       </c>
-      <c r="E169" s="221" t="s">
+      <c r="E169" s="116" t="s">
         <v>1793</v>
       </c>
-      <c r="F169" s="221" t="s">
+      <c r="F169" s="116" t="s">
         <v>1794</v>
       </c>
       <c r="G169" s="155"/>
@@ -11128,10 +11119,10 @@
       <c r="D170" s="155">
         <v>5</v>
       </c>
-      <c r="E170" s="221" t="s">
+      <c r="E170" s="116" t="s">
         <v>1795</v>
       </c>
-      <c r="F170" s="221" t="s">
+      <c r="F170" s="116" t="s">
         <v>1796</v>
       </c>
       <c r="G170" s="155"/>
@@ -11144,10 +11135,10 @@
       <c r="D171" s="155">
         <v>6</v>
       </c>
-      <c r="E171" s="221" t="s">
+      <c r="E171" s="116" t="s">
         <v>1797</v>
       </c>
-      <c r="F171" s="221" t="s">
+      <c r="F171" s="116" t="s">
         <v>1798</v>
       </c>
       <c r="G171" s="155"/>
@@ -11157,13 +11148,13 @@
       <c r="A172" s="60"/>
       <c r="B172" s="60"/>
       <c r="C172" s="60"/>
-      <c r="D172" s="227">
+      <c r="D172" s="226">
         <v>7</v>
       </c>
-      <c r="E172" s="223" t="s">
+      <c r="E172" s="222" t="s">
         <v>1799</v>
       </c>
-      <c r="F172" s="223" t="s">
+      <c r="F172" s="222" t="s">
         <v>1800</v>
       </c>
       <c r="G172" s="155"/>
@@ -11180,12 +11171,12 @@
       <c r="H173" s="124"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="221"/>
+      <c r="A174" s="116"/>
       <c r="B174" s="154"/>
       <c r="C174" s="154"/>
-      <c r="D174" s="222"/>
-      <c r="E174" s="221"/>
-      <c r="F174" s="221"/>
+      <c r="D174" s="221"/>
+      <c r="E174" s="116"/>
+      <c r="F174" s="116"/>
       <c r="G174" s="155"/>
       <c r="H174" s="124"/>
     </row>
@@ -11200,10 +11191,10 @@
       <c r="D175" s="155">
         <v>1</v>
       </c>
-      <c r="E175" s="221" t="s">
+      <c r="E175" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F175" s="221" t="s">
+      <c r="F175" s="116" t="s">
         <v>1512</v>
       </c>
       <c r="G175" s="155"/>
@@ -11218,10 +11209,10 @@
       <c r="D176" s="155">
         <v>2</v>
       </c>
-      <c r="E176" s="221" t="s">
+      <c r="E176" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F176" s="221" t="s">
+      <c r="F176" s="116" t="s">
         <v>1805</v>
       </c>
       <c r="G176" s="155"/>
@@ -11234,10 +11225,10 @@
       <c r="D177" s="155">
         <v>3</v>
       </c>
-      <c r="E177" s="221" t="s">
+      <c r="E177" s="116" t="s">
         <v>1806</v>
       </c>
-      <c r="F177" s="221" t="s">
+      <c r="F177" s="116" t="s">
         <v>1807</v>
       </c>
       <c r="G177" s="155"/>
@@ -11250,10 +11241,10 @@
       <c r="D178" s="155">
         <v>4</v>
       </c>
-      <c r="E178" s="221" t="s">
+      <c r="E178" s="116" t="s">
         <v>1808</v>
       </c>
-      <c r="F178" s="221" t="s">
+      <c r="F178" s="116" t="s">
         <v>1809</v>
       </c>
       <c r="G178" s="155" t="s">
@@ -11268,10 +11259,10 @@
       <c r="D179" s="155">
         <v>5</v>
       </c>
-      <c r="E179" s="221" t="s">
+      <c r="E179" s="116" t="s">
         <v>1810</v>
       </c>
-      <c r="F179" s="221" t="s">
+      <c r="F179" s="116" t="s">
         <v>1811</v>
       </c>
       <c r="G179" s="155" t="s">
@@ -11289,7 +11280,7 @@
       <c r="E180" s="154" t="s">
         <v>1813</v>
       </c>
-      <c r="F180" s="221" t="s">
+      <c r="F180" s="116" t="s">
         <v>1814</v>
       </c>
       <c r="G180" s="155" t="s">
@@ -11304,10 +11295,10 @@
       <c r="D181" s="155">
         <v>7</v>
       </c>
-      <c r="E181" s="221" t="s">
+      <c r="E181" s="116" t="s">
         <v>1815</v>
       </c>
-      <c r="F181" s="221" t="s">
+      <c r="F181" s="116" t="s">
         <v>1816</v>
       </c>
       <c r="G181" s="155"/>
@@ -11320,13 +11311,13 @@
       <c r="D182" s="155">
         <v>8</v>
       </c>
-      <c r="E182" s="221" t="s">
+      <c r="E182" s="116" t="s">
         <v>1817</v>
       </c>
-      <c r="F182" s="221" t="s">
+      <c r="F182" s="116" t="s">
         <v>1814</v>
       </c>
-      <c r="G182" s="226" t="s">
+      <c r="G182" s="225" t="s">
         <v>1528</v>
       </c>
       <c r="H182" s="124"/>
@@ -11338,10 +11329,10 @@
       <c r="D183" s="155">
         <v>9</v>
       </c>
-      <c r="E183" s="221" t="s">
+      <c r="E183" s="116" t="s">
         <v>1818</v>
       </c>
-      <c r="F183" s="221" t="s">
+      <c r="F183" s="116" t="s">
         <v>1819</v>
       </c>
       <c r="G183" s="155">
@@ -11356,10 +11347,10 @@
       <c r="D184" s="155">
         <v>10</v>
       </c>
-      <c r="E184" s="221" t="s">
+      <c r="E184" s="116" t="s">
         <v>1815</v>
       </c>
-      <c r="F184" s="221" t="s">
+      <c r="F184" s="116" t="s">
         <v>1820</v>
       </c>
       <c r="G184" s="155"/>
@@ -11372,10 +11363,10 @@
       <c r="D185" s="155">
         <v>11</v>
       </c>
-      <c r="E185" s="221" t="s">
+      <c r="E185" s="116" t="s">
         <v>1821</v>
       </c>
-      <c r="F185" s="221" t="s">
+      <c r="F185" s="116" t="s">
         <v>1819</v>
       </c>
       <c r="G185" s="155">
@@ -11390,10 +11381,10 @@
       <c r="D186" s="155">
         <v>12</v>
       </c>
-      <c r="E186" s="221" t="s">
+      <c r="E186" s="116" t="s">
         <v>1822</v>
       </c>
-      <c r="F186" s="221" t="s">
+      <c r="F186" s="116" t="s">
         <v>1823</v>
       </c>
       <c r="G186" s="155"/>
@@ -11406,10 +11397,10 @@
       <c r="D187" s="155">
         <v>13</v>
       </c>
-      <c r="E187" s="221" t="s">
+      <c r="E187" s="116" t="s">
         <v>1824</v>
       </c>
-      <c r="F187" s="221" t="s">
+      <c r="F187" s="116" t="s">
         <v>1825</v>
       </c>
       <c r="G187" s="155"/>
@@ -11422,10 +11413,10 @@
       <c r="D188" s="155">
         <v>14</v>
       </c>
-      <c r="E188" s="221" t="s">
+      <c r="E188" s="116" t="s">
         <v>1826</v>
       </c>
-      <c r="F188" s="221" t="s">
+      <c r="F188" s="116" t="s">
         <v>1827</v>
       </c>
       <c r="G188" s="155"/>
@@ -11438,10 +11429,10 @@
       <c r="D189" s="155">
         <v>15</v>
       </c>
-      <c r="E189" s="221" t="s">
+      <c r="E189" s="116" t="s">
         <v>1828</v>
       </c>
-      <c r="F189" s="221" t="s">
+      <c r="F189" s="116" t="s">
         <v>1829</v>
       </c>
       <c r="G189" s="155"/>
@@ -11454,10 +11445,10 @@
       <c r="D190" s="155">
         <v>16</v>
       </c>
-      <c r="E190" s="221" t="s">
+      <c r="E190" s="116" t="s">
         <v>1830</v>
       </c>
-      <c r="F190" s="221" t="s">
+      <c r="F190" s="116" t="s">
         <v>1831</v>
       </c>
       <c r="G190" s="155"/>
@@ -11470,10 +11461,10 @@
       <c r="D191" s="155">
         <v>17</v>
       </c>
-      <c r="E191" s="221" t="s">
+      <c r="E191" s="116" t="s">
         <v>1832</v>
       </c>
-      <c r="F191" s="221" t="s">
+      <c r="F191" s="116" t="s">
         <v>1833</v>
       </c>
       <c r="G191" s="155"/>
@@ -11486,10 +11477,10 @@
       <c r="D192" s="155">
         <v>18</v>
       </c>
-      <c r="E192" s="221" t="s">
+      <c r="E192" s="116" t="s">
         <v>1834</v>
       </c>
-      <c r="F192" s="221" t="s">
+      <c r="F192" s="116" t="s">
         <v>1835</v>
       </c>
       <c r="G192" s="155"/>
@@ -11502,10 +11493,10 @@
       <c r="D193" s="155">
         <v>19</v>
       </c>
-      <c r="E193" s="221" t="s">
+      <c r="E193" s="116" t="s">
         <v>1836</v>
       </c>
-      <c r="F193" s="221" t="s">
+      <c r="F193" s="116" t="s">
         <v>1837</v>
       </c>
       <c r="G193" s="155"/>
@@ -11518,10 +11509,10 @@
       <c r="D194" s="155">
         <v>20</v>
       </c>
-      <c r="E194" s="221" t="s">
+      <c r="E194" s="116" t="s">
         <v>1838</v>
       </c>
-      <c r="F194" s="221" t="s">
+      <c r="F194" s="116" t="s">
         <v>1839</v>
       </c>
       <c r="G194" s="155" t="s">
@@ -11536,10 +11527,10 @@
       <c r="D195" s="155">
         <v>21</v>
       </c>
-      <c r="E195" s="221" t="s">
+      <c r="E195" s="116" t="s">
         <v>1841</v>
       </c>
-      <c r="F195" s="221" t="s">
+      <c r="F195" s="116" t="s">
         <v>1842</v>
       </c>
       <c r="G195" s="155"/>
@@ -11552,10 +11543,10 @@
       <c r="D196" s="155">
         <v>22</v>
       </c>
-      <c r="E196" s="221" t="s">
+      <c r="E196" s="116" t="s">
         <v>1843</v>
       </c>
-      <c r="F196" s="221" t="s">
+      <c r="F196" s="116" t="s">
         <v>1844</v>
       </c>
       <c r="G196" s="155"/>
@@ -11568,10 +11559,10 @@
       <c r="D197" s="155">
         <v>23</v>
       </c>
-      <c r="E197" s="221" t="s">
+      <c r="E197" s="116" t="s">
         <v>1845</v>
       </c>
-      <c r="F197" s="221" t="s">
+      <c r="F197" s="116" t="s">
         <v>1846</v>
       </c>
       <c r="G197" s="155"/>
@@ -11584,10 +11575,10 @@
       <c r="D198" s="155">
         <v>24</v>
       </c>
-      <c r="E198" s="221" t="s">
+      <c r="E198" s="116" t="s">
         <v>1847</v>
       </c>
-      <c r="F198" s="221" t="s">
+      <c r="F198" s="116" t="s">
         <v>1848</v>
       </c>
       <c r="G198" s="155"/>
@@ -11600,10 +11591,10 @@
       <c r="D199" s="155">
         <v>25</v>
       </c>
-      <c r="E199" s="221" t="s">
+      <c r="E199" s="116" t="s">
         <v>1847</v>
       </c>
-      <c r="F199" s="221" t="s">
+      <c r="F199" s="116" t="s">
         <v>1849</v>
       </c>
       <c r="G199" s="155"/>
@@ -11616,10 +11607,10 @@
       <c r="D200" s="155">
         <v>26</v>
       </c>
-      <c r="E200" s="221" t="s">
+      <c r="E200" s="116" t="s">
         <v>1850</v>
       </c>
-      <c r="F200" s="221" t="s">
+      <c r="F200" s="116" t="s">
         <v>1851</v>
       </c>
       <c r="G200" s="155"/>
@@ -11632,10 +11623,10 @@
       <c r="D201" s="155">
         <v>27</v>
       </c>
-      <c r="E201" s="221" t="s">
+      <c r="E201" s="116" t="s">
         <v>1850</v>
       </c>
-      <c r="F201" s="221" t="s">
+      <c r="F201" s="116" t="s">
         <v>1852</v>
       </c>
       <c r="G201" s="155"/>
@@ -11648,10 +11639,10 @@
       <c r="D202" s="155">
         <v>28</v>
       </c>
-      <c r="E202" s="221" t="s">
+      <c r="E202" s="116" t="s">
         <v>1847</v>
       </c>
-      <c r="F202" s="221" t="s">
+      <c r="F202" s="116" t="s">
         <v>1848</v>
       </c>
       <c r="G202" s="155"/>
@@ -11664,10 +11655,10 @@
       <c r="D203" s="155">
         <v>29</v>
       </c>
-      <c r="E203" s="221" t="s">
+      <c r="E203" s="116" t="s">
         <v>1853</v>
       </c>
-      <c r="F203" s="221" t="s">
+      <c r="F203" s="116" t="s">
         <v>1854</v>
       </c>
       <c r="G203" s="155"/>
@@ -11680,10 +11671,10 @@
       <c r="D204" s="155">
         <v>30</v>
       </c>
-      <c r="E204" s="221" t="s">
+      <c r="E204" s="116" t="s">
         <v>1855</v>
       </c>
-      <c r="F204" s="221" t="s">
+      <c r="F204" s="116" t="s">
         <v>1152</v>
       </c>
       <c r="G204" s="155"/>
@@ -11696,10 +11687,10 @@
       <c r="D205" s="155">
         <v>31</v>
       </c>
-      <c r="E205" s="221" t="s">
+      <c r="E205" s="116" t="s">
         <v>1856</v>
       </c>
-      <c r="F205" s="221" t="s">
+      <c r="F205" s="116" t="s">
         <v>1857</v>
       </c>
       <c r="G205" s="155"/>
@@ -11712,10 +11703,10 @@
       <c r="D206" s="155">
         <v>32</v>
       </c>
-      <c r="E206" s="221" t="s">
+      <c r="E206" s="116" t="s">
         <v>1858</v>
       </c>
-      <c r="F206" s="221" t="s">
+      <c r="F206" s="116" t="s">
         <v>1859</v>
       </c>
       <c r="G206" s="155" t="s">
@@ -11730,10 +11721,10 @@
       <c r="D207" s="155">
         <v>33</v>
       </c>
-      <c r="E207" s="221" t="s">
+      <c r="E207" s="116" t="s">
         <v>1861</v>
       </c>
-      <c r="F207" s="221" t="s">
+      <c r="F207" s="116" t="s">
         <v>1862</v>
       </c>
       <c r="G207" s="155"/>
@@ -11746,10 +11737,10 @@
       <c r="D208" s="155">
         <v>34</v>
       </c>
-      <c r="E208" s="221" t="s">
+      <c r="E208" s="116" t="s">
         <v>1863</v>
       </c>
-      <c r="F208" s="221" t="s">
+      <c r="F208" s="116" t="s">
         <v>1864</v>
       </c>
       <c r="G208" s="155"/>
@@ -11762,10 +11753,10 @@
       <c r="D209" s="155">
         <v>35</v>
       </c>
-      <c r="E209" s="221" t="s">
+      <c r="E209" s="116" t="s">
         <v>1865</v>
       </c>
-      <c r="F209" s="221" t="s">
+      <c r="F209" s="116" t="s">
         <v>1866</v>
       </c>
       <c r="G209" s="155"/>
@@ -11778,10 +11769,10 @@
       <c r="D210" s="155">
         <v>36</v>
       </c>
-      <c r="E210" s="221" t="s">
+      <c r="E210" s="116" t="s">
         <v>1867</v>
       </c>
-      <c r="F210" s="221" t="s">
+      <c r="F210" s="116" t="s">
         <v>1864</v>
       </c>
       <c r="G210" s="155"/>
@@ -11794,10 +11785,10 @@
       <c r="D211" s="155">
         <v>37</v>
       </c>
-      <c r="E211" s="221" t="s">
+      <c r="E211" s="116" t="s">
         <v>1815</v>
       </c>
-      <c r="F211" s="221" t="s">
+      <c r="F211" s="116" t="s">
         <v>1868</v>
       </c>
       <c r="G211" s="155"/>
@@ -11808,10 +11799,10 @@
       <c r="B212" s="154"/>
       <c r="C212" s="60"/>
       <c r="D212" s="155"/>
-      <c r="E212" s="221"/>
-      <c r="F212" s="221"/>
-      <c r="G212" s="222"/>
-      <c r="H212" s="221"/>
+      <c r="E212" s="116"/>
+      <c r="F212" s="116"/>
+      <c r="G212" s="221"/>
+      <c r="H212" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="12.75">
       <c r="A213" s="171" t="s">
@@ -11824,14 +11815,14 @@
       <c r="D213" s="155">
         <v>1</v>
       </c>
-      <c r="E213" s="221" t="s">
+      <c r="E213" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F213" s="221" t="s">
+      <c r="F213" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G213" s="222"/>
-      <c r="H213" s="221"/>
+      <c r="G213" s="221"/>
+      <c r="H213" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="60"/>
@@ -11842,14 +11833,14 @@
       <c r="D214" s="155">
         <v>2</v>
       </c>
-      <c r="E214" s="221" t="s">
+      <c r="E214" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F214" s="221" t="s">
+      <c r="F214" s="116" t="s">
         <v>1805</v>
       </c>
-      <c r="G214" s="222"/>
-      <c r="H214" s="221"/>
+      <c r="G214" s="221"/>
+      <c r="H214" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="60"/>
@@ -11858,14 +11849,14 @@
       <c r="D215" s="155">
         <v>3</v>
       </c>
-      <c r="E215" s="221" t="s">
+      <c r="E215" s="116" t="s">
         <v>1872</v>
       </c>
-      <c r="F215" s="221" t="s">
+      <c r="F215" s="116" t="s">
         <v>1873</v>
       </c>
-      <c r="G215" s="222"/>
-      <c r="H215" s="221"/>
+      <c r="G215" s="221"/>
+      <c r="H215" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="60"/>
@@ -11874,14 +11865,14 @@
       <c r="D216" s="155">
         <v>4</v>
       </c>
-      <c r="E216" s="221" t="s">
+      <c r="E216" s="116" t="s">
         <v>1874</v>
       </c>
-      <c r="F216" s="221" t="s">
+      <c r="F216" s="116" t="s">
         <v>1875</v>
       </c>
-      <c r="G216" s="222"/>
-      <c r="H216" s="221"/>
+      <c r="G216" s="221"/>
+      <c r="H216" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="60"/>
@@ -11890,14 +11881,14 @@
       <c r="D217" s="155">
         <v>5</v>
       </c>
-      <c r="E217" s="221" t="s">
+      <c r="E217" s="116" t="s">
         <v>1876</v>
       </c>
-      <c r="F217" s="221" t="s">
+      <c r="F217" s="116" t="s">
         <v>1877</v>
       </c>
-      <c r="G217" s="222"/>
-      <c r="H217" s="221"/>
+      <c r="G217" s="221"/>
+      <c r="H217" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="60"/>
@@ -11906,14 +11897,14 @@
       <c r="D218" s="155">
         <v>6</v>
       </c>
-      <c r="E218" s="221" t="s">
+      <c r="E218" s="116" t="s">
         <v>1878</v>
       </c>
-      <c r="F218" s="221" t="s">
+      <c r="F218" s="116" t="s">
         <v>1879</v>
       </c>
-      <c r="G218" s="222"/>
-      <c r="H218" s="221"/>
+      <c r="G218" s="221"/>
+      <c r="H218" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="60"/>
@@ -11922,14 +11913,14 @@
       <c r="D219" s="155">
         <v>7</v>
       </c>
-      <c r="E219" s="221" t="s">
+      <c r="E219" s="116" t="s">
         <v>1880</v>
       </c>
-      <c r="F219" s="221" t="s">
+      <c r="F219" s="116" t="s">
         <v>1877</v>
       </c>
-      <c r="G219" s="222"/>
-      <c r="H219" s="221"/>
+      <c r="G219" s="221"/>
+      <c r="H219" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="60"/>
@@ -11938,14 +11929,14 @@
       <c r="D220" s="155">
         <v>8</v>
       </c>
-      <c r="E220" s="221" t="s">
+      <c r="E220" s="116" t="s">
         <v>1881</v>
       </c>
-      <c r="F220" s="221" t="s">
+      <c r="F220" s="116" t="s">
         <v>1882</v>
       </c>
-      <c r="G220" s="222"/>
-      <c r="H220" s="221"/>
+      <c r="G220" s="221"/>
+      <c r="H220" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="60"/>
@@ -11954,14 +11945,14 @@
       <c r="D221" s="155">
         <v>9</v>
       </c>
-      <c r="E221" s="221" t="s">
+      <c r="E221" s="116" t="s">
         <v>1883</v>
       </c>
-      <c r="F221" s="221" t="s">
+      <c r="F221" s="116" t="s">
         <v>1884</v>
       </c>
-      <c r="G221" s="222"/>
-      <c r="H221" s="221"/>
+      <c r="G221" s="221"/>
+      <c r="H221" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="60"/>
@@ -11970,14 +11961,14 @@
       <c r="D222" s="155">
         <v>10</v>
       </c>
-      <c r="E222" s="221" t="s">
+      <c r="E222" s="116" t="s">
         <v>1880</v>
       </c>
-      <c r="F222" s="221" t="s">
+      <c r="F222" s="116" t="s">
         <v>1877</v>
       </c>
-      <c r="G222" s="222"/>
-      <c r="H222" s="221"/>
+      <c r="G222" s="221"/>
+      <c r="H222" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="60"/>
@@ -11986,27 +11977,27 @@
       <c r="D223" s="155">
         <v>11</v>
       </c>
-      <c r="E223" s="221" t="s">
+      <c r="E223" s="116" t="s">
         <v>1885</v>
       </c>
-      <c r="F223" s="221" t="s">
+      <c r="F223" s="116" t="s">
         <v>1886</v>
       </c>
-      <c r="G223" s="222"/>
-      <c r="H223" s="221"/>
+      <c r="G223" s="221"/>
+      <c r="H223" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="154"/>
       <c r="B224" s="154"/>
       <c r="C224" s="60"/>
-      <c r="D224" s="228"/>
+      <c r="D224" s="227"/>
       <c r="E224" s="154"/>
       <c r="F224" s="154"/>
-      <c r="G224" s="228"/>
+      <c r="G224" s="227"/>
       <c r="H224" s="154"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15">
-      <c r="A225" s="223" t="s">
+      <c r="A225" s="222" t="s">
         <v>1887</v>
       </c>
       <c r="B225" s="171" t="s">
@@ -12016,14 +12007,14 @@
       <c r="D225" s="155">
         <v>1</v>
       </c>
-      <c r="E225" s="221" t="s">
+      <c r="E225" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F225" s="221" t="s">
+      <c r="F225" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G225" s="222"/>
-      <c r="H225" s="221"/>
+      <c r="G225" s="221"/>
+      <c r="H225" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="124"/>
@@ -12034,14 +12025,14 @@
       <c r="D226" s="155">
         <v>2</v>
       </c>
-      <c r="E226" s="221" t="s">
+      <c r="E226" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F226" s="221" t="s">
+      <c r="F226" s="116" t="s">
         <v>1805</v>
       </c>
-      <c r="G226" s="222"/>
-      <c r="H226" s="221"/>
+      <c r="G226" s="221"/>
+      <c r="H226" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="124"/>
@@ -12050,14 +12041,14 @@
       <c r="D227" s="155">
         <v>3</v>
       </c>
-      <c r="E227" s="221" t="s">
+      <c r="E227" s="116" t="s">
         <v>1890</v>
       </c>
-      <c r="F227" s="221" t="s">
+      <c r="F227" s="116" t="s">
         <v>1891</v>
       </c>
-      <c r="G227" s="222"/>
-      <c r="H227" s="221"/>
+      <c r="G227" s="221"/>
+      <c r="H227" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="124"/>
@@ -12066,14 +12057,14 @@
       <c r="D228" s="155">
         <v>4</v>
       </c>
-      <c r="E228" s="221" t="s">
+      <c r="E228" s="116" t="s">
         <v>1892</v>
       </c>
-      <c r="F228" s="221" t="s">
+      <c r="F228" s="116" t="s">
         <v>1893</v>
       </c>
-      <c r="G228" s="222"/>
-      <c r="H228" s="221"/>
+      <c r="G228" s="221"/>
+      <c r="H228" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="124"/>
@@ -12082,14 +12073,14 @@
       <c r="D229" s="155">
         <v>5</v>
       </c>
-      <c r="E229" s="221" t="s">
+      <c r="E229" s="116" t="s">
         <v>1894</v>
       </c>
-      <c r="F229" s="221" t="s">
+      <c r="F229" s="116" t="s">
         <v>1895</v>
       </c>
-      <c r="G229" s="222"/>
-      <c r="H229" s="221"/>
+      <c r="G229" s="221"/>
+      <c r="H229" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="124"/>
@@ -12098,14 +12089,14 @@
       <c r="D230" s="155">
         <v>6</v>
       </c>
-      <c r="E230" s="221" t="s">
+      <c r="E230" s="116" t="s">
         <v>1896</v>
       </c>
-      <c r="F230" s="221" t="s">
+      <c r="F230" s="116" t="s">
         <v>1897</v>
       </c>
-      <c r="G230" s="222"/>
-      <c r="H230" s="221"/>
+      <c r="G230" s="221"/>
+      <c r="H230" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="124"/>
@@ -12114,14 +12105,14 @@
       <c r="D231" s="155">
         <v>7</v>
       </c>
-      <c r="E231" s="221" t="s">
+      <c r="E231" s="116" t="s">
         <v>1894</v>
       </c>
-      <c r="F231" s="221" t="s">
+      <c r="F231" s="116" t="s">
         <v>1895</v>
       </c>
-      <c r="G231" s="222"/>
-      <c r="H231" s="221"/>
+      <c r="G231" s="221"/>
+      <c r="H231" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="124"/>
@@ -12130,14 +12121,14 @@
       <c r="D232" s="155">
         <v>8</v>
       </c>
-      <c r="E232" s="221" t="s">
+      <c r="E232" s="116" t="s">
         <v>1898</v>
       </c>
-      <c r="F232" s="221" t="s">
+      <c r="F232" s="116" t="s">
         <v>1899</v>
       </c>
-      <c r="G232" s="222"/>
-      <c r="H232" s="221"/>
+      <c r="G232" s="221"/>
+      <c r="H232" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="124"/>
@@ -12146,14 +12137,14 @@
       <c r="D233" s="155">
         <v>9</v>
       </c>
-      <c r="E233" s="221" t="s">
+      <c r="E233" s="116" t="s">
         <v>1900</v>
       </c>
-      <c r="F233" s="221" t="s">
+      <c r="F233" s="116" t="s">
         <v>1901</v>
       </c>
-      <c r="G233" s="222"/>
-      <c r="H233" s="221"/>
+      <c r="G233" s="221"/>
+      <c r="H233" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="124"/>
@@ -12162,14 +12153,14 @@
       <c r="D234" s="155">
         <v>10</v>
       </c>
-      <c r="E234" s="221" t="s">
+      <c r="E234" s="116" t="s">
         <v>1902</v>
       </c>
-      <c r="F234" s="221" t="s">
+      <c r="F234" s="116" t="s">
         <v>1903</v>
       </c>
-      <c r="G234" s="222"/>
-      <c r="H234" s="221"/>
+      <c r="G234" s="221"/>
+      <c r="H234" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="124"/>
@@ -12178,14 +12169,14 @@
       <c r="D235" s="155">
         <v>11</v>
       </c>
-      <c r="E235" s="221" t="s">
+      <c r="E235" s="116" t="s">
         <v>1904</v>
       </c>
-      <c r="F235" s="221" t="s">
+      <c r="F235" s="116" t="s">
         <v>1905</v>
       </c>
-      <c r="G235" s="222"/>
-      <c r="H235" s="221"/>
+      <c r="G235" s="221"/>
+      <c r="H235" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="124"/>
@@ -12194,43 +12185,43 @@
       <c r="D236" s="155">
         <v>12</v>
       </c>
-      <c r="E236" s="221" t="s">
+      <c r="E236" s="116" t="s">
         <v>1906</v>
       </c>
-      <c r="F236" s="221" t="s">
+      <c r="F236" s="116" t="s">
         <v>1907</v>
       </c>
-      <c r="G236" s="222"/>
-      <c r="H236" s="221"/>
+      <c r="G236" s="221"/>
+      <c r="H236" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="124"/>
       <c r="B237" s="60"/>
       <c r="C237" s="60"/>
-      <c r="D237" s="222"/>
-      <c r="E237" s="221"/>
-      <c r="F237" s="221"/>
-      <c r="G237" s="222"/>
-      <c r="H237" s="221"/>
+      <c r="D237" s="221"/>
+      <c r="E237" s="116"/>
+      <c r="F237" s="116"/>
+      <c r="G237" s="221"/>
+      <c r="H237" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="124"/>
       <c r="B238" s="60"/>
       <c r="C238" s="60"/>
-      <c r="D238" s="222"/>
-      <c r="E238" s="221"/>
-      <c r="F238" s="221"/>
-      <c r="G238" s="222"/>
-      <c r="H238" s="221"/>
+      <c r="D238" s="221"/>
+      <c r="E238" s="116"/>
+      <c r="F238" s="116"/>
+      <c r="G238" s="221"/>
+      <c r="H238" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="154"/>
       <c r="B239" s="154"/>
       <c r="C239" s="60"/>
-      <c r="D239" s="228"/>
+      <c r="D239" s="227"/>
       <c r="E239" s="154"/>
       <c r="F239" s="154"/>
-      <c r="G239" s="228"/>
+      <c r="G239" s="227"/>
       <c r="H239" s="154"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="16.5">
@@ -12244,14 +12235,14 @@
       <c r="D240" s="155">
         <v>1</v>
       </c>
-      <c r="E240" s="221" t="s">
+      <c r="E240" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F240" s="221" t="s">
+      <c r="F240" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G240" s="222"/>
-      <c r="H240" s="221"/>
+      <c r="G240" s="221"/>
+      <c r="H240" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="60"/>
@@ -12262,14 +12253,14 @@
       <c r="D241" s="155">
         <v>2</v>
       </c>
-      <c r="E241" s="221" t="s">
+      <c r="E241" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F241" s="221" t="s">
+      <c r="F241" s="116" t="s">
         <v>1805</v>
       </c>
-      <c r="G241" s="222"/>
-      <c r="H241" s="221"/>
+      <c r="G241" s="221"/>
+      <c r="H241" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="60"/>
@@ -12278,14 +12269,14 @@
       <c r="D242" s="155">
         <v>3</v>
       </c>
-      <c r="E242" s="221" t="s">
+      <c r="E242" s="116" t="s">
         <v>1911</v>
       </c>
-      <c r="F242" s="221" t="s">
+      <c r="F242" s="116" t="s">
         <v>1912</v>
       </c>
-      <c r="G242" s="222"/>
-      <c r="H242" s="221"/>
+      <c r="G242" s="221"/>
+      <c r="H242" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="60"/>
@@ -12294,14 +12285,14 @@
       <c r="D243" s="155">
         <v>4</v>
       </c>
-      <c r="E243" s="221" t="s">
+      <c r="E243" s="116" t="s">
         <v>1913</v>
       </c>
-      <c r="F243" s="221" t="s">
+      <c r="F243" s="116" t="s">
         <v>1914</v>
       </c>
-      <c r="G243" s="222"/>
-      <c r="H243" s="221"/>
+      <c r="G243" s="221"/>
+      <c r="H243" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="60"/>
@@ -12310,14 +12301,14 @@
       <c r="D244" s="155">
         <v>5</v>
       </c>
-      <c r="E244" s="221" t="s">
+      <c r="E244" s="116" t="s">
         <v>1915</v>
       </c>
-      <c r="F244" s="221" t="s">
+      <c r="F244" s="116" t="s">
         <v>1916</v>
       </c>
-      <c r="G244" s="222"/>
-      <c r="H244" s="221"/>
+      <c r="G244" s="221"/>
+      <c r="H244" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="60"/>
@@ -12326,14 +12317,14 @@
       <c r="D245" s="155">
         <v>6</v>
       </c>
-      <c r="E245" s="221" t="s">
+      <c r="E245" s="116" t="s">
         <v>1917</v>
       </c>
-      <c r="F245" s="221" t="s">
+      <c r="F245" s="116" t="s">
         <v>1918</v>
       </c>
-      <c r="G245" s="222"/>
-      <c r="H245" s="221"/>
+      <c r="G245" s="221"/>
+      <c r="H245" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="60"/>
@@ -12342,14 +12333,14 @@
       <c r="D246" s="155">
         <v>7</v>
       </c>
-      <c r="E246" s="221" t="s">
+      <c r="E246" s="116" t="s">
         <v>1919</v>
       </c>
-      <c r="F246" s="221" t="s">
+      <c r="F246" s="116" t="s">
         <v>1920</v>
       </c>
-      <c r="G246" s="222"/>
-      <c r="H246" s="221"/>
+      <c r="G246" s="221"/>
+      <c r="H246" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="60"/>
@@ -12358,14 +12349,14 @@
       <c r="D247" s="155">
         <v>8</v>
       </c>
-      <c r="E247" s="221" t="s">
+      <c r="E247" s="116" t="s">
         <v>1915</v>
       </c>
-      <c r="F247" s="221" t="s">
+      <c r="F247" s="116" t="s">
         <v>1916</v>
       </c>
-      <c r="G247" s="222"/>
-      <c r="H247" s="221"/>
+      <c r="G247" s="221"/>
+      <c r="H247" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="60"/>
@@ -12374,14 +12365,14 @@
       <c r="D248" s="155">
         <v>9</v>
       </c>
-      <c r="E248" s="221" t="s">
+      <c r="E248" s="116" t="s">
         <v>1917</v>
       </c>
-      <c r="F248" s="221" t="s">
+      <c r="F248" s="116" t="s">
         <v>1918</v>
       </c>
-      <c r="G248" s="222"/>
-      <c r="H248" s="221"/>
+      <c r="G248" s="221"/>
+      <c r="H248" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="60"/>
@@ -12390,27 +12381,27 @@
       <c r="D249" s="155">
         <v>10</v>
       </c>
-      <c r="E249" s="221" t="s">
+      <c r="E249" s="116" t="s">
         <v>1921</v>
       </c>
-      <c r="F249" s="221" t="s">
+      <c r="F249" s="116" t="s">
         <v>1920</v>
       </c>
-      <c r="G249" s="222"/>
-      <c r="H249" s="221"/>
+      <c r="G249" s="221"/>
+      <c r="H249" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="154"/>
       <c r="B250" s="154"/>
       <c r="C250" s="60"/>
-      <c r="D250" s="228"/>
+      <c r="D250" s="227"/>
       <c r="E250" s="154"/>
       <c r="F250" s="154"/>
-      <c r="G250" s="228"/>
+      <c r="G250" s="227"/>
       <c r="H250" s="154"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15">
-      <c r="A251" s="223" t="s">
+      <c r="A251" s="222" t="s">
         <v>1922</v>
       </c>
       <c r="B251" s="171" t="s">
@@ -12422,14 +12413,14 @@
       <c r="D251" s="155">
         <v>1</v>
       </c>
-      <c r="E251" s="221" t="s">
+      <c r="E251" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F251" s="221" t="s">
+      <c r="F251" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G251" s="222"/>
-      <c r="H251" s="221"/>
+      <c r="G251" s="221"/>
+      <c r="H251" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="124"/>
@@ -12438,14 +12429,14 @@
       <c r="D252" s="155">
         <v>2</v>
       </c>
-      <c r="E252" s="221" t="s">
+      <c r="E252" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F252" s="221" t="s">
+      <c r="F252" s="116" t="s">
         <v>1805</v>
       </c>
-      <c r="G252" s="222"/>
-      <c r="H252" s="221"/>
+      <c r="G252" s="221"/>
+      <c r="H252" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="124"/>
@@ -12454,14 +12445,14 @@
       <c r="D253" s="155">
         <v>3</v>
       </c>
-      <c r="E253" s="221" t="s">
+      <c r="E253" s="116" t="s">
         <v>1925</v>
       </c>
-      <c r="F253" s="221" t="s">
+      <c r="F253" s="116" t="s">
         <v>1926</v>
       </c>
-      <c r="G253" s="222"/>
-      <c r="H253" s="221"/>
+      <c r="G253" s="221"/>
+      <c r="H253" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="124"/>
@@ -12470,14 +12461,14 @@
       <c r="D254" s="155">
         <v>4</v>
       </c>
-      <c r="E254" s="221" t="s">
+      <c r="E254" s="116" t="s">
         <v>1927</v>
       </c>
-      <c r="F254" s="221" t="s">
+      <c r="F254" s="116" t="s">
         <v>1928</v>
       </c>
-      <c r="G254" s="222"/>
-      <c r="H254" s="221"/>
+      <c r="G254" s="221"/>
+      <c r="H254" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="124"/>
@@ -12486,14 +12477,14 @@
       <c r="D255" s="155">
         <v>5</v>
       </c>
-      <c r="E255" s="221" t="s">
+      <c r="E255" s="116" t="s">
         <v>1929</v>
       </c>
-      <c r="F255" s="221" t="s">
+      <c r="F255" s="116" t="s">
         <v>1930</v>
       </c>
-      <c r="G255" s="222"/>
-      <c r="H255" s="221"/>
+      <c r="G255" s="221"/>
+      <c r="H255" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="124"/>
@@ -12502,14 +12493,14 @@
       <c r="D256" s="155">
         <v>6</v>
       </c>
-      <c r="E256" s="221" t="s">
+      <c r="E256" s="116" t="s">
         <v>1931</v>
       </c>
-      <c r="F256" s="221" t="s">
+      <c r="F256" s="116" t="s">
         <v>1932</v>
       </c>
-      <c r="G256" s="222"/>
-      <c r="H256" s="221"/>
+      <c r="G256" s="221"/>
+      <c r="H256" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="124"/>
@@ -12518,14 +12509,14 @@
       <c r="D257" s="155">
         <v>7</v>
       </c>
-      <c r="E257" s="221" t="s">
+      <c r="E257" s="116" t="s">
         <v>1933</v>
       </c>
-      <c r="F257" s="221" t="s">
+      <c r="F257" s="116" t="s">
         <v>1934</v>
       </c>
-      <c r="G257" s="222"/>
-      <c r="H257" s="221"/>
+      <c r="G257" s="221"/>
+      <c r="H257" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="124"/>
@@ -12534,14 +12525,14 @@
       <c r="D258" s="155">
         <v>8</v>
       </c>
-      <c r="E258" s="221" t="s">
+      <c r="E258" s="116" t="s">
         <v>1935</v>
       </c>
-      <c r="F258" s="221" t="s">
+      <c r="F258" s="116" t="s">
         <v>1936</v>
       </c>
-      <c r="G258" s="222"/>
-      <c r="H258" s="221"/>
+      <c r="G258" s="221"/>
+      <c r="H258" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="124"/>
@@ -12550,27 +12541,27 @@
       <c r="D259" s="155">
         <v>9</v>
       </c>
-      <c r="E259" s="221" t="s">
+      <c r="E259" s="116" t="s">
         <v>1937</v>
       </c>
-      <c r="F259" s="221" t="s">
+      <c r="F259" s="116" t="s">
         <v>1938</v>
       </c>
-      <c r="G259" s="222"/>
-      <c r="H259" s="221"/>
+      <c r="G259" s="221"/>
+      <c r="H259" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="221"/>
+      <c r="A260" s="116"/>
       <c r="B260" s="154"/>
       <c r="C260" s="154"/>
-      <c r="D260" s="222"/>
-      <c r="E260" s="221"/>
-      <c r="F260" s="221"/>
-      <c r="G260" s="222"/>
-      <c r="H260" s="221"/>
+      <c r="D260" s="221"/>
+      <c r="E260" s="116"/>
+      <c r="F260" s="116"/>
+      <c r="G260" s="221"/>
+      <c r="H260" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="12.75">
-      <c r="A261" s="223" t="s">
+      <c r="A261" s="222" t="s">
         <v>1939</v>
       </c>
       <c r="B261" s="171" t="s">
@@ -12582,14 +12573,14 @@
       <c r="D261" s="155">
         <v>1</v>
       </c>
-      <c r="E261" s="221" t="s">
+      <c r="E261" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F261" s="221" t="s">
+      <c r="F261" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G261" s="222"/>
-      <c r="H261" s="221"/>
+      <c r="G261" s="221"/>
+      <c r="H261" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="124"/>
@@ -12598,14 +12589,14 @@
       <c r="D262" s="155">
         <v>2</v>
       </c>
-      <c r="E262" s="221" t="s">
+      <c r="E262" s="116" t="s">
         <v>1804</v>
       </c>
-      <c r="F262" s="221" t="s">
+      <c r="F262" s="116" t="s">
         <v>1805</v>
       </c>
-      <c r="G262" s="222"/>
-      <c r="H262" s="221"/>
+      <c r="G262" s="221"/>
+      <c r="H262" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="124"/>
@@ -12614,14 +12605,14 @@
       <c r="D263" s="155">
         <v>3</v>
       </c>
-      <c r="E263" s="221" t="s">
+      <c r="E263" s="116" t="s">
         <v>1942</v>
       </c>
-      <c r="F263" s="221" t="s">
+      <c r="F263" s="116" t="s">
         <v>1943</v>
       </c>
-      <c r="G263" s="222"/>
-      <c r="H263" s="221"/>
+      <c r="G263" s="221"/>
+      <c r="H263" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="124"/>
@@ -12630,14 +12621,14 @@
       <c r="D264" s="155">
         <v>4</v>
       </c>
-      <c r="E264" s="221" t="s">
+      <c r="E264" s="116" t="s">
         <v>1944</v>
       </c>
-      <c r="F264" s="221" t="s">
+      <c r="F264" s="116" t="s">
         <v>1945</v>
       </c>
-      <c r="G264" s="222"/>
-      <c r="H264" s="221"/>
+      <c r="G264" s="221"/>
+      <c r="H264" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="124"/>
@@ -12646,14 +12637,14 @@
       <c r="D265" s="155">
         <v>5</v>
       </c>
-      <c r="E265" s="221" t="s">
+      <c r="E265" s="116" t="s">
         <v>1946</v>
       </c>
-      <c r="F265" s="221" t="s">
+      <c r="F265" s="116" t="s">
         <v>1947</v>
       </c>
-      <c r="G265" s="222"/>
-      <c r="H265" s="221"/>
+      <c r="G265" s="221"/>
+      <c r="H265" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="124"/>
@@ -12662,14 +12653,14 @@
       <c r="D266" s="155">
         <v>6</v>
       </c>
-      <c r="E266" s="221" t="s">
+      <c r="E266" s="116" t="s">
         <v>1944</v>
       </c>
-      <c r="F266" s="221" t="s">
+      <c r="F266" s="116" t="s">
         <v>1945</v>
       </c>
-      <c r="G266" s="222"/>
-      <c r="H266" s="221"/>
+      <c r="G266" s="221"/>
+      <c r="H266" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="124"/>
@@ -12678,14 +12669,14 @@
       <c r="D267" s="155">
         <v>7</v>
       </c>
-      <c r="E267" s="221" t="s">
+      <c r="E267" s="116" t="s">
         <v>1948</v>
       </c>
-      <c r="F267" s="221" t="s">
+      <c r="F267" s="116" t="s">
         <v>1947</v>
       </c>
-      <c r="G267" s="222"/>
-      <c r="H267" s="221"/>
+      <c r="G267" s="221"/>
+      <c r="H267" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="124"/>
@@ -12694,14 +12685,14 @@
       <c r="D268" s="155">
         <v>8</v>
       </c>
-      <c r="E268" s="221" t="s">
+      <c r="E268" s="116" t="s">
         <v>1949</v>
       </c>
-      <c r="F268" s="221" t="s">
+      <c r="F268" s="116" t="s">
         <v>1950</v>
       </c>
-      <c r="G268" s="222"/>
-      <c r="H268" s="221"/>
+      <c r="G268" s="221"/>
+      <c r="H268" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="124"/>
@@ -12710,14 +12701,14 @@
       <c r="D269" s="155">
         <v>9</v>
       </c>
-      <c r="E269" s="221" t="s">
+      <c r="E269" s="116" t="s">
         <v>1951</v>
       </c>
-      <c r="F269" s="221" t="s">
+      <c r="F269" s="116" t="s">
         <v>1947</v>
       </c>
-      <c r="G269" s="222"/>
-      <c r="H269" s="221"/>
+      <c r="G269" s="221"/>
+      <c r="H269" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="124"/>
@@ -12726,14 +12717,14 @@
       <c r="D270" s="155">
         <v>10</v>
       </c>
-      <c r="E270" s="221" t="s">
+      <c r="E270" s="116" t="s">
         <v>1949</v>
       </c>
-      <c r="F270" s="221" t="s">
+      <c r="F270" s="116" t="s">
         <v>1950</v>
       </c>
-      <c r="G270" s="222"/>
-      <c r="H270" s="221"/>
+      <c r="G270" s="221"/>
+      <c r="H270" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="124"/>
@@ -12742,24 +12733,24 @@
       <c r="D271" s="155">
         <v>11</v>
       </c>
-      <c r="E271" s="221" t="s">
+      <c r="E271" s="116" t="s">
         <v>1948</v>
       </c>
-      <c r="F271" s="221" t="s">
+      <c r="F271" s="116" t="s">
         <v>1947</v>
       </c>
-      <c r="G271" s="222"/>
-      <c r="H271" s="221"/>
+      <c r="G271" s="221"/>
+      <c r="H271" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="221"/>
+      <c r="A272" s="116"/>
       <c r="B272" s="154"/>
       <c r="C272" s="154"/>
-      <c r="D272" s="222"/>
-      <c r="E272" s="221"/>
-      <c r="F272" s="221"/>
-      <c r="G272" s="222"/>
-      <c r="H272" s="221"/>
+      <c r="D272" s="221"/>
+      <c r="E272" s="116"/>
+      <c r="F272" s="116"/>
+      <c r="G272" s="221"/>
+      <c r="H272" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="16.5">
       <c r="A273" s="171" t="s">
@@ -12774,14 +12765,14 @@
       <c r="D273" s="155">
         <v>1</v>
       </c>
-      <c r="E273" s="221" t="s">
+      <c r="E273" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F273" s="221" t="s">
+      <c r="F273" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G273" s="222"/>
-      <c r="H273" s="221"/>
+      <c r="G273" s="221"/>
+      <c r="H273" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="60"/>
@@ -12790,14 +12781,14 @@
       <c r="D274" s="155">
         <v>2</v>
       </c>
-      <c r="E274" s="221" t="s">
+      <c r="E274" s="116" t="s">
         <v>1955</v>
       </c>
-      <c r="F274" s="221" t="s">
+      <c r="F274" s="116" t="s">
         <v>1956</v>
       </c>
-      <c r="G274" s="222"/>
-      <c r="H274" s="221"/>
+      <c r="G274" s="221"/>
+      <c r="H274" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="60"/>
@@ -12806,14 +12797,14 @@
       <c r="D275" s="155">
         <v>3</v>
       </c>
-      <c r="E275" s="221" t="s">
+      <c r="E275" s="116" t="s">
         <v>1957</v>
       </c>
-      <c r="F275" s="221" t="s">
+      <c r="F275" s="116" t="s">
         <v>1958</v>
       </c>
-      <c r="G275" s="222"/>
-      <c r="H275" s="221"/>
+      <c r="G275" s="221"/>
+      <c r="H275" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="60"/>
@@ -12822,14 +12813,14 @@
       <c r="D276" s="155">
         <v>4</v>
       </c>
-      <c r="E276" s="221" t="s">
+      <c r="E276" s="116" t="s">
         <v>1959</v>
       </c>
-      <c r="F276" s="221" t="s">
+      <c r="F276" s="116" t="s">
         <v>1960</v>
       </c>
-      <c r="G276" s="222"/>
-      <c r="H276" s="221"/>
+      <c r="G276" s="221"/>
+      <c r="H276" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="60"/>
@@ -12838,14 +12829,14 @@
       <c r="D277" s="155">
         <v>5</v>
       </c>
-      <c r="E277" s="221" t="s">
+      <c r="E277" s="116" t="s">
         <v>1961</v>
       </c>
-      <c r="F277" s="221" t="s">
+      <c r="F277" s="116" t="s">
         <v>1962</v>
       </c>
-      <c r="G277" s="222"/>
-      <c r="H277" s="221"/>
+      <c r="G277" s="221"/>
+      <c r="H277" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="60"/>
@@ -12854,14 +12845,14 @@
       <c r="D278" s="155">
         <v>6</v>
       </c>
-      <c r="E278" s="221" t="s">
+      <c r="E278" s="116" t="s">
         <v>1963</v>
       </c>
-      <c r="F278" s="221" t="s">
+      <c r="F278" s="116" t="s">
         <v>1964</v>
       </c>
-      <c r="G278" s="222"/>
-      <c r="H278" s="221"/>
+      <c r="G278" s="221"/>
+      <c r="H278" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="60"/>
@@ -12870,14 +12861,14 @@
       <c r="D279" s="155">
         <v>7</v>
       </c>
-      <c r="E279" s="221" t="s">
+      <c r="E279" s="116" t="s">
         <v>1965</v>
       </c>
-      <c r="F279" s="221" t="s">
+      <c r="F279" s="116" t="s">
         <v>1966</v>
       </c>
-      <c r="G279" s="222"/>
-      <c r="H279" s="221"/>
+      <c r="G279" s="221"/>
+      <c r="H279" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="60"/>
@@ -12886,14 +12877,14 @@
       <c r="D280" s="155">
         <v>8</v>
       </c>
-      <c r="E280" s="221" t="s">
+      <c r="E280" s="116" t="s">
         <v>1967</v>
       </c>
-      <c r="F280" s="221" t="s">
+      <c r="F280" s="116" t="s">
         <v>1968</v>
       </c>
-      <c r="G280" s="222"/>
-      <c r="H280" s="221"/>
+      <c r="G280" s="221"/>
+      <c r="H280" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="60"/>
@@ -12902,14 +12893,14 @@
       <c r="D281" s="155">
         <v>9</v>
       </c>
-      <c r="E281" s="221" t="s">
+      <c r="E281" s="116" t="s">
         <v>1969</v>
       </c>
-      <c r="F281" s="221" t="s">
+      <c r="F281" s="116" t="s">
         <v>1970</v>
       </c>
-      <c r="G281" s="222"/>
-      <c r="H281" s="221"/>
+      <c r="G281" s="221"/>
+      <c r="H281" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="60"/>
@@ -12918,14 +12909,14 @@
       <c r="D282" s="155">
         <v>10</v>
       </c>
-      <c r="E282" s="221" t="s">
+      <c r="E282" s="116" t="s">
         <v>1971</v>
       </c>
-      <c r="F282" s="221" t="s">
+      <c r="F282" s="116" t="s">
         <v>1972</v>
       </c>
-      <c r="G282" s="222"/>
-      <c r="H282" s="221"/>
+      <c r="G282" s="221"/>
+      <c r="H282" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="60"/>
@@ -12934,14 +12925,14 @@
       <c r="D283" s="155">
         <v>11</v>
       </c>
-      <c r="E283" s="221" t="s">
+      <c r="E283" s="116" t="s">
         <v>1961</v>
       </c>
-      <c r="F283" s="221" t="s">
+      <c r="F283" s="116" t="s">
         <v>1962</v>
       </c>
-      <c r="G283" s="222"/>
-      <c r="H283" s="221"/>
+      <c r="G283" s="221"/>
+      <c r="H283" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="60"/>
@@ -12950,14 +12941,14 @@
       <c r="D284" s="155">
         <v>12</v>
       </c>
-      <c r="E284" s="221" t="s">
+      <c r="E284" s="116" t="s">
         <v>1963</v>
       </c>
-      <c r="F284" s="221" t="s">
+      <c r="F284" s="116" t="s">
         <v>1964</v>
       </c>
-      <c r="G284" s="222"/>
-      <c r="H284" s="221"/>
+      <c r="G284" s="221"/>
+      <c r="H284" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="60"/>
@@ -12966,14 +12957,14 @@
       <c r="D285" s="155">
         <v>13</v>
       </c>
-      <c r="E285" s="221" t="s">
+      <c r="E285" s="116" t="s">
         <v>1965</v>
       </c>
-      <c r="F285" s="221" t="s">
+      <c r="F285" s="116" t="s">
         <v>1966</v>
       </c>
-      <c r="G285" s="222"/>
-      <c r="H285" s="221"/>
+      <c r="G285" s="221"/>
+      <c r="H285" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="60"/>
@@ -12982,14 +12973,14 @@
       <c r="D286" s="155">
         <v>14</v>
       </c>
-      <c r="E286" s="221" t="s">
+      <c r="E286" s="116" t="s">
         <v>1967</v>
       </c>
-      <c r="F286" s="221" t="s">
+      <c r="F286" s="116" t="s">
         <v>1968</v>
       </c>
-      <c r="G286" s="222"/>
-      <c r="H286" s="221"/>
+      <c r="G286" s="221"/>
+      <c r="H286" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="60"/>
@@ -12998,14 +12989,14 @@
       <c r="D287" s="155">
         <v>15</v>
       </c>
-      <c r="E287" s="221" t="s">
+      <c r="E287" s="116" t="s">
         <v>1969</v>
       </c>
-      <c r="F287" s="221" t="s">
+      <c r="F287" s="116" t="s">
         <v>1973</v>
       </c>
-      <c r="G287" s="222"/>
-      <c r="H287" s="221"/>
+      <c r="G287" s="221"/>
+      <c r="H287" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="60"/>
@@ -13014,27 +13005,27 @@
       <c r="D288" s="155">
         <v>16</v>
       </c>
-      <c r="E288" s="221" t="s">
+      <c r="E288" s="116" t="s">
         <v>1974</v>
       </c>
-      <c r="F288" s="221" t="s">
+      <c r="F288" s="116" t="s">
         <v>1975</v>
       </c>
-      <c r="G288" s="222"/>
-      <c r="H288" s="221"/>
+      <c r="G288" s="221"/>
+      <c r="H288" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="221"/>
+      <c r="A289" s="116"/>
       <c r="B289" s="154"/>
       <c r="C289" s="154"/>
-      <c r="D289" s="222"/>
-      <c r="E289" s="221"/>
-      <c r="F289" s="221"/>
-      <c r="G289" s="222"/>
-      <c r="H289" s="221"/>
+      <c r="D289" s="221"/>
+      <c r="E289" s="116"/>
+      <c r="F289" s="116"/>
+      <c r="G289" s="221"/>
+      <c r="H289" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="16.5">
-      <c r="A290" s="223" t="s">
+      <c r="A290" s="222" t="s">
         <v>1976</v>
       </c>
       <c r="B290" s="171" t="s">
@@ -13046,14 +13037,14 @@
       <c r="D290" s="155">
         <v>1</v>
       </c>
-      <c r="E290" s="221" t="s">
+      <c r="E290" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F290" s="221" t="s">
+      <c r="F290" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G290" s="222"/>
-      <c r="H290" s="221"/>
+      <c r="G290" s="221"/>
+      <c r="H290" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="124"/>
@@ -13062,14 +13053,14 @@
       <c r="D291" s="155">
         <v>2</v>
       </c>
-      <c r="E291" s="221" t="s">
+      <c r="E291" s="116" t="s">
         <v>1955</v>
       </c>
-      <c r="F291" s="221" t="s">
+      <c r="F291" s="116" t="s">
         <v>1956</v>
       </c>
-      <c r="G291" s="222"/>
-      <c r="H291" s="221"/>
+      <c r="G291" s="221"/>
+      <c r="H291" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="124"/>
@@ -13078,14 +13069,14 @@
       <c r="D292" s="155">
         <v>3</v>
       </c>
-      <c r="E292" s="221" t="s">
+      <c r="E292" s="116" t="s">
         <v>1979</v>
       </c>
-      <c r="F292" s="221" t="s">
+      <c r="F292" s="116" t="s">
         <v>1980</v>
       </c>
-      <c r="G292" s="222"/>
-      <c r="H292" s="221"/>
+      <c r="G292" s="221"/>
+      <c r="H292" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="124"/>
@@ -13094,14 +13085,14 @@
       <c r="D293" s="155">
         <v>4</v>
       </c>
-      <c r="E293" s="221" t="s">
+      <c r="E293" s="116" t="s">
         <v>1981</v>
       </c>
-      <c r="F293" s="221" t="s">
+      <c r="F293" s="116" t="s">
         <v>1982</v>
       </c>
-      <c r="G293" s="222"/>
-      <c r="H293" s="221"/>
+      <c r="G293" s="221"/>
+      <c r="H293" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="124"/>
@@ -13110,24 +13101,24 @@
       <c r="D294" s="155">
         <v>5</v>
       </c>
-      <c r="E294" s="221" t="s">
+      <c r="E294" s="116" t="s">
         <v>1983</v>
       </c>
-      <c r="F294" s="221" t="s">
+      <c r="F294" s="116" t="s">
         <v>1984</v>
       </c>
-      <c r="G294" s="222"/>
-      <c r="H294" s="221"/>
+      <c r="G294" s="221"/>
+      <c r="H294" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="221"/>
+      <c r="A295" s="116"/>
       <c r="B295" s="154"/>
       <c r="C295" s="154"/>
-      <c r="D295" s="222"/>
-      <c r="E295" s="221"/>
-      <c r="F295" s="221"/>
-      <c r="G295" s="222"/>
-      <c r="H295" s="221"/>
+      <c r="D295" s="221"/>
+      <c r="E295" s="116"/>
+      <c r="F295" s="116"/>
+      <c r="G295" s="221"/>
+      <c r="H295" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="14.25">
       <c r="A296" s="171" t="s">
@@ -13142,14 +13133,14 @@
       <c r="D296" s="155">
         <v>1</v>
       </c>
-      <c r="E296" s="221" t="s">
+      <c r="E296" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F296" s="221" t="s">
+      <c r="F296" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G296" s="222"/>
-      <c r="H296" s="221"/>
+      <c r="G296" s="221"/>
+      <c r="H296" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="60"/>
@@ -13158,14 +13149,14 @@
       <c r="D297" s="155">
         <v>2</v>
       </c>
-      <c r="E297" s="221" t="s">
+      <c r="E297" s="116" t="s">
         <v>1955</v>
       </c>
-      <c r="F297" s="221" t="s">
+      <c r="F297" s="116" t="s">
         <v>1956</v>
       </c>
-      <c r="G297" s="222"/>
-      <c r="H297" s="221"/>
+      <c r="G297" s="221"/>
+      <c r="H297" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="60"/>
@@ -13174,14 +13165,14 @@
       <c r="D298" s="155">
         <v>3</v>
       </c>
-      <c r="E298" s="221" t="s">
+      <c r="E298" s="116" t="s">
         <v>1988</v>
       </c>
-      <c r="F298" s="221" t="s">
+      <c r="F298" s="116" t="s">
         <v>1989</v>
       </c>
-      <c r="G298" s="222"/>
-      <c r="H298" s="221"/>
+      <c r="G298" s="221"/>
+      <c r="H298" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="60"/>
@@ -13190,14 +13181,14 @@
       <c r="D299" s="155">
         <v>4</v>
       </c>
-      <c r="E299" s="221" t="s">
+      <c r="E299" s="116" t="s">
         <v>1990</v>
       </c>
-      <c r="F299" s="221" t="s">
+      <c r="F299" s="116" t="s">
         <v>1991</v>
       </c>
-      <c r="G299" s="222"/>
-      <c r="H299" s="221"/>
+      <c r="G299" s="221"/>
+      <c r="H299" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="60"/>
@@ -13206,14 +13197,14 @@
       <c r="D300" s="155">
         <v>5</v>
       </c>
-      <c r="E300" s="221" t="s">
+      <c r="E300" s="116" t="s">
         <v>1992</v>
       </c>
-      <c r="F300" s="221" t="s">
+      <c r="F300" s="116" t="s">
         <v>1993</v>
       </c>
-      <c r="G300" s="222"/>
-      <c r="H300" s="221"/>
+      <c r="G300" s="221"/>
+      <c r="H300" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="60"/>
@@ -13222,14 +13213,14 @@
       <c r="D301" s="155">
         <v>6</v>
       </c>
-      <c r="E301" s="221" t="s">
+      <c r="E301" s="116" t="s">
         <v>1990</v>
       </c>
-      <c r="F301" s="221" t="s">
+      <c r="F301" s="116" t="s">
         <v>1991</v>
       </c>
-      <c r="G301" s="222"/>
-      <c r="H301" s="221"/>
+      <c r="G301" s="221"/>
+      <c r="H301" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="60"/>
@@ -13238,47 +13229,47 @@
       <c r="D302" s="155">
         <v>7</v>
       </c>
-      <c r="E302" s="221" t="s">
+      <c r="E302" s="116" t="s">
         <v>1994</v>
       </c>
-      <c r="F302" s="221" t="s">
+      <c r="F302" s="116" t="s">
         <v>1995</v>
       </c>
-      <c r="G302" s="222"/>
-      <c r="H302" s="221"/>
+      <c r="G302" s="221"/>
+      <c r="H302" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A303" s="60"/>
       <c r="B303" s="60"/>
       <c r="C303" s="60"/>
-      <c r="D303" s="228"/>
+      <c r="D303" s="227"/>
       <c r="E303" s="154"/>
       <c r="F303" s="154"/>
-      <c r="G303" s="228"/>
+      <c r="G303" s="227"/>
       <c r="H303" s="154"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A304" s="60"/>
       <c r="B304" s="60"/>
       <c r="C304" s="60"/>
-      <c r="D304" s="228"/>
+      <c r="D304" s="227"/>
       <c r="E304" s="154"/>
       <c r="F304" s="154"/>
-      <c r="G304" s="228"/>
+      <c r="G304" s="227"/>
       <c r="H304" s="154"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="221"/>
+      <c r="A305" s="116"/>
       <c r="B305" s="154"/>
       <c r="C305" s="154"/>
-      <c r="D305" s="222"/>
-      <c r="E305" s="221"/>
-      <c r="F305" s="221"/>
-      <c r="G305" s="222"/>
-      <c r="H305" s="221"/>
+      <c r="D305" s="221"/>
+      <c r="E305" s="116"/>
+      <c r="F305" s="116"/>
+      <c r="G305" s="221"/>
+      <c r="H305" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="144.75">
-      <c r="A306" s="223" t="s">
+      <c r="A306" s="222" t="s">
         <v>1996</v>
       </c>
       <c r="B306" s="171" t="s">
@@ -13290,14 +13281,14 @@
       <c r="D306" s="155">
         <v>1</v>
       </c>
-      <c r="E306" s="221" t="s">
+      <c r="E306" s="116" t="s">
         <v>1511</v>
       </c>
-      <c r="F306" s="221" t="s">
+      <c r="F306" s="116" t="s">
         <v>1512</v>
       </c>
-      <c r="G306" s="222"/>
-      <c r="H306" s="221"/>
+      <c r="G306" s="221"/>
+      <c r="H306" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="124"/>
@@ -13306,14 +13297,14 @@
       <c r="D307" s="155">
         <v>2</v>
       </c>
-      <c r="E307" s="221" t="s">
+      <c r="E307" s="116" t="s">
         <v>1955</v>
       </c>
-      <c r="F307" s="221" t="s">
+      <c r="F307" s="116" t="s">
         <v>1956</v>
       </c>
-      <c r="G307" s="222"/>
-      <c r="H307" s="221"/>
+      <c r="G307" s="221"/>
+      <c r="H307" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="124"/>
@@ -13322,14 +13313,14 @@
       <c r="D308" s="155">
         <v>3</v>
       </c>
-      <c r="E308" s="221" t="s">
+      <c r="E308" s="116" t="s">
         <v>1999</v>
       </c>
-      <c r="F308" s="221" t="s">
+      <c r="F308" s="116" t="s">
         <v>2000</v>
       </c>
-      <c r="G308" s="222"/>
-      <c r="H308" s="221"/>
+      <c r="G308" s="221"/>
+      <c r="H308" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="124"/>
@@ -13338,14 +13329,14 @@
       <c r="D309" s="155">
         <v>4</v>
       </c>
-      <c r="E309" s="221" t="s">
+      <c r="E309" s="116" t="s">
         <v>2001</v>
       </c>
-      <c r="F309" s="221" t="s">
+      <c r="F309" s="116" t="s">
         <v>2002</v>
       </c>
-      <c r="G309" s="222"/>
-      <c r="H309" s="221"/>
+      <c r="G309" s="221"/>
+      <c r="H309" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="124"/>
@@ -13354,14 +13345,14 @@
       <c r="D310" s="155">
         <v>5</v>
       </c>
-      <c r="E310" s="221" t="s">
+      <c r="E310" s="116" t="s">
         <v>2003</v>
       </c>
-      <c r="F310" s="221" t="s">
+      <c r="F310" s="116" t="s">
         <v>2002</v>
       </c>
-      <c r="G310" s="222"/>
-      <c r="H310" s="221"/>
+      <c r="G310" s="221"/>
+      <c r="H310" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="124"/>
@@ -13370,14 +13361,14 @@
       <c r="D311" s="155">
         <v>6</v>
       </c>
-      <c r="E311" s="221" t="s">
+      <c r="E311" s="116" t="s">
         <v>2004</v>
       </c>
-      <c r="F311" s="221" t="s">
+      <c r="F311" s="116" t="s">
         <v>2005</v>
       </c>
-      <c r="G311" s="222"/>
-      <c r="H311" s="221"/>
+      <c r="G311" s="221"/>
+      <c r="H311" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="124"/>
@@ -13386,14 +13377,14 @@
       <c r="D312" s="155">
         <v>7</v>
       </c>
-      <c r="E312" s="221" t="s">
+      <c r="E312" s="116" t="s">
         <v>2006</v>
       </c>
-      <c r="F312" s="221" t="s">
+      <c r="F312" s="116" t="s">
         <v>2007</v>
       </c>
-      <c r="G312" s="222"/>
-      <c r="H312" s="221"/>
+      <c r="G312" s="221"/>
+      <c r="H312" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="124"/>
@@ -13402,14 +13393,14 @@
       <c r="D313" s="155">
         <v>8</v>
       </c>
-      <c r="E313" s="221" t="s">
+      <c r="E313" s="116" t="s">
         <v>2008</v>
       </c>
-      <c r="F313" s="221" t="s">
+      <c r="F313" s="116" t="s">
         <v>2007</v>
       </c>
-      <c r="G313" s="222"/>
-      <c r="H313" s="221"/>
+      <c r="G313" s="221"/>
+      <c r="H313" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="124"/>
@@ -13418,14 +13409,14 @@
       <c r="D314" s="155">
         <v>9</v>
       </c>
-      <c r="E314" s="221" t="s">
+      <c r="E314" s="116" t="s">
         <v>2009</v>
       </c>
-      <c r="F314" s="221" t="s">
+      <c r="F314" s="116" t="s">
         <v>2010</v>
       </c>
-      <c r="G314" s="222"/>
-      <c r="H314" s="221"/>
+      <c r="G314" s="221"/>
+      <c r="H314" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="124"/>
@@ -13434,14 +13425,14 @@
       <c r="D315" s="155">
         <v>10</v>
       </c>
-      <c r="E315" s="221" t="s">
+      <c r="E315" s="116" t="s">
         <v>2011</v>
       </c>
-      <c r="F315" s="221" t="s">
+      <c r="F315" s="116" t="s">
         <v>2007</v>
       </c>
-      <c r="G315" s="222"/>
-      <c r="H315" s="221"/>
+      <c r="G315" s="221"/>
+      <c r="H315" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="124"/>
@@ -13450,24 +13441,24 @@
       <c r="D316" s="155">
         <v>11</v>
       </c>
-      <c r="E316" s="221" t="s">
+      <c r="E316" s="116" t="s">
         <v>2012</v>
       </c>
-      <c r="F316" s="221" t="s">
+      <c r="F316" s="116" t="s">
         <v>2007</v>
       </c>
-      <c r="G316" s="222"/>
-      <c r="H316" s="221"/>
+      <c r="G316" s="221"/>
+      <c r="H316" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="221"/>
+      <c r="A317" s="116"/>
       <c r="B317" s="154"/>
       <c r="C317" s="154"/>
-      <c r="D317" s="222"/>
-      <c r="E317" s="221"/>
-      <c r="F317" s="221"/>
-      <c r="G317" s="222"/>
-      <c r="H317" s="221"/>
+      <c r="D317" s="221"/>
+      <c r="E317" s="116"/>
+      <c r="F317" s="116"/>
+      <c r="G317" s="221"/>
+      <c r="H317" s="116"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="13.5" customFormat="1" s="1">
       <c r="A318" s="154" t="s">
@@ -13479,10 +13470,10 @@
       <c r="C318" s="154" t="s">
         <v>2015</v>
       </c>
-      <c r="D318" s="228"/>
+      <c r="D318" s="227"/>
       <c r="E318" s="154"/>
       <c r="F318" s="154"/>
-      <c r="G318" s="228"/>
+      <c r="G318" s="227"/>
       <c r="H318" s="154"/>
     </row>
   </sheetData>

--- a/Plan de Pruebas Demo QA.xlsx
+++ b/Plan de Pruebas Demo QA.xlsx
@@ -27751,7 +27751,7 @@
       <c r="G120" s="63"/>
       <c r="H120" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="33">
       <c r="A121" s="38"/>
       <c r="B121" s="39"/>
       <c r="C121" s="60"/>
@@ -27769,7 +27769,7 @@
       </c>
       <c r="H121" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="33">
       <c r="A122" s="38"/>
       <c r="B122" s="39"/>
       <c r="C122" s="60"/>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="H122" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="33">
       <c r="A123" s="38"/>
       <c r="B123" s="39"/>
       <c r="C123" s="60"/>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="H123" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="33">
       <c r="A124" s="38"/>
       <c r="B124" s="39"/>
       <c r="C124" s="60"/>
@@ -27823,7 +27823,7 @@
       </c>
       <c r="H124" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="33">
       <c r="A125" s="38"/>
       <c r="B125" s="39"/>
       <c r="C125" s="60"/>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="H125" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="33">
       <c r="A126" s="38"/>
       <c r="B126" s="39"/>
       <c r="C126" s="60"/>
@@ -27859,7 +27859,7 @@
       </c>
       <c r="H126" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="38"/>
       <c r="B127" s="39"/>
       <c r="C127" s="60"/>
@@ -27875,7 +27875,7 @@
       <c r="G127" s="63"/>
       <c r="H127" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="33">
       <c r="A128" s="38"/>
       <c r="B128" s="39"/>
       <c r="C128" s="60"/>
@@ -27891,7 +27891,7 @@
       <c r="G128" s="63"/>
       <c r="H128" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="57.75">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="38"/>
       <c r="B129" s="39"/>
       <c r="C129" s="60"/>
@@ -27907,7 +27907,7 @@
       <c r="G129" s="63"/>
       <c r="H129" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="33">
       <c r="A130" s="38"/>
       <c r="B130" s="39"/>
       <c r="C130" s="60"/>
@@ -27923,7 +27923,7 @@
       <c r="G130" s="63"/>
       <c r="H130" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="38"/>
       <c r="B131" s="39"/>
       <c r="C131" s="60"/>
@@ -27939,7 +27939,7 @@
       <c r="G131" s="63"/>
       <c r="H131" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="33">
       <c r="A132" s="38"/>
       <c r="B132" s="39"/>
       <c r="C132" s="60"/>
@@ -27955,7 +27955,7 @@
       <c r="G132" s="63"/>
       <c r="H132" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="38"/>
       <c r="B133" s="39"/>
       <c r="C133" s="60"/>
@@ -27971,7 +27971,7 @@
       <c r="G133" s="63"/>
       <c r="H133" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="33">
       <c r="A134" s="38"/>
       <c r="B134" s="39"/>
       <c r="C134" s="60"/>
@@ -27987,7 +27987,7 @@
       <c r="G134" s="63"/>
       <c r="H134" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="38"/>
       <c r="B135" s="39"/>
       <c r="C135" s="60"/>
@@ -28003,7 +28003,7 @@
       <c r="G135" s="63"/>
       <c r="H135" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="33">
       <c r="A136" s="38"/>
       <c r="B136" s="39"/>
       <c r="C136" s="60"/>
@@ -28019,7 +28019,7 @@
       <c r="G136" s="63"/>
       <c r="H136" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="38"/>
       <c r="B137" s="39"/>
       <c r="C137" s="60"/>
@@ -28035,7 +28035,7 @@
       <c r="G137" s="63"/>
       <c r="H137" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="33">
       <c r="A138" s="38"/>
       <c r="B138" s="39"/>
       <c r="C138" s="60"/>
